--- a/item_data.xlsx
+++ b/item_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>body_h</t>
   </si>
@@ -58,6 +58,9 @@
     <t>op10_test</t>
   </si>
   <si>
+    <t>op10_time_stamp</t>
+  </si>
+  <si>
     <t>op10_w</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>op20_test</t>
   </si>
   <si>
+    <t>op20_time_stamp</t>
+  </si>
+  <si>
     <t>op20_w</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t>op30_test</t>
   </si>
   <si>
+    <t>op30_time_stamp</t>
+  </si>
+  <si>
     <t>op30_w</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>op40_test</t>
   </si>
   <si>
+    <t>op40_time_stamp</t>
+  </si>
+  <si>
     <t>op40_w</t>
   </si>
   <si>
@@ -127,12 +139,30 @@
     <t>op50_temperature</t>
   </si>
   <si>
+    <t>op50_time_stamp</t>
+  </si>
+  <si>
     <t>op50_w</t>
   </si>
   <si>
+    <t>op60_h</t>
+  </si>
+  <si>
+    <t>op60_l</t>
+  </si>
+  <si>
+    <t>op60_process_time</t>
+  </si>
+  <si>
     <t>op60_test</t>
   </si>
   <si>
+    <t>op60_time_stamp</t>
+  </si>
+  <si>
+    <t>op60_w</t>
+  </si>
+  <si>
     <t>pipe1_h</t>
   </si>
   <si>
@@ -161,6 +191,27 @@
   </si>
   <si>
     <t>item_key</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:50:58</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:50:59</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:51:00</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:51:01</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:51:02</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:51:03</t>
+  </si>
+  <si>
+    <t>2020-09-24 23:51:04</t>
   </si>
 </sst>
 </file>
@@ -518,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:BG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -672,1495 +723,1825 @@
       <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:59">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49.99872</v>
+        <v>50.00043</v>
       </c>
       <c r="C2">
-        <v>260.00119</v>
+        <v>259.99883</v>
       </c>
       <c r="D2">
-        <v>180.00161</v>
+        <v>180.00305</v>
       </c>
       <c r="E2">
-        <v>40.0009</v>
+        <v>39.99791</v>
       </c>
       <c r="F2">
-        <v>29.99802</v>
+        <v>29.99911</v>
       </c>
       <c r="G2">
-        <v>80.00191</v>
+        <v>79.9969</v>
       </c>
       <c r="H2">
-        <v>39.99847</v>
+        <v>40.00209</v>
       </c>
       <c r="I2">
-        <v>30.00149</v>
+        <v>29.99663</v>
       </c>
       <c r="J2">
-        <v>80.00036</v>
+        <v>79.99441</v>
       </c>
       <c r="K2">
-        <v>96.57626999999999</v>
+        <v>98.39958</v>
       </c>
       <c r="L2">
-        <v>60.00305</v>
+        <v>59.99906</v>
       </c>
       <c r="M2">
-        <v>260.00119</v>
+        <v>259.99883</v>
       </c>
       <c r="N2">
-        <v>17.56019</v>
+        <v>15.24854</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2">
-        <v>180.00161</v>
+      <c r="P2" t="s">
+        <v>59</v>
       </c>
       <c r="Q2">
-        <v>99.87611</v>
+        <v>180.00305</v>
       </c>
       <c r="R2">
-        <v>60.00305</v>
+        <v>90.15133</v>
       </c>
       <c r="S2">
-        <v>260.00119</v>
+        <v>59.99906</v>
       </c>
       <c r="T2">
-        <v>2.97846</v>
+        <v>259.99883</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>12.11897</v>
       </c>
       <c r="V2">
-        <v>180.00161</v>
-      </c>
-      <c r="W2">
-        <v>94.87732</v>
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>60</v>
       </c>
       <c r="X2">
-        <v>60.00305</v>
+        <v>180.00305</v>
       </c>
       <c r="Y2">
-        <v>260.00119</v>
+        <v>90.59811000000001</v>
       </c>
       <c r="Z2">
-        <v>3.65961</v>
+        <v>59.99906</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>259.99883</v>
       </c>
       <c r="AB2">
-        <v>180.00161</v>
+        <v>7.7571</v>
       </c>
       <c r="AC2">
-        <v>60.00305</v>
-      </c>
-      <c r="AD2">
-        <v>260.00119</v>
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>61</v>
       </c>
       <c r="AE2">
-        <v>2.68599</v>
+        <v>180.00305</v>
       </c>
       <c r="AF2">
-        <v>491.35731</v>
+        <v>59.99906</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>259.99883</v>
       </c>
       <c r="AH2">
-        <v>180.00161</v>
+        <v>0.99948</v>
       </c>
       <c r="AI2">
-        <v>60.00305</v>
+        <v>498.96149</v>
       </c>
       <c r="AJ2">
-        <v>260.00119</v>
-      </c>
-      <c r="AK2">
-        <v>29.18997</v>
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>62</v>
       </c>
       <c r="AL2">
-        <v>490.32469</v>
+        <v>180.00305</v>
       </c>
       <c r="AM2">
-        <v>180.00161</v>
+        <v>59.99906</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>259.99883</v>
       </c>
       <c r="AO2">
-        <v>30.00073</v>
+        <v>1.80979</v>
       </c>
       <c r="AP2">
-        <v>29.99801</v>
-      </c>
-      <c r="AQ2">
-        <v>50.00044</v>
+        <v>502.18538</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>63</v>
       </c>
       <c r="AR2">
-        <v>29.99683</v>
+        <v>180.00305</v>
       </c>
       <c r="AS2">
-        <v>30.00075</v>
+        <v>59.99906</v>
       </c>
       <c r="AT2">
-        <v>50.00205</v>
+        <v>259.99883</v>
       </c>
       <c r="AU2">
-        <v>60.00305</v>
+        <v>4.15696</v>
       </c>
       <c r="AV2">
-        <v>100.00217</v>
-      </c>
-      <c r="AW2">
-        <v>49.99999</v>
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX2">
+        <v>180.00305</v>
+      </c>
+      <c r="AY2">
+        <v>30.0002</v>
+      </c>
+      <c r="AZ2">
+        <v>30.00174</v>
+      </c>
+      <c r="BA2">
+        <v>50.0019</v>
+      </c>
+      <c r="BB2">
+        <v>29.99981</v>
+      </c>
+      <c r="BC2">
+        <v>29.9965</v>
+      </c>
+      <c r="BD2">
+        <v>50.00167</v>
+      </c>
+      <c r="BE2">
+        <v>59.99906</v>
+      </c>
+      <c r="BF2">
+        <v>100.00199</v>
+      </c>
+      <c r="BG2">
+        <v>50.00261</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:59">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50.00132</v>
+        <v>49.99384</v>
       </c>
       <c r="C3">
-        <v>260.00361</v>
+        <v>259.99356</v>
       </c>
       <c r="D3">
-        <v>179.99523</v>
+        <v>179.99626</v>
       </c>
       <c r="E3">
-        <v>39.99901</v>
+        <v>39.99957</v>
       </c>
       <c r="F3">
-        <v>29.99929</v>
+        <v>29.99651</v>
       </c>
       <c r="G3">
-        <v>80.00004</v>
+        <v>79.99849</v>
       </c>
       <c r="H3">
-        <v>39.99781</v>
+        <v>39.99588</v>
       </c>
       <c r="I3">
-        <v>30.00747</v>
+        <v>29.99577</v>
       </c>
       <c r="J3">
-        <v>79.99691</v>
+        <v>80.00287</v>
       </c>
       <c r="K3">
-        <v>94.28404999999999</v>
+        <v>99.74236999999999</v>
       </c>
       <c r="L3">
-        <v>60.00256</v>
+        <v>59.99976</v>
       </c>
       <c r="M3">
-        <v>260.00361</v>
+        <v>259.99356</v>
       </c>
       <c r="N3">
-        <v>7.38046</v>
+        <v>9.69985</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>179.99523</v>
+      <c r="P3" t="s">
+        <v>60</v>
       </c>
       <c r="Q3">
-        <v>97.66779</v>
+        <v>179.99626</v>
       </c>
       <c r="R3">
-        <v>60.00256</v>
+        <v>95.02591</v>
       </c>
       <c r="S3">
-        <v>260.00361</v>
+        <v>59.99976</v>
       </c>
       <c r="T3">
-        <v>3.53843</v>
+        <v>259.99356</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>10.49883</v>
       </c>
       <c r="V3">
-        <v>179.99523</v>
-      </c>
-      <c r="W3">
-        <v>98.33463</v>
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
       </c>
       <c r="X3">
-        <v>60.00256</v>
+        <v>179.99626</v>
       </c>
       <c r="Y3">
-        <v>260.00361</v>
+        <v>91.08528</v>
       </c>
       <c r="Z3">
-        <v>20.855</v>
+        <v>59.99976</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>259.99356</v>
       </c>
       <c r="AB3">
-        <v>179.99523</v>
+        <v>35.95093</v>
       </c>
       <c r="AC3">
-        <v>60.00256</v>
-      </c>
-      <c r="AD3">
-        <v>260.00361</v>
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>62</v>
       </c>
       <c r="AE3">
-        <v>0.33121</v>
+        <v>179.99626</v>
       </c>
       <c r="AF3">
-        <v>492.16708</v>
+        <v>59.99976</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>259.99356</v>
       </c>
       <c r="AH3">
-        <v>179.99523</v>
+        <v>17.75519</v>
       </c>
       <c r="AI3">
-        <v>60.00256</v>
+        <v>500.35413</v>
       </c>
       <c r="AJ3">
-        <v>260.00361</v>
-      </c>
-      <c r="AK3">
-        <v>2.89898</v>
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>63</v>
       </c>
       <c r="AL3">
-        <v>506.6435</v>
+        <v>179.99626</v>
       </c>
       <c r="AM3">
-        <v>179.99523</v>
+        <v>59.99976</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>259.99356</v>
       </c>
       <c r="AO3">
-        <v>30.00026</v>
+        <v>24.86312</v>
       </c>
       <c r="AP3">
-        <v>29.99643</v>
-      </c>
-      <c r="AQ3">
-        <v>49.99985</v>
+        <v>497.06067</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>63</v>
       </c>
       <c r="AR3">
-        <v>30.00356</v>
+        <v>179.99626</v>
       </c>
       <c r="AS3">
-        <v>29.99999</v>
+        <v>59.99976</v>
       </c>
       <c r="AT3">
-        <v>49.99584</v>
+        <v>259.99356</v>
       </c>
       <c r="AU3">
-        <v>60.00256</v>
+        <v>1.64525</v>
       </c>
       <c r="AV3">
-        <v>99.99609</v>
-      </c>
-      <c r="AW3">
-        <v>50.00252</v>
+        <v>0</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX3">
+        <v>179.99626</v>
+      </c>
+      <c r="AY3">
+        <v>30.00211</v>
+      </c>
+      <c r="AZ3">
+        <v>30.0036</v>
+      </c>
+      <c r="BA3">
+        <v>49.99803</v>
+      </c>
+      <c r="BB3">
+        <v>29.99701</v>
+      </c>
+      <c r="BC3">
+        <v>29.99923</v>
+      </c>
+      <c r="BD3">
+        <v>50.00113</v>
+      </c>
+      <c r="BE3">
+        <v>59.99976</v>
+      </c>
+      <c r="BF3">
+        <v>100.00067</v>
+      </c>
+      <c r="BG3">
+        <v>50.0017</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:59">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50.00091</v>
+        <v>49.99831</v>
       </c>
       <c r="C4">
-        <v>259.99271</v>
+        <v>259.99879</v>
       </c>
       <c r="D4">
-        <v>180.00131</v>
+        <v>179.99894</v>
       </c>
       <c r="E4">
-        <v>39.99766</v>
+        <v>40.00064</v>
       </c>
       <c r="F4">
-        <v>29.99886</v>
+        <v>30.00069</v>
       </c>
       <c r="G4">
-        <v>79.99983</v>
+        <v>79.99892</v>
       </c>
       <c r="H4">
-        <v>40.00177</v>
+        <v>40.00007</v>
       </c>
       <c r="I4">
-        <v>29.99567</v>
+        <v>29.99897</v>
       </c>
       <c r="J4">
-        <v>79.99996</v>
+        <v>79.99641</v>
       </c>
       <c r="K4">
-        <v>91.67374</v>
+        <v>92.04358000000001</v>
       </c>
       <c r="L4">
-        <v>59.99676</v>
+        <v>60.00392</v>
       </c>
       <c r="M4">
-        <v>259.99271</v>
+        <v>259.99879</v>
       </c>
       <c r="N4">
-        <v>5.2677</v>
+        <v>22.81978</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>180.00131</v>
+      <c r="P4" t="s">
+        <v>60</v>
       </c>
       <c r="Q4">
-        <v>94.64116</v>
+        <v>179.99894</v>
       </c>
       <c r="R4">
-        <v>59.99676</v>
+        <v>97.71889</v>
       </c>
       <c r="S4">
-        <v>259.99271</v>
+        <v>60.00392</v>
       </c>
       <c r="T4">
-        <v>2.23708</v>
+        <v>259.99879</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>11.11727</v>
       </c>
       <c r="V4">
-        <v>180.00131</v>
-      </c>
-      <c r="W4">
-        <v>98.57532</v>
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
       </c>
       <c r="X4">
-        <v>59.99676</v>
+        <v>179.99894</v>
       </c>
       <c r="Y4">
-        <v>259.99271</v>
+        <v>90.52231</v>
       </c>
       <c r="Z4">
-        <v>2.88021</v>
+        <v>60.00392</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>259.99879</v>
       </c>
       <c r="AB4">
-        <v>180.00131</v>
+        <v>5.83878</v>
       </c>
       <c r="AC4">
-        <v>59.99676</v>
-      </c>
-      <c r="AD4">
-        <v>259.99271</v>
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>62</v>
       </c>
       <c r="AE4">
-        <v>7.53431</v>
+        <v>179.99894</v>
       </c>
       <c r="AF4">
-        <v>503.18063</v>
+        <v>60.00392</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>259.99879</v>
       </c>
       <c r="AH4">
-        <v>180.00131</v>
+        <v>15.333</v>
       </c>
       <c r="AI4">
-        <v>59.99676</v>
+        <v>500.06314</v>
       </c>
       <c r="AJ4">
-        <v>259.99271</v>
-      </c>
-      <c r="AK4">
-        <v>19.59218</v>
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>63</v>
       </c>
       <c r="AL4">
-        <v>503.96546</v>
+        <v>179.99894</v>
       </c>
       <c r="AM4">
-        <v>180.00131</v>
+        <v>60.00392</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>259.99879</v>
       </c>
       <c r="AO4">
-        <v>29.99922</v>
+        <v>1.57511</v>
       </c>
       <c r="AP4">
-        <v>29.99765</v>
-      </c>
-      <c r="AQ4">
-        <v>49.99714</v>
+        <v>507.12561</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>63</v>
       </c>
       <c r="AR4">
-        <v>30.00363</v>
+        <v>179.99894</v>
       </c>
       <c r="AS4">
-        <v>30.00027</v>
+        <v>60.00392</v>
       </c>
       <c r="AT4">
-        <v>50.00197</v>
+        <v>259.99879</v>
       </c>
       <c r="AU4">
-        <v>59.99676</v>
+        <v>3.44586</v>
       </c>
       <c r="AV4">
-        <v>100.00116</v>
-      </c>
-      <c r="AW4">
-        <v>50.00487</v>
+        <v>0</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX4">
+        <v>179.99894</v>
+      </c>
+      <c r="AY4">
+        <v>29.99791</v>
+      </c>
+      <c r="AZ4">
+        <v>29.9997</v>
+      </c>
+      <c r="BA4">
+        <v>49.9977</v>
+      </c>
+      <c r="BB4">
+        <v>30.00094</v>
+      </c>
+      <c r="BC4">
+        <v>29.99944</v>
+      </c>
+      <c r="BD4">
+        <v>50.00007</v>
+      </c>
+      <c r="BE4">
+        <v>60.00392</v>
+      </c>
+      <c r="BF4">
+        <v>100.00127</v>
+      </c>
+      <c r="BG4">
+        <v>50.00036</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:59">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>49.99613</v>
+        <v>50.00309</v>
       </c>
       <c r="C5">
-        <v>260.00488</v>
+        <v>259.99932</v>
       </c>
       <c r="D5">
-        <v>180.00121</v>
+        <v>180.1550054</v>
       </c>
       <c r="E5">
-        <v>39.99726</v>
+        <v>39.9999</v>
       </c>
       <c r="F5">
-        <v>30.00131</v>
+        <v>30.00178</v>
       </c>
       <c r="G5">
-        <v>79.99747000000001</v>
+        <v>79.9958</v>
       </c>
       <c r="H5">
-        <v>40.00075</v>
+        <v>39.99817</v>
       </c>
       <c r="I5">
-        <v>30.00065</v>
+        <v>29.99874</v>
       </c>
       <c r="J5">
-        <v>79.9991</v>
+        <v>79.99867999999999</v>
       </c>
       <c r="K5">
-        <v>91.77974</v>
+        <v>94.46107000000001</v>
       </c>
       <c r="L5">
-        <v>59.99706</v>
+        <v>60.00525</v>
       </c>
       <c r="M5">
-        <v>260.00488</v>
+        <v>259.99932</v>
       </c>
       <c r="N5">
-        <v>4.26469</v>
+        <v>1.76331</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>180.00121</v>
+      <c r="P5" t="s">
+        <v>60</v>
       </c>
       <c r="Q5">
-        <v>97.73778</v>
+        <v>180.1550054</v>
       </c>
       <c r="R5">
-        <v>59.99706</v>
+        <v>92.92957</v>
       </c>
       <c r="S5">
-        <v>260.00488</v>
+        <v>60.00525</v>
       </c>
       <c r="T5">
-        <v>19.39571</v>
+        <v>259.99932</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>12.05102</v>
       </c>
       <c r="V5">
-        <v>180.00121</v>
-      </c>
-      <c r="W5">
-        <v>93.57087</v>
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
       </c>
       <c r="X5">
-        <v>59.99706</v>
+        <v>180.1550054</v>
       </c>
       <c r="Y5">
-        <v>260.00488</v>
+        <v>89.43986</v>
       </c>
       <c r="Z5">
-        <v>18.87088</v>
+        <v>60.00525</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>259.99932</v>
       </c>
       <c r="AB5">
-        <v>180.00121</v>
+        <v>18.96656</v>
       </c>
       <c r="AC5">
-        <v>59.99706</v>
-      </c>
-      <c r="AD5">
-        <v>260.00488</v>
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>62</v>
       </c>
       <c r="AE5">
-        <v>19.04129</v>
+        <v>180.1550054</v>
       </c>
       <c r="AF5">
-        <v>492.55549</v>
+        <v>60.00525</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>259.99932</v>
       </c>
       <c r="AH5">
-        <v>180.00121</v>
+        <v>2.31664</v>
       </c>
       <c r="AI5">
-        <v>59.99706</v>
+        <v>498.646</v>
       </c>
       <c r="AJ5">
-        <v>260.00488</v>
-      </c>
-      <c r="AK5">
-        <v>13.93394</v>
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>63</v>
       </c>
       <c r="AL5">
-        <v>508.23151</v>
+        <v>180.1550054</v>
       </c>
       <c r="AM5">
-        <v>180.00121</v>
+        <v>60.00525</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>259.99932</v>
       </c>
       <c r="AO5">
-        <v>30.00209</v>
+        <v>25.52558</v>
       </c>
       <c r="AP5">
-        <v>29.99829</v>
-      </c>
-      <c r="AQ5">
-        <v>50.00472</v>
+        <v>489.16239</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>64</v>
       </c>
       <c r="AR5">
-        <v>30.00504</v>
+        <v>180.1550054</v>
       </c>
       <c r="AS5">
-        <v>30.00138</v>
+        <v>60.00525</v>
       </c>
       <c r="AT5">
-        <v>49.99852</v>
+        <v>259.99932</v>
       </c>
       <c r="AU5">
-        <v>59.99706</v>
+        <v>25.43934</v>
       </c>
       <c r="AV5">
-        <v>99.99966999999999</v>
-      </c>
-      <c r="AW5">
-        <v>50.00108</v>
+        <v>0</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX5">
+        <v>180.1550054</v>
+      </c>
+      <c r="AY5">
+        <v>29.99417</v>
+      </c>
+      <c r="AZ5">
+        <v>29.99744</v>
+      </c>
+      <c r="BA5">
+        <v>49.99707</v>
+      </c>
+      <c r="BB5">
+        <v>30.00308</v>
+      </c>
+      <c r="BC5">
+        <v>30.00312</v>
+      </c>
+      <c r="BD5">
+        <v>50.00133</v>
+      </c>
+      <c r="BE5">
+        <v>60.00525</v>
+      </c>
+      <c r="BF5">
+        <v>100.00231</v>
+      </c>
+      <c r="BG5">
+        <v>49.99753</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:59">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>50.00158</v>
+        <v>49.99819</v>
       </c>
       <c r="C6">
-        <v>260.00506</v>
+        <v>259.99568</v>
       </c>
       <c r="D6">
-        <v>180.00133</v>
+        <v>180.00015</v>
       </c>
       <c r="E6">
-        <v>40.00073</v>
+        <v>40.00104</v>
       </c>
       <c r="F6">
-        <v>30.00262</v>
+        <v>29.99713</v>
       </c>
       <c r="G6">
-        <v>80.00494</v>
+        <v>79.99817</v>
       </c>
       <c r="H6">
-        <v>39.9919</v>
+        <v>39.99889</v>
       </c>
       <c r="I6">
-        <v>30.0021</v>
+        <v>29.99821</v>
       </c>
       <c r="J6">
-        <v>80.00297999999999</v>
+        <v>79.99661999999999</v>
       </c>
       <c r="K6">
-        <v>90.88297</v>
+        <v>91.50623</v>
       </c>
       <c r="L6">
-        <v>59.9999</v>
+        <v>60.00002</v>
       </c>
       <c r="M6">
-        <v>260.00506</v>
+        <v>259.99568</v>
       </c>
       <c r="N6">
-        <v>1.57127</v>
+        <v>13.62177</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>180.00133</v>
+      <c r="P6" t="s">
+        <v>60</v>
       </c>
       <c r="Q6">
-        <v>93.17838999999999</v>
+        <v>180.00015</v>
       </c>
       <c r="R6">
-        <v>59.9999</v>
+        <v>90.58239</v>
       </c>
       <c r="S6">
-        <v>260.00506</v>
+        <v>60.00002</v>
       </c>
       <c r="T6">
-        <v>2.32401</v>
+        <v>259.99568</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>7.69977</v>
       </c>
       <c r="V6">
-        <v>180.00133</v>
-      </c>
-      <c r="W6">
-        <v>91.59365</v>
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
       </c>
       <c r="X6">
-        <v>59.9999</v>
+        <v>180.00015</v>
       </c>
       <c r="Y6">
-        <v>260.00506</v>
+        <v>91.93716000000001</v>
       </c>
       <c r="Z6">
-        <v>6.58019</v>
+        <v>60.00002</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>259.99568</v>
       </c>
       <c r="AB6">
-        <v>180.00133</v>
+        <v>0.22802</v>
       </c>
       <c r="AC6">
-        <v>59.9999</v>
-      </c>
-      <c r="AD6">
-        <v>260.00506</v>
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>62</v>
       </c>
       <c r="AE6">
-        <v>31.99981</v>
+        <v>180.00015</v>
       </c>
       <c r="AF6">
-        <v>500.78492</v>
+        <v>60.00002</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>259.99568</v>
       </c>
       <c r="AH6">
-        <v>180.00133</v>
+        <v>0.37099</v>
       </c>
       <c r="AI6">
-        <v>59.9999</v>
+        <v>500.00951</v>
       </c>
       <c r="AJ6">
-        <v>260.00506</v>
-      </c>
-      <c r="AK6">
-        <v>3.79267</v>
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>63</v>
       </c>
       <c r="AL6">
-        <v>507.53185</v>
+        <v>180.00015</v>
       </c>
       <c r="AM6">
-        <v>180.00133</v>
+        <v>60.00002</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>259.99568</v>
       </c>
       <c r="AO6">
-        <v>30.00442</v>
+        <v>7.84469</v>
       </c>
       <c r="AP6">
-        <v>30.00057</v>
-      </c>
-      <c r="AQ6">
-        <v>50.00485</v>
+        <v>509.12491</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>64</v>
       </c>
       <c r="AR6">
-        <v>29.99731</v>
+        <v>180.00015</v>
       </c>
       <c r="AS6">
-        <v>30.00133</v>
+        <v>60.00002</v>
       </c>
       <c r="AT6">
-        <v>49.9962</v>
+        <v>259.99568</v>
       </c>
       <c r="AU6">
-        <v>59.9999</v>
+        <v>10.04437</v>
       </c>
       <c r="AV6">
-        <v>100</v>
-      </c>
-      <c r="AW6">
-        <v>50.00057</v>
+        <v>0</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX6">
+        <v>180.00015</v>
+      </c>
+      <c r="AY6">
+        <v>30.00058</v>
+      </c>
+      <c r="AZ6">
+        <v>29.99869</v>
+      </c>
+      <c r="BA6">
+        <v>50.0019</v>
+      </c>
+      <c r="BB6">
+        <v>29.99726</v>
+      </c>
+      <c r="BC6">
+        <v>29.99904</v>
+      </c>
+      <c r="BD6">
+        <v>50.00078</v>
+      </c>
+      <c r="BE6">
+        <v>60.00002</v>
+      </c>
+      <c r="BF6">
+        <v>100.00575</v>
+      </c>
+      <c r="BG6">
+        <v>50.00175</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:59">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50.00113</v>
+        <v>49.99897</v>
       </c>
       <c r="C7">
-        <v>260.00274</v>
+        <v>260.00116</v>
       </c>
       <c r="D7">
-        <v>179.99944</v>
+        <v>179.99786</v>
       </c>
       <c r="E7">
-        <v>39.99557</v>
+        <v>39.99925</v>
       </c>
       <c r="F7">
-        <v>30.00246</v>
+        <v>29.99901</v>
       </c>
       <c r="G7">
-        <v>79.99769000000001</v>
+        <v>80.00075</v>
       </c>
       <c r="H7">
-        <v>39.99859</v>
+        <v>40.00069</v>
       </c>
       <c r="I7">
-        <v>30.00105</v>
+        <v>30.00004</v>
       </c>
       <c r="J7">
-        <v>79.99691</v>
+        <v>80.00002000000001</v>
       </c>
       <c r="K7">
-        <v>99.16194</v>
+        <v>89.05212</v>
       </c>
       <c r="L7">
-        <v>59.99859</v>
+        <v>60.00442</v>
       </c>
       <c r="M7">
-        <v>260.00274</v>
+        <v>260.00116</v>
       </c>
       <c r="N7">
-        <v>1.02856</v>
+        <v>0.75497</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>179.99944</v>
+      <c r="P7" t="s">
+        <v>60</v>
       </c>
       <c r="Q7">
-        <v>98.71462</v>
+        <v>179.99786</v>
       </c>
       <c r="R7">
-        <v>59.99859</v>
+        <v>90.78212000000001</v>
       </c>
       <c r="S7">
-        <v>260.00274</v>
+        <v>60.00442</v>
       </c>
       <c r="T7">
-        <v>13.3834</v>
+        <v>260.00116</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>7.93825</v>
       </c>
       <c r="V7">
-        <v>179.99944</v>
-      </c>
-      <c r="W7">
-        <v>98.00566000000001</v>
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
       </c>
       <c r="X7">
-        <v>59.99859</v>
+        <v>179.99786</v>
       </c>
       <c r="Y7">
-        <v>260.00274</v>
+        <v>94.26958999999999</v>
       </c>
       <c r="Z7">
-        <v>4.39447</v>
+        <v>60.00442</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>260.00116</v>
       </c>
       <c r="AB7">
-        <v>179.99944</v>
+        <v>3.25094</v>
       </c>
       <c r="AC7">
-        <v>59.99859</v>
-      </c>
-      <c r="AD7">
-        <v>260.00274</v>
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>62</v>
       </c>
       <c r="AE7">
-        <v>1.94273</v>
+        <v>179.99786</v>
       </c>
       <c r="AF7">
-        <v>503.34755</v>
+        <v>60.00442</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>260.00116</v>
       </c>
       <c r="AH7">
-        <v>179.99944</v>
+        <v>1.17762</v>
       </c>
       <c r="AI7">
-        <v>59.99859</v>
+        <v>498.76302</v>
       </c>
       <c r="AJ7">
-        <v>260.00274</v>
-      </c>
-      <c r="AK7">
-        <v>6.40535</v>
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>63</v>
       </c>
       <c r="AL7">
-        <v>492.39914</v>
+        <v>179.99786</v>
       </c>
       <c r="AM7">
-        <v>179.99944</v>
+        <v>60.00442</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>260.00116</v>
       </c>
       <c r="AO7">
-        <v>29.99972</v>
+        <v>7.7746</v>
       </c>
       <c r="AP7">
-        <v>29.9998</v>
-      </c>
-      <c r="AQ7">
-        <v>50.00201</v>
+        <v>509.33646</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>64</v>
       </c>
       <c r="AR7">
-        <v>30.00467</v>
+        <v>179.99786</v>
       </c>
       <c r="AS7">
-        <v>29.99887</v>
+        <v>60.00442</v>
       </c>
       <c r="AT7">
-        <v>49.99567</v>
+        <v>260.00116</v>
       </c>
       <c r="AU7">
-        <v>59.99859</v>
+        <v>8.51577</v>
       </c>
       <c r="AV7">
-        <v>100.00043</v>
-      </c>
-      <c r="AW7">
-        <v>50.00031</v>
+        <v>0</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX7">
+        <v>179.99786</v>
+      </c>
+      <c r="AY7">
+        <v>29.99737</v>
+      </c>
+      <c r="AZ7">
+        <v>29.99891</v>
+      </c>
+      <c r="BA7">
+        <v>50.00102</v>
+      </c>
+      <c r="BB7">
+        <v>30.00002</v>
+      </c>
+      <c r="BC7">
+        <v>29.99784</v>
+      </c>
+      <c r="BD7">
+        <v>50.00186</v>
+      </c>
+      <c r="BE7">
+        <v>60.00442</v>
+      </c>
+      <c r="BF7">
+        <v>99.99424</v>
+      </c>
+      <c r="BG7">
+        <v>50.00312</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:59">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50.0005</v>
+        <v>50.00616</v>
       </c>
       <c r="C8">
-        <v>260.00067</v>
+        <v>259.99213</v>
       </c>
       <c r="D8">
-        <v>180.146616</v>
+        <v>179.99719</v>
       </c>
       <c r="E8">
-        <v>39.99706</v>
+        <v>39.99746</v>
       </c>
       <c r="F8">
-        <v>29.99866</v>
+        <v>29.9969</v>
       </c>
       <c r="G8">
-        <v>80.00351000000001</v>
+        <v>79.99827000000001</v>
       </c>
       <c r="H8">
-        <v>39.99687</v>
+        <v>40.00518</v>
       </c>
       <c r="I8">
-        <v>30.00201</v>
+        <v>29.99877</v>
       </c>
       <c r="J8">
-        <v>79.99891</v>
+        <v>79.99625</v>
       </c>
       <c r="K8">
-        <v>95.26826</v>
+        <v>97.81775</v>
       </c>
       <c r="L8">
-        <v>59.99679</v>
+        <v>59.99993</v>
       </c>
       <c r="M8">
-        <v>260.00067</v>
+        <v>259.99213</v>
       </c>
       <c r="N8">
-        <v>2.47645</v>
+        <v>8.97916</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8">
-        <v>180.146616</v>
+      <c r="P8" t="s">
+        <v>60</v>
       </c>
       <c r="Q8">
-        <v>92.04818</v>
+        <v>179.99719</v>
       </c>
       <c r="R8">
-        <v>59.99679</v>
+        <v>98.11608</v>
       </c>
       <c r="S8">
-        <v>260.00067</v>
+        <v>59.99993</v>
       </c>
       <c r="T8">
-        <v>1.12547</v>
+        <v>259.99213</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>2.65756</v>
       </c>
       <c r="V8">
-        <v>180.146616</v>
-      </c>
-      <c r="W8">
-        <v>89.58540000000001</v>
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
       </c>
       <c r="X8">
-        <v>59.99679</v>
+        <v>179.99719</v>
       </c>
       <c r="Y8">
-        <v>260.00067</v>
+        <v>91.44238</v>
       </c>
       <c r="Z8">
-        <v>7.14383</v>
+        <v>59.99993</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>259.99213</v>
       </c>
       <c r="AB8">
-        <v>180.146616</v>
+        <v>4.16559</v>
       </c>
       <c r="AC8">
-        <v>59.99679</v>
-      </c>
-      <c r="AD8">
-        <v>260.00067</v>
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>62</v>
       </c>
       <c r="AE8">
-        <v>3.73469</v>
+        <v>179.99719</v>
       </c>
       <c r="AF8">
-        <v>498.71444</v>
+        <v>59.99993</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>259.99213</v>
       </c>
       <c r="AH8">
-        <v>180.146616</v>
+        <v>9.13363</v>
       </c>
       <c r="AI8">
-        <v>59.99679</v>
+        <v>502.99134</v>
       </c>
       <c r="AJ8">
-        <v>260.00067</v>
-      </c>
-      <c r="AK8">
-        <v>3.07802</v>
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>63</v>
       </c>
       <c r="AL8">
-        <v>489.88146</v>
+        <v>179.99719</v>
       </c>
       <c r="AM8">
-        <v>180.146616</v>
+        <v>59.99993</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>259.99213</v>
       </c>
       <c r="AO8">
-        <v>30.00014</v>
+        <v>3.63786</v>
       </c>
       <c r="AP8">
-        <v>30.00245</v>
-      </c>
-      <c r="AQ8">
-        <v>50.00134</v>
+        <v>508.93965</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>64</v>
       </c>
       <c r="AR8">
-        <v>29.99996</v>
+        <v>179.99719</v>
       </c>
       <c r="AS8">
-        <v>29.99794</v>
+        <v>59.99993</v>
       </c>
       <c r="AT8">
-        <v>50.00044</v>
+        <v>259.99213</v>
       </c>
       <c r="AU8">
-        <v>59.99679</v>
+        <v>16.65533</v>
       </c>
       <c r="AV8">
-        <v>100.00181</v>
-      </c>
-      <c r="AW8">
-        <v>49.99784</v>
+        <v>0</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX8">
+        <v>179.99719</v>
+      </c>
+      <c r="AY8">
+        <v>29.99868</v>
+      </c>
+      <c r="AZ8">
+        <v>29.99733</v>
+      </c>
+      <c r="BA8">
+        <v>49.99697</v>
+      </c>
+      <c r="BB8">
+        <v>29.99588</v>
+      </c>
+      <c r="BC8">
+        <v>29.99654</v>
+      </c>
+      <c r="BD8">
+        <v>49.99988</v>
+      </c>
+      <c r="BE8">
+        <v>59.99993</v>
+      </c>
+      <c r="BF8">
+        <v>100.00349</v>
+      </c>
+      <c r="BG8">
+        <v>50.00167</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:59">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50.00324</v>
+        <v>49.99326</v>
       </c>
       <c r="C9">
-        <v>260.00353</v>
+        <v>260.0013</v>
       </c>
       <c r="D9">
-        <v>180.00502</v>
+        <v>179.99801</v>
       </c>
       <c r="E9">
-        <v>39.99345</v>
+        <v>40.00139</v>
       </c>
       <c r="F9">
-        <v>29.99963</v>
+        <v>30.0008</v>
       </c>
       <c r="G9">
-        <v>80.00248999999999</v>
+        <v>80.00019</v>
       </c>
       <c r="H9">
-        <v>40.00116</v>
+        <v>40.00222</v>
       </c>
       <c r="I9">
-        <v>30.00086</v>
+        <v>29.99875</v>
       </c>
       <c r="J9">
-        <v>79.99835</v>
+        <v>79.9996</v>
       </c>
       <c r="K9">
-        <v>99.3152</v>
+        <v>95.97163999999999</v>
       </c>
       <c r="L9">
-        <v>59.99551</v>
+        <v>59.99975</v>
       </c>
       <c r="M9">
-        <v>260.00353</v>
+        <v>260.0013</v>
       </c>
       <c r="N9">
-        <v>7.71349</v>
+        <v>1.79918</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9">
-        <v>180.00502</v>
+      <c r="P9" t="s">
+        <v>60</v>
       </c>
       <c r="Q9">
-        <v>98.04345000000001</v>
+        <v>179.99801</v>
       </c>
       <c r="R9">
-        <v>59.99551</v>
+        <v>95.95753000000001</v>
       </c>
       <c r="S9">
-        <v>260.00353</v>
+        <v>59.99975</v>
       </c>
       <c r="T9">
-        <v>9.71865</v>
+        <v>260.0013</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>31.27376</v>
       </c>
       <c r="V9">
-        <v>180.00502</v>
-      </c>
-      <c r="W9">
-        <v>98.20390999999999</v>
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
       </c>
       <c r="X9">
-        <v>59.99551</v>
+        <v>179.99801</v>
       </c>
       <c r="Y9">
-        <v>260.00353</v>
+        <v>98.24703</v>
       </c>
       <c r="Z9">
-        <v>1.611</v>
+        <v>59.99975</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>260.0013</v>
       </c>
       <c r="AB9">
-        <v>180.00502</v>
+        <v>7.94204</v>
       </c>
       <c r="AC9">
-        <v>59.99551</v>
-      </c>
-      <c r="AD9">
-        <v>260.00353</v>
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>62</v>
       </c>
       <c r="AE9">
-        <v>21.33392</v>
+        <v>179.99801</v>
       </c>
       <c r="AF9">
-        <v>509.93535</v>
+        <v>59.99975</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>260.0013</v>
       </c>
       <c r="AH9">
-        <v>180.00502</v>
+        <v>1.19039</v>
       </c>
       <c r="AI9">
-        <v>59.99551</v>
+        <v>489.02826</v>
       </c>
       <c r="AJ9">
-        <v>260.00353</v>
-      </c>
-      <c r="AK9">
-        <v>5.81644</v>
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>63</v>
       </c>
       <c r="AL9">
-        <v>503.88238</v>
+        <v>179.99801</v>
       </c>
       <c r="AM9">
-        <v>180.00502</v>
+        <v>59.99975</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>260.0013</v>
       </c>
       <c r="AO9">
-        <v>29.99733</v>
+        <v>7.31979</v>
       </c>
       <c r="AP9">
-        <v>30.00337</v>
-      </c>
-      <c r="AQ9">
-        <v>49.99967</v>
+        <v>501.48291</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>64</v>
       </c>
       <c r="AR9">
-        <v>30.00061</v>
+        <v>179.99801</v>
       </c>
       <c r="AS9">
-        <v>29.99727</v>
+        <v>59.99975</v>
       </c>
       <c r="AT9">
-        <v>50.00519</v>
+        <v>260.0013</v>
       </c>
       <c r="AU9">
-        <v>59.99551</v>
+        <v>1.78799</v>
       </c>
       <c r="AV9">
-        <v>99.99769000000001</v>
-      </c>
-      <c r="AW9">
-        <v>50.00231</v>
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX9">
+        <v>179.99801</v>
+      </c>
+      <c r="AY9">
+        <v>29.99943</v>
+      </c>
+      <c r="AZ9">
+        <v>30.00249</v>
+      </c>
+      <c r="BA9">
+        <v>50.00175</v>
+      </c>
+      <c r="BB9">
+        <v>29.99662</v>
+      </c>
+      <c r="BC9">
+        <v>29.99494</v>
+      </c>
+      <c r="BD9">
+        <v>49.99984</v>
+      </c>
+      <c r="BE9">
+        <v>59.99975</v>
+      </c>
+      <c r="BF9">
+        <v>100.00214</v>
+      </c>
+      <c r="BG9">
+        <v>49.99809</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:59">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>49.9981</v>
+        <v>50.00173</v>
       </c>
       <c r="C10">
-        <v>260.00404</v>
+        <v>260.00134</v>
       </c>
       <c r="D10">
-        <v>179.99618</v>
+        <v>180.00053</v>
       </c>
       <c r="E10">
         <v>40.00012</v>
       </c>
       <c r="F10">
-        <v>30.00294</v>
+        <v>30.00274</v>
       </c>
       <c r="G10">
-        <v>80.00278</v>
+        <v>79.99884</v>
       </c>
       <c r="H10">
-        <v>39.99787</v>
+        <v>39.99595</v>
       </c>
       <c r="I10">
-        <v>29.99768</v>
+        <v>29.99759</v>
       </c>
       <c r="J10">
-        <v>79.99766</v>
+        <v>79.99951</v>
       </c>
       <c r="K10">
-        <v>92.8053</v>
+        <v>95.81783</v>
       </c>
       <c r="L10">
-        <v>59.99733</v>
+        <v>60.00008</v>
       </c>
       <c r="M10">
-        <v>260.00404</v>
+        <v>260.00134</v>
       </c>
       <c r="N10">
-        <v>32.11988</v>
+        <v>6.5721</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>179.99618</v>
+      <c r="P10" t="s">
+        <v>60</v>
       </c>
       <c r="Q10">
-        <v>92.64388</v>
+        <v>180.00053</v>
       </c>
       <c r="R10">
-        <v>59.99733</v>
+        <v>99.46528000000001</v>
       </c>
       <c r="S10">
-        <v>260.00404</v>
+        <v>60.00008</v>
       </c>
       <c r="T10">
-        <v>5.63162</v>
+        <v>260.00134</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>12.67657</v>
       </c>
       <c r="V10">
-        <v>179.99618</v>
-      </c>
-      <c r="W10">
-        <v>95.25791</v>
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
       </c>
       <c r="X10">
-        <v>59.99733</v>
+        <v>180.00053</v>
       </c>
       <c r="Y10">
-        <v>260.00404</v>
+        <v>95.76515000000001</v>
       </c>
       <c r="Z10">
-        <v>3.06011</v>
+        <v>60.00008</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>260.00134</v>
       </c>
       <c r="AB10">
-        <v>179.99618</v>
+        <v>2.12445</v>
       </c>
       <c r="AC10">
-        <v>59.99733</v>
-      </c>
-      <c r="AD10">
-        <v>260.00404</v>
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>62</v>
       </c>
       <c r="AE10">
-        <v>3.95786</v>
+        <v>180.00053</v>
       </c>
       <c r="AF10">
-        <v>499.99848</v>
+        <v>60.00008</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>260.00134</v>
       </c>
       <c r="AH10">
-        <v>179.99618</v>
+        <v>11.84562</v>
       </c>
       <c r="AI10">
-        <v>59.99733</v>
+        <v>498.80714</v>
       </c>
       <c r="AJ10">
-        <v>260.00404</v>
-      </c>
-      <c r="AK10">
-        <v>11.37322</v>
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>63</v>
       </c>
       <c r="AL10">
-        <v>500.95818</v>
+        <v>180.00053</v>
       </c>
       <c r="AM10">
-        <v>179.99618</v>
+        <v>60.00008</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>260.00134</v>
       </c>
       <c r="AO10">
-        <v>29.99722</v>
+        <v>3.10837</v>
       </c>
       <c r="AP10">
-        <v>30.0034</v>
-      </c>
-      <c r="AQ10">
-        <v>49.99886</v>
+        <v>498.83773</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>64</v>
       </c>
       <c r="AR10">
-        <v>29.99711</v>
+        <v>180.00053</v>
       </c>
       <c r="AS10">
-        <v>29.99757</v>
+        <v>60.00008</v>
       </c>
       <c r="AT10">
-        <v>49.99671</v>
+        <v>260.00134</v>
       </c>
       <c r="AU10">
-        <v>59.99733</v>
+        <v>8.09535</v>
       </c>
       <c r="AV10">
-        <v>100.00035</v>
-      </c>
-      <c r="AW10">
-        <v>49.99992</v>
+        <v>0</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX10">
+        <v>180.00053</v>
+      </c>
+      <c r="AY10">
+        <v>30.00235</v>
+      </c>
+      <c r="AZ10">
+        <v>30.00605</v>
+      </c>
+      <c r="BA10">
+        <v>50.0045</v>
+      </c>
+      <c r="BB10">
+        <v>30.00314</v>
+      </c>
+      <c r="BC10">
+        <v>30.00051</v>
+      </c>
+      <c r="BD10">
+        <v>49.99772</v>
+      </c>
+      <c r="BE10">
+        <v>60.00008</v>
+      </c>
+      <c r="BF10">
+        <v>100.00675</v>
+      </c>
+      <c r="BG10">
+        <v>49.99915</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:59">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50.00013</v>
+        <v>50.00135</v>
       </c>
       <c r="C11">
-        <v>260.00725</v>
+        <v>259.99544</v>
       </c>
       <c r="D11">
-        <v>179.99494</v>
+        <v>180.00404</v>
       </c>
       <c r="E11">
-        <v>39.99634</v>
+        <v>39.9959</v>
       </c>
       <c r="F11">
-        <v>30.00116</v>
+        <v>29.99735</v>
       </c>
       <c r="G11">
-        <v>79.99534</v>
+        <v>79.99511</v>
       </c>
       <c r="H11">
-        <v>40.00226</v>
+        <v>40.00182</v>
       </c>
       <c r="I11">
-        <v>30.00271</v>
+        <v>29.99732</v>
       </c>
       <c r="J11">
-        <v>79.99954</v>
+        <v>80.00394</v>
       </c>
       <c r="K11">
-        <v>91.79223</v>
+        <v>98.20834000000001</v>
       </c>
       <c r="L11">
-        <v>60.00353</v>
+        <v>59.99982</v>
       </c>
       <c r="M11">
-        <v>260.00725</v>
+        <v>259.99544</v>
       </c>
       <c r="N11">
-        <v>28.18282</v>
+        <v>22.81666</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>179.99494</v>
+      <c r="P11" t="s">
+        <v>60</v>
       </c>
       <c r="Q11">
-        <v>95.39273</v>
+        <v>180.00404</v>
       </c>
       <c r="R11">
-        <v>60.00353</v>
+        <v>93.67238</v>
       </c>
       <c r="S11">
-        <v>260.00725</v>
+        <v>59.99982</v>
       </c>
       <c r="T11">
-        <v>11.63318</v>
+        <v>259.99544</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.38457</v>
       </c>
       <c r="V11">
-        <v>179.99494</v>
-      </c>
-      <c r="W11">
-        <v>94.90683</v>
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
       </c>
       <c r="X11">
-        <v>60.00353</v>
+        <v>180.00404</v>
       </c>
       <c r="Y11">
-        <v>260.00725</v>
+        <v>98.03766</v>
       </c>
       <c r="Z11">
-        <v>4.72681</v>
+        <v>59.99982</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>259.99544</v>
       </c>
       <c r="AB11">
-        <v>179.99494</v>
+        <v>6.75098</v>
       </c>
       <c r="AC11">
-        <v>60.00353</v>
-      </c>
-      <c r="AD11">
-        <v>260.00725</v>
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>62</v>
       </c>
       <c r="AE11">
-        <v>5.45559</v>
+        <v>180.00404</v>
       </c>
       <c r="AF11">
-        <v>491.71221</v>
+        <v>59.99982</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>259.99544</v>
       </c>
       <c r="AH11">
-        <v>179.99494</v>
+        <v>16.32473</v>
       </c>
       <c r="AI11">
-        <v>60.00353</v>
+        <v>505.20153</v>
       </c>
       <c r="AJ11">
-        <v>260.00725</v>
-      </c>
-      <c r="AK11">
-        <v>2.21733</v>
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>63</v>
       </c>
       <c r="AL11">
-        <v>503.05608</v>
+        <v>180.00404</v>
       </c>
       <c r="AM11">
-        <v>179.99494</v>
+        <v>59.99982</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>259.99544</v>
       </c>
       <c r="AO11">
-        <v>29.99669</v>
+        <v>0.29348</v>
       </c>
       <c r="AP11">
-        <v>29.99903</v>
-      </c>
-      <c r="AQ11">
-        <v>49.99783</v>
+        <v>494.71944</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>64</v>
       </c>
       <c r="AR11">
-        <v>30.00099</v>
+        <v>180.00404</v>
       </c>
       <c r="AS11">
-        <v>29.99926</v>
+        <v>59.99982</v>
       </c>
       <c r="AT11">
-        <v>50.0008</v>
+        <v>259.99544</v>
       </c>
       <c r="AU11">
-        <v>60.00353</v>
+        <v>1.89006</v>
       </c>
       <c r="AV11">
-        <v>100.00057</v>
-      </c>
-      <c r="AW11">
-        <v>50.00081</v>
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX11">
+        <v>180.00404</v>
+      </c>
+      <c r="AY11">
+        <v>30.00135</v>
+      </c>
+      <c r="AZ11">
+        <v>30.00205</v>
+      </c>
+      <c r="BA11">
+        <v>50.00003</v>
+      </c>
+      <c r="BB11">
+        <v>30.0057</v>
+      </c>
+      <c r="BC11">
+        <v>30.00011</v>
+      </c>
+      <c r="BD11">
+        <v>50.00023</v>
+      </c>
+      <c r="BE11">
+        <v>59.99982</v>
+      </c>
+      <c r="BF11">
+        <v>100.00118</v>
+      </c>
+      <c r="BG11">
+        <v>50.00393</v>
       </c>
     </row>
   </sheetData>

--- a/item_data.xlsx
+++ b/item_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>body_h</t>
   </si>
@@ -193,25 +193,31 @@
     <t>item_key</t>
   </si>
   <si>
-    <t>2020-09-24 23:50:58</t>
-  </si>
-  <si>
-    <t>2020-09-24 23:50:59</t>
-  </si>
-  <si>
-    <t>2020-09-24 23:51:00</t>
-  </si>
-  <si>
-    <t>2020-09-24 23:51:01</t>
-  </si>
-  <si>
-    <t>2020-09-24 23:51:02</t>
-  </si>
-  <si>
-    <t>2020-09-24 23:51:03</t>
-  </si>
-  <si>
-    <t>2020-09-24 23:51:04</t>
+    <t>2020-09-26 11:16:32</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:33</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:34</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:35</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:36</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:37</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:38</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:39</t>
+  </si>
+  <si>
+    <t>2020-09-26 11:16:40</t>
   </si>
 </sst>
 </file>
@@ -759,43 +765,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50.00043</v>
+        <v>49.99876</v>
       </c>
       <c r="C2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="D2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="E2">
-        <v>39.99791</v>
+        <v>39.99955</v>
       </c>
       <c r="F2">
-        <v>29.99911</v>
+        <v>30.00183</v>
       </c>
       <c r="G2">
-        <v>79.9969</v>
+        <v>79.99739</v>
       </c>
       <c r="H2">
-        <v>40.00209</v>
+        <v>40.00022</v>
       </c>
       <c r="I2">
-        <v>29.99663</v>
+        <v>30.00117</v>
       </c>
       <c r="J2">
-        <v>79.99441</v>
+        <v>79.99727</v>
       </c>
       <c r="K2">
-        <v>98.39958</v>
+        <v>89.85297</v>
       </c>
       <c r="L2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="M2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="N2">
-        <v>15.24854</v>
+        <v>6.82243</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -804,19 +810,19 @@
         <v>59</v>
       </c>
       <c r="Q2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="R2">
-        <v>90.15133</v>
+        <v>98.9383</v>
       </c>
       <c r="S2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="T2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="U2">
-        <v>12.11897</v>
+        <v>2.75244</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -825,19 +831,19 @@
         <v>60</v>
       </c>
       <c r="X2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="Y2">
-        <v>90.59811000000001</v>
+        <v>94.48788999999999</v>
       </c>
       <c r="Z2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="AA2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="AB2">
-        <v>7.7571</v>
+        <v>1.89557</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -846,91 +852,91 @@
         <v>61</v>
       </c>
       <c r="AE2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="AF2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="AG2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="AH2">
-        <v>0.99948</v>
+        <v>18.99014</v>
       </c>
       <c r="AI2">
-        <v>498.96149</v>
+        <v>510.42225</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AL2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="AM2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="AN2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="AO2">
-        <v>1.80979</v>
+        <v>15.95852</v>
       </c>
       <c r="AP2">
-        <v>502.18538</v>
+        <v>496.88635</v>
       </c>
       <c r="AQ2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="AS2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="AT2">
-        <v>259.99883</v>
+        <v>260.00378</v>
       </c>
       <c r="AU2">
-        <v>4.15696</v>
+        <v>7.04046</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
       <c r="AW2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX2">
-        <v>180.00305</v>
+        <v>179.99977</v>
       </c>
       <c r="AY2">
-        <v>30.0002</v>
+        <v>30.00109</v>
       </c>
       <c r="AZ2">
-        <v>30.00174</v>
+        <v>30.00307</v>
       </c>
       <c r="BA2">
-        <v>50.0019</v>
+        <v>50.00095</v>
       </c>
       <c r="BB2">
-        <v>29.99981</v>
+        <v>30.00207</v>
       </c>
       <c r="BC2">
-        <v>29.9965</v>
+        <v>30.00243</v>
       </c>
       <c r="BD2">
-        <v>50.00167</v>
+        <v>49.99814</v>
       </c>
       <c r="BE2">
-        <v>59.99906</v>
+        <v>59.99815</v>
       </c>
       <c r="BF2">
-        <v>100.00199</v>
+        <v>100.00039</v>
       </c>
       <c r="BG2">
-        <v>50.00261</v>
+        <v>49.99777</v>
       </c>
     </row>
     <row r="3" spans="1:59">
@@ -938,106 +944,106 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49.99384</v>
+        <v>50.0015</v>
       </c>
       <c r="C3">
-        <v>259.99356</v>
+        <v>260.00099</v>
       </c>
       <c r="D3">
-        <v>179.99626</v>
+        <v>179.99977</v>
       </c>
       <c r="E3">
-        <v>39.99957</v>
+        <v>39.99868</v>
       </c>
       <c r="F3">
-        <v>29.99651</v>
+        <v>30.00089</v>
       </c>
       <c r="G3">
-        <v>79.99849</v>
+        <v>80.00424</v>
       </c>
       <c r="H3">
-        <v>39.99588</v>
+        <v>39.99733</v>
       </c>
       <c r="I3">
-        <v>29.99577</v>
+        <v>29.99923</v>
       </c>
       <c r="J3">
-        <v>80.00287</v>
+        <v>80.00117</v>
       </c>
       <c r="K3">
-        <v>99.74236999999999</v>
+        <v>95.36499999999999</v>
       </c>
       <c r="L3">
-        <v>59.99976</v>
+        <v>59.99878</v>
       </c>
       <c r="M3">
-        <v>259.99356</v>
+        <v>260.00099</v>
       </c>
       <c r="N3">
-        <v>9.69985</v>
+        <v>0.36712</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3">
+        <v>179.99977</v>
+      </c>
+      <c r="R3">
+        <v>90.57119</v>
+      </c>
+      <c r="S3">
+        <v>59.99878</v>
+      </c>
+      <c r="T3">
+        <v>260.00099</v>
+      </c>
+      <c r="U3">
+        <v>12.11893</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
         <v>60</v>
       </c>
-      <c r="Q3">
-        <v>179.99626</v>
-      </c>
-      <c r="R3">
-        <v>95.02591</v>
-      </c>
-      <c r="S3">
-        <v>59.99976</v>
-      </c>
-      <c r="T3">
-        <v>259.99356</v>
-      </c>
-      <c r="U3">
-        <v>10.49883</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3">
+        <v>179.99977</v>
+      </c>
+      <c r="Y3">
+        <v>90.49015</v>
+      </c>
+      <c r="Z3">
+        <v>59.99878</v>
+      </c>
+      <c r="AA3">
+        <v>260.00099</v>
+      </c>
+      <c r="AB3">
+        <v>3.58691</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
         <v>61</v>
       </c>
-      <c r="X3">
-        <v>179.99626</v>
-      </c>
-      <c r="Y3">
-        <v>91.08528</v>
-      </c>
-      <c r="Z3">
-        <v>59.99976</v>
-      </c>
-      <c r="AA3">
-        <v>259.99356</v>
-      </c>
-      <c r="AB3">
-        <v>35.95093</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>62</v>
-      </c>
       <c r="AE3">
-        <v>179.99626</v>
+        <v>179.99977</v>
       </c>
       <c r="AF3">
-        <v>59.99976</v>
+        <v>59.99878</v>
       </c>
       <c r="AG3">
-        <v>259.99356</v>
+        <v>260.00099</v>
       </c>
       <c r="AH3">
-        <v>17.75519</v>
+        <v>3.01026</v>
       </c>
       <c r="AI3">
-        <v>500.35413</v>
+        <v>499.61646</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1046,70 +1052,70 @@
         <v>63</v>
       </c>
       <c r="AL3">
-        <v>179.99626</v>
+        <v>179.99977</v>
       </c>
       <c r="AM3">
-        <v>59.99976</v>
+        <v>59.99878</v>
       </c>
       <c r="AN3">
-        <v>259.99356</v>
+        <v>260.00099</v>
       </c>
       <c r="AO3">
-        <v>24.86312</v>
+        <v>1.03079</v>
       </c>
       <c r="AP3">
-        <v>497.06067</v>
+        <v>510.29592</v>
       </c>
       <c r="AQ3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR3">
-        <v>179.99626</v>
+        <v>179.99977</v>
       </c>
       <c r="AS3">
-        <v>59.99976</v>
+        <v>59.99878</v>
       </c>
       <c r="AT3">
-        <v>259.99356</v>
+        <v>260.00099</v>
       </c>
       <c r="AU3">
-        <v>1.64525</v>
+        <v>2.49601</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX3">
-        <v>179.99626</v>
+        <v>179.99977</v>
       </c>
       <c r="AY3">
-        <v>30.00211</v>
+        <v>30.00168</v>
       </c>
       <c r="AZ3">
-        <v>30.0036</v>
+        <v>29.99676</v>
       </c>
       <c r="BA3">
-        <v>49.99803</v>
+        <v>50.00199</v>
       </c>
       <c r="BB3">
-        <v>29.99701</v>
+        <v>30.00385</v>
       </c>
       <c r="BC3">
-        <v>29.99923</v>
+        <v>29.99982</v>
       </c>
       <c r="BD3">
-        <v>50.00113</v>
+        <v>49.99583</v>
       </c>
       <c r="BE3">
-        <v>59.99976</v>
+        <v>59.99878</v>
       </c>
       <c r="BF3">
-        <v>100.00067</v>
+        <v>99.99787000000001</v>
       </c>
       <c r="BG3">
-        <v>50.0017</v>
+        <v>50.00191</v>
       </c>
     </row>
     <row r="4" spans="1:59">
@@ -1117,85 +1123,85 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49.99831</v>
+        <v>49.99762</v>
       </c>
       <c r="C4">
-        <v>259.99879</v>
+        <v>259.99787</v>
       </c>
       <c r="D4">
-        <v>179.99894</v>
+        <v>180.00207</v>
       </c>
       <c r="E4">
-        <v>40.00064</v>
+        <v>39.99979</v>
       </c>
       <c r="F4">
-        <v>30.00069</v>
+        <v>30.00423</v>
       </c>
       <c r="G4">
-        <v>79.99892</v>
+        <v>80.00221999999999</v>
       </c>
       <c r="H4">
-        <v>40.00007</v>
+        <v>39.99949</v>
       </c>
       <c r="I4">
-        <v>29.99897</v>
+        <v>29.99843</v>
       </c>
       <c r="J4">
-        <v>79.99641</v>
+        <v>79.99732</v>
       </c>
       <c r="K4">
-        <v>92.04358000000001</v>
+        <v>92.8948</v>
       </c>
       <c r="L4">
-        <v>60.00392</v>
+        <v>59.9975</v>
       </c>
       <c r="M4">
-        <v>259.99879</v>
+        <v>259.99787</v>
       </c>
       <c r="N4">
-        <v>22.81978</v>
+        <v>1.13687</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4">
+        <v>180.00207</v>
+      </c>
+      <c r="R4">
+        <v>96.25068</v>
+      </c>
+      <c r="S4">
+        <v>59.9975</v>
+      </c>
+      <c r="T4">
+        <v>259.99787</v>
+      </c>
+      <c r="U4">
+        <v>19.43672</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>60</v>
       </c>
-      <c r="Q4">
-        <v>179.99894</v>
-      </c>
-      <c r="R4">
-        <v>97.71889</v>
-      </c>
-      <c r="S4">
-        <v>60.00392</v>
-      </c>
-      <c r="T4">
-        <v>259.99879</v>
-      </c>
-      <c r="U4">
-        <v>11.11727</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>61</v>
-      </c>
       <c r="X4">
-        <v>179.99894</v>
+        <v>180.00207</v>
       </c>
       <c r="Y4">
-        <v>90.52231</v>
+        <v>95.36759000000001</v>
       </c>
       <c r="Z4">
-        <v>60.00392</v>
+        <v>59.9975</v>
       </c>
       <c r="AA4">
-        <v>259.99879</v>
+        <v>259.99787</v>
       </c>
       <c r="AB4">
-        <v>5.83878</v>
+        <v>30.99134</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1204,19 +1210,19 @@
         <v>62</v>
       </c>
       <c r="AE4">
-        <v>179.99894</v>
+        <v>180.00207</v>
       </c>
       <c r="AF4">
-        <v>60.00392</v>
+        <v>59.9975</v>
       </c>
       <c r="AG4">
-        <v>259.99879</v>
+        <v>259.99787</v>
       </c>
       <c r="AH4">
-        <v>15.333</v>
+        <v>29.05343</v>
       </c>
       <c r="AI4">
-        <v>500.06314</v>
+        <v>496.79</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1225,70 +1231,70 @@
         <v>63</v>
       </c>
       <c r="AL4">
-        <v>179.99894</v>
+        <v>180.00207</v>
       </c>
       <c r="AM4">
-        <v>60.00392</v>
+        <v>59.9975</v>
       </c>
       <c r="AN4">
-        <v>259.99879</v>
+        <v>259.99787</v>
       </c>
       <c r="AO4">
-        <v>1.57511</v>
+        <v>0.7367899999999999</v>
       </c>
       <c r="AP4">
-        <v>507.12561</v>
+        <v>501.85687</v>
       </c>
       <c r="AQ4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR4">
-        <v>179.99894</v>
+        <v>180.00207</v>
       </c>
       <c r="AS4">
-        <v>60.00392</v>
+        <v>59.9975</v>
       </c>
       <c r="AT4">
-        <v>259.99879</v>
+        <v>259.99787</v>
       </c>
       <c r="AU4">
-        <v>3.44586</v>
+        <v>2.84286</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX4">
-        <v>179.99894</v>
+        <v>180.00207</v>
       </c>
       <c r="AY4">
-        <v>29.99791</v>
+        <v>30.00149</v>
       </c>
       <c r="AZ4">
-        <v>29.9997</v>
+        <v>30.00376</v>
       </c>
       <c r="BA4">
-        <v>49.9977</v>
+        <v>50.00146</v>
       </c>
       <c r="BB4">
-        <v>30.00094</v>
+        <v>30.00238</v>
       </c>
       <c r="BC4">
-        <v>29.99944</v>
+        <v>30.00067</v>
       </c>
       <c r="BD4">
-        <v>50.00007</v>
+        <v>50.00057</v>
       </c>
       <c r="BE4">
-        <v>60.00392</v>
+        <v>59.9975</v>
       </c>
       <c r="BF4">
-        <v>100.00127</v>
+        <v>100.00012</v>
       </c>
       <c r="BG4">
-        <v>50.00036</v>
+        <v>49.99916</v>
       </c>
     </row>
     <row r="5" spans="1:59">
@@ -1296,43 +1302,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50.00309</v>
+        <v>49.99709</v>
       </c>
       <c r="C5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="D5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="E5">
-        <v>39.9999</v>
+        <v>39.99903</v>
       </c>
       <c r="F5">
-        <v>30.00178</v>
+        <v>30.00085</v>
       </c>
       <c r="G5">
-        <v>79.9958</v>
+        <v>80.00172000000001</v>
       </c>
       <c r="H5">
-        <v>39.99817</v>
+        <v>39.9996</v>
       </c>
       <c r="I5">
-        <v>29.99874</v>
+        <v>30.00281</v>
       </c>
       <c r="J5">
-        <v>79.99867999999999</v>
+        <v>79.99818999999999</v>
       </c>
       <c r="K5">
-        <v>94.46107000000001</v>
+        <v>91.85456000000001</v>
       </c>
       <c r="L5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="M5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="N5">
-        <v>1.76331</v>
+        <v>11.03127</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1341,40 +1347,40 @@
         <v>60</v>
       </c>
       <c r="Q5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="R5">
-        <v>92.92957</v>
+        <v>96.3668</v>
       </c>
       <c r="S5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="T5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="U5">
-        <v>12.05102</v>
+        <v>7.58374</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="Y5">
-        <v>89.43986</v>
+        <v>93.10388</v>
       </c>
       <c r="Z5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="AA5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="AB5">
-        <v>18.96656</v>
+        <v>16.02907</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1383,19 +1389,19 @@
         <v>62</v>
       </c>
       <c r="AE5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="AF5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="AG5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="AH5">
-        <v>2.31664</v>
+        <v>15.83663</v>
       </c>
       <c r="AI5">
-        <v>498.646</v>
+        <v>508.09611</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1404,70 +1410,70 @@
         <v>63</v>
       </c>
       <c r="AL5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="AM5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="AN5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="AO5">
-        <v>25.52558</v>
+        <v>15.73448</v>
       </c>
       <c r="AP5">
-        <v>489.16239</v>
+        <v>490.39161</v>
       </c>
       <c r="AQ5" t="s">
         <v>64</v>
       </c>
       <c r="AR5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="AS5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="AT5">
-        <v>259.99932</v>
+        <v>260.00539</v>
       </c>
       <c r="AU5">
-        <v>25.43934</v>
+        <v>6.09387</v>
       </c>
       <c r="AV5">
         <v>0</v>
       </c>
       <c r="AW5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX5">
-        <v>180.1550054</v>
+        <v>180.00261</v>
       </c>
       <c r="AY5">
-        <v>29.99417</v>
+        <v>30.00324</v>
       </c>
       <c r="AZ5">
-        <v>29.99744</v>
+        <v>30.00238</v>
       </c>
       <c r="BA5">
-        <v>49.99707</v>
+        <v>50.00454</v>
       </c>
       <c r="BB5">
-        <v>30.00308</v>
+        <v>30.00232</v>
       </c>
       <c r="BC5">
-        <v>30.00312</v>
+        <v>29.99998</v>
       </c>
       <c r="BD5">
-        <v>50.00133</v>
+        <v>49.99842</v>
       </c>
       <c r="BE5">
-        <v>60.00525</v>
+        <v>60.0002</v>
       </c>
       <c r="BF5">
-        <v>100.00231</v>
+        <v>100.00164</v>
       </c>
       <c r="BG5">
-        <v>49.99753</v>
+        <v>49.99735</v>
       </c>
     </row>
     <row r="6" spans="1:59">
@@ -1475,43 +1481,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>49.99819</v>
+        <v>50.00378</v>
       </c>
       <c r="C6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="D6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="E6">
-        <v>40.00104</v>
+        <v>40.00208</v>
       </c>
       <c r="F6">
-        <v>29.99713</v>
+        <v>29.99986</v>
       </c>
       <c r="G6">
-        <v>79.99817</v>
+        <v>80.00265</v>
       </c>
       <c r="H6">
-        <v>39.99889</v>
+        <v>40.00178</v>
       </c>
       <c r="I6">
-        <v>29.99821</v>
+        <v>30.00164</v>
       </c>
       <c r="J6">
-        <v>79.99661999999999</v>
+        <v>80.00144</v>
       </c>
       <c r="K6">
-        <v>91.50623</v>
+        <v>91.59769</v>
       </c>
       <c r="L6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="M6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="N6">
-        <v>13.62177</v>
+        <v>11.63048</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1520,40 +1526,40 @@
         <v>60</v>
       </c>
       <c r="Q6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="R6">
-        <v>90.58239</v>
+        <v>90.76036000000001</v>
       </c>
       <c r="S6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="T6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="U6">
-        <v>7.69977</v>
+        <v>0.39841</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="Y6">
-        <v>91.93716000000001</v>
+        <v>96.89806</v>
       </c>
       <c r="Z6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="AA6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="AB6">
-        <v>0.22802</v>
+        <v>41.53003</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1562,19 +1568,19 @@
         <v>62</v>
       </c>
       <c r="AE6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="AF6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="AG6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="AH6">
-        <v>0.37099</v>
+        <v>0.92781</v>
       </c>
       <c r="AI6">
-        <v>500.00951</v>
+        <v>499.52762</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1583,70 +1589,70 @@
         <v>63</v>
       </c>
       <c r="AL6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="AM6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="AN6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="AO6">
-        <v>7.84469</v>
+        <v>21.66091</v>
       </c>
       <c r="AP6">
-        <v>509.12491</v>
+        <v>494.04071</v>
       </c>
       <c r="AQ6" t="s">
         <v>64</v>
       </c>
       <c r="AR6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="AS6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="AT6">
-        <v>259.99568</v>
+        <v>259.99869</v>
       </c>
       <c r="AU6">
-        <v>10.04437</v>
+        <v>32.52326</v>
       </c>
       <c r="AV6">
         <v>0</v>
       </c>
       <c r="AW6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AX6">
-        <v>180.00015</v>
+        <v>179.99426</v>
       </c>
       <c r="AY6">
-        <v>30.00058</v>
+        <v>29.99851</v>
       </c>
       <c r="AZ6">
-        <v>29.99869</v>
+        <v>29.99932</v>
       </c>
       <c r="BA6">
-        <v>50.0019</v>
+        <v>49.99316</v>
       </c>
       <c r="BB6">
-        <v>29.99726</v>
+        <v>29.99925</v>
       </c>
       <c r="BC6">
-        <v>29.99904</v>
+        <v>30.00028</v>
       </c>
       <c r="BD6">
-        <v>50.00078</v>
+        <v>50.00198</v>
       </c>
       <c r="BE6">
-        <v>60.00002</v>
+        <v>59.99782</v>
       </c>
       <c r="BF6">
-        <v>100.00575</v>
+        <v>100.00132</v>
       </c>
       <c r="BG6">
-        <v>50.00175</v>
+        <v>49.99706</v>
       </c>
     </row>
     <row r="7" spans="1:59">
@@ -1654,43 +1660,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49.99897</v>
+        <v>49.99604</v>
       </c>
       <c r="C7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="D7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="E7">
-        <v>39.99925</v>
+        <v>39.99788</v>
       </c>
       <c r="F7">
-        <v>29.99901</v>
+        <v>30.00441</v>
       </c>
       <c r="G7">
-        <v>80.00075</v>
+        <v>80.00029000000001</v>
       </c>
       <c r="H7">
-        <v>40.00069</v>
+        <v>40.00332</v>
       </c>
       <c r="I7">
-        <v>30.00004</v>
+        <v>29.99969</v>
       </c>
       <c r="J7">
-        <v>80.00002000000001</v>
+        <v>80.00319</v>
       </c>
       <c r="K7">
-        <v>89.05212</v>
+        <v>90.62455</v>
       </c>
       <c r="L7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="M7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="N7">
-        <v>0.75497</v>
+        <v>0.46185</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1699,19 +1705,19 @@
         <v>60</v>
       </c>
       <c r="Q7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="R7">
-        <v>90.78212000000001</v>
+        <v>96.89291</v>
       </c>
       <c r="S7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="T7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="U7">
-        <v>7.93825</v>
+        <v>20.48374</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1720,19 +1726,19 @@
         <v>61</v>
       </c>
       <c r="X7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="Y7">
-        <v>94.26958999999999</v>
+        <v>92.55275</v>
       </c>
       <c r="Z7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="AA7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="AB7">
-        <v>3.25094</v>
+        <v>3.18028</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1741,19 +1747,19 @@
         <v>62</v>
       </c>
       <c r="AE7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="AF7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="AG7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="AH7">
-        <v>1.17762</v>
+        <v>3.26482</v>
       </c>
       <c r="AI7">
-        <v>498.76302</v>
+        <v>502.92656</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1762,70 +1768,70 @@
         <v>63</v>
       </c>
       <c r="AL7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="AM7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="AN7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="AO7">
-        <v>7.7746</v>
+        <v>46.22462</v>
       </c>
       <c r="AP7">
-        <v>509.33646</v>
+        <v>490.77311</v>
       </c>
       <c r="AQ7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AR7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="AS7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="AT7">
-        <v>260.00116</v>
+        <v>260.00705</v>
       </c>
       <c r="AU7">
-        <v>8.51577</v>
+        <v>6.89146</v>
       </c>
       <c r="AV7">
         <v>0</v>
       </c>
       <c r="AW7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AX7">
-        <v>179.99786</v>
+        <v>180.00866</v>
       </c>
       <c r="AY7">
-        <v>29.99737</v>
+        <v>29.99674</v>
       </c>
       <c r="AZ7">
-        <v>29.99891</v>
+        <v>30.00016</v>
       </c>
       <c r="BA7">
-        <v>50.00102</v>
+        <v>50.00231</v>
       </c>
       <c r="BB7">
-        <v>30.00002</v>
+        <v>30.00019</v>
       </c>
       <c r="BC7">
-        <v>29.99784</v>
+        <v>30.00018</v>
       </c>
       <c r="BD7">
-        <v>50.00186</v>
+        <v>50.00476</v>
       </c>
       <c r="BE7">
-        <v>60.00442</v>
+        <v>60.00095</v>
       </c>
       <c r="BF7">
-        <v>99.99424</v>
+        <v>100.00269</v>
       </c>
       <c r="BG7">
-        <v>50.00312</v>
+        <v>49.99751</v>
       </c>
     </row>
     <row r="8" spans="1:59">
@@ -1833,43 +1839,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50.00616</v>
+        <v>49.99704</v>
       </c>
       <c r="C8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="D8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="E8">
-        <v>39.99746</v>
+        <v>39.99945</v>
       </c>
       <c r="F8">
-        <v>29.9969</v>
+        <v>29.99876</v>
       </c>
       <c r="G8">
-        <v>79.99827000000001</v>
+        <v>80.00197</v>
       </c>
       <c r="H8">
-        <v>40.00518</v>
+        <v>40.00173</v>
       </c>
       <c r="I8">
-        <v>29.99877</v>
+        <v>30.00069</v>
       </c>
       <c r="J8">
-        <v>79.99625</v>
+        <v>79.99918</v>
       </c>
       <c r="K8">
-        <v>97.81775</v>
+        <v>91.48555</v>
       </c>
       <c r="L8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="M8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="N8">
-        <v>8.97916</v>
+        <v>27.5069</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1878,19 +1884,19 @@
         <v>60</v>
       </c>
       <c r="Q8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="R8">
-        <v>98.11608</v>
+        <v>96.49003</v>
       </c>
       <c r="S8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="T8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="U8">
-        <v>2.65756</v>
+        <v>17.34084</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1899,19 +1905,19 @@
         <v>61</v>
       </c>
       <c r="X8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="Y8">
-        <v>91.44238</v>
+        <v>97.33899</v>
       </c>
       <c r="Z8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="AA8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="AB8">
-        <v>4.16559</v>
+        <v>4.60464</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1920,19 +1926,19 @@
         <v>62</v>
       </c>
       <c r="AE8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="AF8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="AG8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="AH8">
-        <v>9.13363</v>
+        <v>1.59726</v>
       </c>
       <c r="AI8">
-        <v>502.99134</v>
+        <v>490.8176</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1941,70 +1947,70 @@
         <v>63</v>
       </c>
       <c r="AL8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="AM8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="AN8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="AO8">
-        <v>3.63786</v>
+        <v>11.11736</v>
       </c>
       <c r="AP8">
-        <v>508.93965</v>
+        <v>493.86393</v>
       </c>
       <c r="AQ8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AR8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="AS8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="AT8">
-        <v>259.99213</v>
+        <v>260.00077</v>
       </c>
       <c r="AU8">
-        <v>16.65533</v>
+        <v>10.9096</v>
       </c>
       <c r="AV8">
         <v>0</v>
       </c>
       <c r="AW8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AX8">
-        <v>179.99719</v>
+        <v>179.99924</v>
       </c>
       <c r="AY8">
-        <v>29.99868</v>
+        <v>29.99791</v>
       </c>
       <c r="AZ8">
-        <v>29.99733</v>
+        <v>29.99697</v>
       </c>
       <c r="BA8">
-        <v>49.99697</v>
+        <v>50.00013</v>
       </c>
       <c r="BB8">
-        <v>29.99588</v>
+        <v>30.00476</v>
       </c>
       <c r="BC8">
-        <v>29.99654</v>
+        <v>30.00244</v>
       </c>
       <c r="BD8">
-        <v>49.99988</v>
+        <v>49.9985</v>
       </c>
       <c r="BE8">
-        <v>59.99993</v>
+        <v>59.99734</v>
       </c>
       <c r="BF8">
-        <v>100.00349</v>
+        <v>100.00272</v>
       </c>
       <c r="BG8">
-        <v>50.00167</v>
+        <v>49.99943</v>
       </c>
     </row>
     <row r="9" spans="1:59">
@@ -2012,43 +2018,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49.99326</v>
+        <v>49.99707</v>
       </c>
       <c r="C9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="D9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="E9">
-        <v>40.00139</v>
+        <v>40.0017</v>
       </c>
       <c r="F9">
-        <v>30.0008</v>
+        <v>29.99507</v>
       </c>
       <c r="G9">
-        <v>80.00019</v>
+        <v>80.00075</v>
       </c>
       <c r="H9">
-        <v>40.00222</v>
+        <v>39.99721</v>
       </c>
       <c r="I9">
-        <v>29.99875</v>
+        <v>30.00035</v>
       </c>
       <c r="J9">
-        <v>79.9996</v>
+        <v>79.99464999999999</v>
       </c>
       <c r="K9">
-        <v>95.97163999999999</v>
+        <v>90.43044999999999</v>
       </c>
       <c r="L9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="M9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="N9">
-        <v>1.79918</v>
+        <v>2.57727</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2057,19 +2063,19 @@
         <v>60</v>
       </c>
       <c r="Q9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="R9">
-        <v>95.95753000000001</v>
+        <v>89.06621</v>
       </c>
       <c r="S9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="T9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="U9">
-        <v>31.27376</v>
+        <v>7.92031</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2078,19 +2084,19 @@
         <v>61</v>
       </c>
       <c r="X9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="Y9">
-        <v>98.24703</v>
+        <v>95.82883</v>
       </c>
       <c r="Z9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="AA9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="AB9">
-        <v>7.94204</v>
+        <v>12.04901</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -2099,19 +2105,19 @@
         <v>62</v>
       </c>
       <c r="AE9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="AF9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="AG9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="AH9">
-        <v>1.19039</v>
+        <v>3.11182</v>
       </c>
       <c r="AI9">
-        <v>489.02826</v>
+        <v>499.9563</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2120,70 +2126,70 @@
         <v>63</v>
       </c>
       <c r="AL9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="AM9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="AN9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="AO9">
-        <v>7.31979</v>
+        <v>13.39178</v>
       </c>
       <c r="AP9">
-        <v>501.48291</v>
+        <v>496.85577</v>
       </c>
       <c r="AQ9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AR9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="AS9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="AT9">
-        <v>260.0013</v>
+        <v>259.99815</v>
       </c>
       <c r="AU9">
-        <v>1.78799</v>
+        <v>19.40467</v>
       </c>
       <c r="AV9">
         <v>0</v>
       </c>
       <c r="AW9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AX9">
-        <v>179.99801</v>
+        <v>180.2024769</v>
       </c>
       <c r="AY9">
-        <v>29.99943</v>
+        <v>30.00277</v>
       </c>
       <c r="AZ9">
-        <v>30.00249</v>
+        <v>29.99781</v>
       </c>
       <c r="BA9">
-        <v>50.00175</v>
+        <v>49.9988</v>
       </c>
       <c r="BB9">
-        <v>29.99662</v>
+        <v>29.99934</v>
       </c>
       <c r="BC9">
-        <v>29.99494</v>
+        <v>29.99902</v>
       </c>
       <c r="BD9">
-        <v>49.99984</v>
+        <v>49.99908</v>
       </c>
       <c r="BE9">
-        <v>59.99975</v>
+        <v>59.99987</v>
       </c>
       <c r="BF9">
-        <v>100.00214</v>
+        <v>100.00053</v>
       </c>
       <c r="BG9">
-        <v>49.99809</v>
+        <v>49.99883</v>
       </c>
     </row>
     <row r="10" spans="1:59">
@@ -2191,43 +2197,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50.00173</v>
+        <v>50.00202</v>
       </c>
       <c r="C10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="D10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="E10">
-        <v>40.00012</v>
+        <v>39.99887</v>
       </c>
       <c r="F10">
-        <v>30.00274</v>
+        <v>30.0019</v>
       </c>
       <c r="G10">
-        <v>79.99884</v>
+        <v>80.00123000000001</v>
       </c>
       <c r="H10">
-        <v>39.99595</v>
+        <v>40.00027</v>
       </c>
       <c r="I10">
-        <v>29.99759</v>
+        <v>29.99647</v>
       </c>
       <c r="J10">
-        <v>79.99951</v>
+        <v>80.00246</v>
       </c>
       <c r="K10">
-        <v>95.81783</v>
+        <v>99.57211</v>
       </c>
       <c r="L10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="M10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="N10">
-        <v>6.5721</v>
+        <v>4.04352</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2236,19 +2242,19 @@
         <v>60</v>
       </c>
       <c r="Q10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="R10">
-        <v>99.46528000000001</v>
+        <v>93.04773</v>
       </c>
       <c r="S10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="T10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="U10">
-        <v>12.67657</v>
+        <v>23.84721</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2257,19 +2263,19 @@
         <v>61</v>
       </c>
       <c r="X10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="Y10">
-        <v>95.76515000000001</v>
+        <v>95.52059</v>
       </c>
       <c r="Z10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="AA10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="AB10">
-        <v>2.12445</v>
+        <v>7.70543</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2278,19 +2284,19 @@
         <v>62</v>
       </c>
       <c r="AE10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="AF10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="AG10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="AH10">
-        <v>11.84562</v>
+        <v>5.35424</v>
       </c>
       <c r="AI10">
-        <v>498.80714</v>
+        <v>501.58077</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2299,70 +2305,70 @@
         <v>63</v>
       </c>
       <c r="AL10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="AM10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="AN10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="AO10">
-        <v>3.10837</v>
+        <v>50.60177</v>
       </c>
       <c r="AP10">
-        <v>498.83773</v>
+        <v>495.71103</v>
       </c>
       <c r="AQ10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AR10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="AS10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="AT10">
-        <v>260.00134</v>
+        <v>260.00063</v>
       </c>
       <c r="AU10">
-        <v>8.09535</v>
+        <v>9.17141</v>
       </c>
       <c r="AV10">
         <v>0</v>
       </c>
       <c r="AW10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AX10">
-        <v>180.00053</v>
+        <v>179.99904</v>
       </c>
       <c r="AY10">
-        <v>30.00235</v>
+        <v>30.00202</v>
       </c>
       <c r="AZ10">
-        <v>30.00605</v>
+        <v>29.99685</v>
       </c>
       <c r="BA10">
-        <v>50.0045</v>
+        <v>50.00231</v>
       </c>
       <c r="BB10">
-        <v>30.00314</v>
+        <v>29.99617</v>
       </c>
       <c r="BC10">
-        <v>30.00051</v>
+        <v>29.99674</v>
       </c>
       <c r="BD10">
-        <v>49.99772</v>
+        <v>49.99577</v>
       </c>
       <c r="BE10">
-        <v>60.00008</v>
+        <v>60.00204</v>
       </c>
       <c r="BF10">
-        <v>100.00675</v>
+        <v>100.0018</v>
       </c>
       <c r="BG10">
-        <v>49.99915</v>
+        <v>50.00359</v>
       </c>
     </row>
     <row r="11" spans="1:59">
@@ -2370,43 +2376,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50.00135</v>
+        <v>49.99868</v>
       </c>
       <c r="C11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="D11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="E11">
-        <v>39.9959</v>
+        <v>40.00103</v>
       </c>
       <c r="F11">
-        <v>29.99735</v>
+        <v>29.99601</v>
       </c>
       <c r="G11">
-        <v>79.99511</v>
+        <v>80.00031</v>
       </c>
       <c r="H11">
-        <v>40.00182</v>
+        <v>39.99968</v>
       </c>
       <c r="I11">
-        <v>29.99732</v>
+        <v>29.99917</v>
       </c>
       <c r="J11">
-        <v>80.00394</v>
+        <v>79.99866</v>
       </c>
       <c r="K11">
-        <v>98.20834000000001</v>
+        <v>90.35066999999999</v>
       </c>
       <c r="L11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="M11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="N11">
-        <v>22.81666</v>
+        <v>0.05345</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2415,19 +2421,19 @@
         <v>60</v>
       </c>
       <c r="Q11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="R11">
-        <v>93.67238</v>
+        <v>89.20164</v>
       </c>
       <c r="S11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="T11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="U11">
-        <v>0.38457</v>
+        <v>6.77769</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2436,112 +2442,112 @@
         <v>61</v>
       </c>
       <c r="X11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="Y11">
-        <v>98.03766</v>
+        <v>91.71946</v>
       </c>
       <c r="Z11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="AA11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="AB11">
-        <v>6.75098</v>
+        <v>5.83518</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="AF11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="AG11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="AH11">
-        <v>16.32473</v>
+        <v>33.36021</v>
       </c>
       <c r="AI11">
-        <v>505.20153</v>
+        <v>490.45331</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AL11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="AM11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="AN11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="AO11">
-        <v>0.29348</v>
+        <v>2.49962</v>
       </c>
       <c r="AP11">
-        <v>494.71944</v>
+        <v>498.54954</v>
       </c>
       <c r="AQ11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AR11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="AS11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="AT11">
-        <v>259.99544</v>
+        <v>259.99371</v>
       </c>
       <c r="AU11">
-        <v>1.89006</v>
+        <v>11.4971</v>
       </c>
       <c r="AV11">
         <v>0</v>
       </c>
       <c r="AW11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX11">
-        <v>180.00404</v>
+        <v>180.1885396</v>
       </c>
       <c r="AY11">
-        <v>30.00135</v>
+        <v>29.99828</v>
       </c>
       <c r="AZ11">
-        <v>30.00205</v>
+        <v>30.00291</v>
       </c>
       <c r="BA11">
-        <v>50.00003</v>
+        <v>49.99967</v>
       </c>
       <c r="BB11">
-        <v>30.0057</v>
+        <v>30.0013</v>
       </c>
       <c r="BC11">
-        <v>30.00011</v>
+        <v>30.00015</v>
       </c>
       <c r="BD11">
-        <v>50.00023</v>
+        <v>49.99971</v>
       </c>
       <c r="BE11">
-        <v>59.99982</v>
+        <v>60.00073</v>
       </c>
       <c r="BF11">
-        <v>100.00118</v>
+        <v>99.99935000000001</v>
       </c>
       <c r="BG11">
-        <v>50.00393</v>
+        <v>50.0013</v>
       </c>
     </row>
   </sheetData>

--- a/item_data.xlsx
+++ b/item_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
   <si>
     <t>body_h</t>
   </si>
@@ -25,6 +25,24 @@
     <t>body_w</t>
   </si>
   <si>
+    <t>flange1_h</t>
+  </si>
+  <si>
+    <t>flange1_l</t>
+  </si>
+  <si>
+    <t>flange1_w</t>
+  </si>
+  <si>
+    <t>flange2_h</t>
+  </si>
+  <si>
+    <t>flange2_l</t>
+  </si>
+  <si>
+    <t>flange2_w</t>
+  </si>
+  <si>
     <t>op10_electricity</t>
   </si>
   <si>
@@ -40,6 +58,9 @@
     <t>op10_test</t>
   </si>
   <si>
+    <t>op10_time_stamp</t>
+  </si>
+  <si>
     <t>op10_w</t>
   </si>
   <si>
@@ -58,6 +79,9 @@
     <t>op20_test</t>
   </si>
   <si>
+    <t>op20_time_stamp</t>
+  </si>
+  <si>
     <t>op20_w</t>
   </si>
   <si>
@@ -76,9 +100,72 @@
     <t>op30_test</t>
   </si>
   <si>
+    <t>op30_time_stamp</t>
+  </si>
+  <si>
     <t>op30_w</t>
   </si>
   <si>
+    <t>op40_h</t>
+  </si>
+  <si>
+    <t>op40_l</t>
+  </si>
+  <si>
+    <t>op40_process_time</t>
+  </si>
+  <si>
+    <t>op40_temperature</t>
+  </si>
+  <si>
+    <t>op40_test</t>
+  </si>
+  <si>
+    <t>op40_time_stamp</t>
+  </si>
+  <si>
+    <t>op40_w</t>
+  </si>
+  <si>
+    <t>op50_h</t>
+  </si>
+  <si>
+    <t>op50_l</t>
+  </si>
+  <si>
+    <t>op50_process_time</t>
+  </si>
+  <si>
+    <t>op50_temperature</t>
+  </si>
+  <si>
+    <t>op50_test</t>
+  </si>
+  <si>
+    <t>op50_time_stamp</t>
+  </si>
+  <si>
+    <t>op50_w</t>
+  </si>
+  <si>
+    <t>op60_h</t>
+  </si>
+  <si>
+    <t>op60_l</t>
+  </si>
+  <si>
+    <t>op60_process_time</t>
+  </si>
+  <si>
+    <t>op60_test</t>
+  </si>
+  <si>
+    <t>op60_time_stamp</t>
+  </si>
+  <si>
+    <t>op60_w</t>
+  </si>
+  <si>
     <t>pipe1_h</t>
   </si>
   <si>
@@ -97,9 +184,6 @@
     <t>pipe2_w</t>
   </si>
   <si>
-    <t>time_stamp</t>
-  </si>
-  <si>
     <t>wavyfin_h</t>
   </si>
   <si>
@@ -109,7 +193,10 @@
     <t>wavyfin_w</t>
   </si>
   <si>
-    <t>2020-10-06 15:13:03</t>
+    <t>production_key</t>
+  </si>
+  <si>
+    <t>2020-10-08 21:23:05</t>
   </si>
 </sst>
 </file>
@@ -467,13 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:60">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,119 +657,1909 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:60">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49.993</v>
+        <v>49.99508</v>
       </c>
       <c r="C2">
-        <v>200.00175</v>
+        <v>200.00017</v>
       </c>
       <c r="D2">
         <v>99.99827999999999</v>
       </c>
       <c r="E2">
-        <v>99.2221</v>
+        <v>40.00332</v>
       </c>
       <c r="F2">
-        <v>60.00073</v>
+        <v>30.00247</v>
       </c>
       <c r="G2">
-        <v>200.00175</v>
+        <v>79.99754</v>
       </c>
       <c r="H2">
-        <v>10.53952</v>
+        <v>39.99833</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.99543</v>
       </c>
       <c r="J2">
+        <v>80.00236</v>
+      </c>
+      <c r="K2">
+        <v>96.08369999999999</v>
+      </c>
+      <c r="L2">
+        <v>60.00068</v>
+      </c>
+      <c r="M2">
+        <v>200.00017</v>
+      </c>
+      <c r="N2">
+        <v>4.74647</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2">
         <v>99.99827999999999</v>
       </c>
-      <c r="AC2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2">
-        <v>60.00073</v>
+      <c r="R2">
+        <v>90.16719999999999</v>
+      </c>
+      <c r="S2">
+        <v>60.00068</v>
+      </c>
+      <c r="T2">
+        <v>200.00017</v>
+      </c>
+      <c r="U2">
+        <v>5.86818</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2">
+        <v>140.00021</v>
+      </c>
+      <c r="Y2">
+        <v>96.22472</v>
+      </c>
+      <c r="Z2">
+        <v>60.00068</v>
+      </c>
+      <c r="AA2">
+        <v>200.00017</v>
+      </c>
+      <c r="AB2">
+        <v>10.74135</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
       </c>
       <c r="AE2">
-        <v>100.00289</v>
+        <v>179.99638</v>
       </c>
       <c r="AF2">
-        <v>49.99772</v>
+        <v>60.00068</v>
+      </c>
+      <c r="AG2">
+        <v>230.00264</v>
+      </c>
+      <c r="AH2">
+        <v>2.77424</v>
+      </c>
+      <c r="AI2">
+        <v>505.92425</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2">
+        <v>179.99638</v>
+      </c>
+      <c r="AM2">
+        <v>60.00068</v>
+      </c>
+      <c r="AN2">
+        <v>259.99807</v>
+      </c>
+      <c r="AO2">
+        <v>1.52064</v>
+      </c>
+      <c r="AP2">
+        <v>496.28689</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS2">
+        <v>179.99638</v>
+      </c>
+      <c r="AT2">
+        <v>60.00068</v>
+      </c>
+      <c r="AU2">
+        <v>259.99807</v>
+      </c>
+      <c r="AV2">
+        <v>5.59138</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY2">
+        <v>179.99638</v>
+      </c>
+      <c r="AZ2">
+        <v>29.99995</v>
+      </c>
+      <c r="BA2">
+        <v>30.00163</v>
+      </c>
+      <c r="BB2">
+        <v>50.00193</v>
+      </c>
+      <c r="BC2">
+        <v>29.99953</v>
+      </c>
+      <c r="BD2">
+        <v>30.00259</v>
+      </c>
+      <c r="BE2">
+        <v>49.99617</v>
+      </c>
+      <c r="BF2">
+        <v>60.00068</v>
+      </c>
+      <c r="BG2">
+        <v>100.00122</v>
+      </c>
+      <c r="BH2">
+        <v>50.00109</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:60">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>49.99978</v>
+      </c>
+      <c r="C3">
+        <v>200.00005</v>
+      </c>
+      <c r="D3">
+        <v>99.99744</v>
+      </c>
+      <c r="E3">
+        <v>39.99871</v>
+      </c>
+      <c r="F3">
+        <v>29.99867</v>
+      </c>
+      <c r="G3">
+        <v>79.99590999999999</v>
+      </c>
+      <c r="H3">
+        <v>39.99964</v>
+      </c>
+      <c r="I3">
+        <v>30.00184</v>
+      </c>
+      <c r="J3">
+        <v>80.00023</v>
+      </c>
       <c r="K3">
-        <v>92.77678</v>
+        <v>93.3706</v>
       </c>
       <c r="L3">
-        <v>60.00073</v>
+        <v>60.00101</v>
       </c>
       <c r="M3">
-        <v>200.00175</v>
+        <v>200.00005</v>
       </c>
       <c r="N3">
-        <v>7.63142</v>
+        <v>22.53091</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>139.99723</v>
-      </c>
-      <c r="W3">
-        <v>30.00026</v>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>99.99744</v>
+      </c>
+      <c r="R3">
+        <v>99.26763</v>
+      </c>
+      <c r="S3">
+        <v>60.00101</v>
+      </c>
+      <c r="T3">
+        <v>200.00005</v>
+      </c>
+      <c r="U3">
+        <v>1.36886</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
       </c>
       <c r="X3">
-        <v>30.00277</v>
+        <v>139.99602</v>
       </c>
       <c r="Y3">
-        <v>49.99895</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>31</v>
+        <v>98.97525</v>
+      </c>
+      <c r="Z3">
+        <v>60.00101</v>
+      </c>
+      <c r="AA3">
+        <v>200.00005</v>
+      </c>
+      <c r="AB3">
+        <v>4.95706</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3">
+        <v>179.9968</v>
+      </c>
+      <c r="AF3">
+        <v>60.00101</v>
+      </c>
+      <c r="AG3">
+        <v>229.99872</v>
+      </c>
+      <c r="AH3">
+        <v>4.84702</v>
+      </c>
+      <c r="AI3">
+        <v>492.10744</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL3">
+        <v>179.9968</v>
+      </c>
+      <c r="AM3">
+        <v>60.00101</v>
+      </c>
+      <c r="AN3">
+        <v>260.00056</v>
+      </c>
+      <c r="AO3">
+        <v>2.87964</v>
+      </c>
+      <c r="AP3">
+        <v>508.40787</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS3">
+        <v>179.9968</v>
+      </c>
+      <c r="AT3">
+        <v>60.00101</v>
+      </c>
+      <c r="AU3">
+        <v>260.00056</v>
+      </c>
+      <c r="AV3">
+        <v>49.40962</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY3">
+        <v>179.9968</v>
+      </c>
+      <c r="AZ3">
+        <v>29.99487</v>
+      </c>
+      <c r="BA3">
+        <v>30.00251</v>
+      </c>
+      <c r="BB3">
+        <v>49.99858</v>
+      </c>
+      <c r="BC3">
+        <v>29.99995</v>
+      </c>
+      <c r="BD3">
+        <v>30.00035</v>
+      </c>
+      <c r="BE3">
+        <v>50.00078</v>
+      </c>
+      <c r="BF3">
+        <v>60.00101</v>
+      </c>
+      <c r="BG3">
+        <v>99.99824</v>
+      </c>
+      <c r="BH3">
+        <v>49.99902</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:60">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>49.99855</v>
+      </c>
+      <c r="C4">
+        <v>199.99492</v>
+      </c>
+      <c r="D4">
+        <v>99.99861</v>
+      </c>
+      <c r="E4">
+        <v>40.005</v>
+      </c>
+      <c r="F4">
+        <v>29.99894</v>
+      </c>
+      <c r="G4">
+        <v>79.99926000000001</v>
+      </c>
+      <c r="H4">
+        <v>39.99785</v>
+      </c>
+      <c r="I4">
+        <v>30.00117</v>
+      </c>
+      <c r="J4">
+        <v>80.00181000000001</v>
+      </c>
+      <c r="K4">
+        <v>97.7735</v>
+      </c>
+      <c r="L4">
+        <v>59.99998</v>
+      </c>
+      <c r="M4">
+        <v>199.99492</v>
+      </c>
+      <c r="N4">
+        <v>0.74237</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
       <c r="Q4">
-        <v>92.53764</v>
+        <v>99.99861</v>
       </c>
       <c r="R4">
+        <v>94.1459</v>
+      </c>
+      <c r="S4">
+        <v>59.99998</v>
+      </c>
+      <c r="T4">
+        <v>199.99492</v>
+      </c>
+      <c r="U4">
+        <v>2.07241</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4">
+        <v>139.99969</v>
+      </c>
+      <c r="Y4">
+        <v>96.47801</v>
+      </c>
+      <c r="Z4">
+        <v>59.99998</v>
+      </c>
+      <c r="AA4">
+        <v>199.99492</v>
+      </c>
+      <c r="AB4">
+        <v>4.29614</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE4">
+        <v>179.9976</v>
+      </c>
+      <c r="AF4">
+        <v>59.99998</v>
+      </c>
+      <c r="AG4">
+        <v>229.99386</v>
+      </c>
+      <c r="AH4">
+        <v>7.65777</v>
+      </c>
+      <c r="AI4">
+        <v>501.53779</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4">
+        <v>179.9976</v>
+      </c>
+      <c r="AM4">
+        <v>59.99998</v>
+      </c>
+      <c r="AN4">
+        <v>259.99503</v>
+      </c>
+      <c r="AO4">
+        <v>16.49518</v>
+      </c>
+      <c r="AP4">
+        <v>493.07541</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS4">
+        <v>179.9976</v>
+      </c>
+      <c r="AT4">
+        <v>59.99998</v>
+      </c>
+      <c r="AU4">
+        <v>259.99503</v>
+      </c>
+      <c r="AV4">
+        <v>5.01701</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY4">
+        <v>179.9976</v>
+      </c>
+      <c r="AZ4">
+        <v>30.00079</v>
+      </c>
+      <c r="BA4">
+        <v>30.00254</v>
+      </c>
+      <c r="BB4">
+        <v>50.00108</v>
+      </c>
+      <c r="BC4">
+        <v>30.00148</v>
+      </c>
+      <c r="BD4">
+        <v>29.99555</v>
+      </c>
+      <c r="BE4">
+        <v>49.99791</v>
+      </c>
+      <c r="BF4">
+        <v>59.99998</v>
+      </c>
+      <c r="BG4">
+        <v>99.99897</v>
+      </c>
+      <c r="BH4">
+        <v>50.00138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>50.00124</v>
+      </c>
+      <c r="C5">
+        <v>200.00013</v>
+      </c>
+      <c r="D5">
+        <v>100.00633</v>
+      </c>
+      <c r="E5">
+        <v>39.99866</v>
+      </c>
+      <c r="F5">
+        <v>30.00064</v>
+      </c>
+      <c r="G5">
+        <v>80.00141000000001</v>
+      </c>
+      <c r="H5">
+        <v>40.00198</v>
+      </c>
+      <c r="I5">
+        <v>30.00112</v>
+      </c>
+      <c r="J5">
+        <v>80.00096000000001</v>
+      </c>
+      <c r="K5">
+        <v>94.39476999999999</v>
+      </c>
+      <c r="L5">
+        <v>60.00174</v>
+      </c>
+      <c r="M5">
+        <v>200.00013</v>
+      </c>
+      <c r="N5">
+        <v>16.43359</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>100.00633</v>
+      </c>
+      <c r="R5">
+        <v>96.08271000000001</v>
+      </c>
+      <c r="S5">
+        <v>60.00174</v>
+      </c>
+      <c r="T5">
+        <v>200.00013</v>
+      </c>
+      <c r="U5">
+        <v>27.61446</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5">
+        <v>140.0041</v>
+      </c>
+      <c r="Y5">
+        <v>98.79249</v>
+      </c>
+      <c r="Z5">
+        <v>60.00174</v>
+      </c>
+      <c r="AA5">
+        <v>200.00013</v>
+      </c>
+      <c r="AB5">
+        <v>0.22682</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5">
+        <v>180.00504</v>
+      </c>
+      <c r="AF5">
+        <v>60.00174</v>
+      </c>
+      <c r="AG5">
+        <v>230.00077</v>
+      </c>
+      <c r="AH5">
+        <v>8.76563</v>
+      </c>
+      <c r="AI5">
+        <v>503.49201</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL5">
+        <v>180.00504</v>
+      </c>
+      <c r="AM5">
+        <v>60.00174</v>
+      </c>
+      <c r="AN5">
+        <v>260.00189</v>
+      </c>
+      <c r="AO5">
+        <v>6.52685</v>
+      </c>
+      <c r="AP5">
+        <v>500.79076</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS5">
+        <v>180.00504</v>
+      </c>
+      <c r="AT5">
+        <v>60.00174</v>
+      </c>
+      <c r="AU5">
+        <v>260.00189</v>
+      </c>
+      <c r="AV5">
+        <v>5.89742</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY5">
+        <v>180.00504</v>
+      </c>
+      <c r="AZ5">
+        <v>30.00147</v>
+      </c>
+      <c r="BA5">
+        <v>30.00188</v>
+      </c>
+      <c r="BB5">
+        <v>49.99777</v>
+      </c>
+      <c r="BC5">
+        <v>30.00065</v>
+      </c>
+      <c r="BD5">
+        <v>29.99938</v>
+      </c>
+      <c r="BE5">
+        <v>50.00094</v>
+      </c>
+      <c r="BF5">
+        <v>60.00174</v>
+      </c>
+      <c r="BG5">
+        <v>100.00278</v>
+      </c>
+      <c r="BH5">
+        <v>50.0015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>49.99617</v>
+      </c>
+      <c r="C6">
+        <v>199.9987</v>
+      </c>
+      <c r="D6">
+        <v>99.99815</v>
+      </c>
+      <c r="E6">
+        <v>40.0007</v>
+      </c>
+      <c r="F6">
+        <v>30.00373</v>
+      </c>
+      <c r="G6">
+        <v>80.00252</v>
+      </c>
+      <c r="H6">
+        <v>40.00159</v>
+      </c>
+      <c r="I6">
+        <v>29.99859</v>
+      </c>
+      <c r="J6">
+        <v>80.00329000000001</v>
+      </c>
+      <c r="K6">
+        <v>98.29526</v>
+      </c>
+      <c r="L6">
         <v>60.00073</v>
       </c>
-      <c r="S4">
-        <v>200.00175</v>
-      </c>
-      <c r="T4">
-        <v>1.66193</v>
-      </c>
-      <c r="U4">
+      <c r="M6">
+        <v>199.9987</v>
+      </c>
+      <c r="N6">
+        <v>1.34024</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>99.99815</v>
+      </c>
+      <c r="R6">
+        <v>94.21826</v>
+      </c>
+      <c r="S6">
+        <v>60.00073</v>
+      </c>
+      <c r="T6">
+        <v>199.9987</v>
+      </c>
+      <c r="U6">
+        <v>13.35817</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6">
+        <v>139.99523</v>
+      </c>
+      <c r="Y6">
+        <v>99.43291000000001</v>
+      </c>
+      <c r="Z6">
+        <v>60.00073</v>
+      </c>
+      <c r="AA6">
+        <v>199.9987</v>
+      </c>
+      <c r="AB6">
+        <v>0.2118</v>
+      </c>
+      <c r="AC6">
         <v>1</v>
       </c>
-      <c r="V4">
-        <v>179.99913</v>
-      </c>
-      <c r="Z4">
-        <v>30.00365</v>
-      </c>
-      <c r="AA4">
-        <v>29.99783</v>
-      </c>
-      <c r="AB4">
-        <v>50.0019</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>31</v>
+      <c r="AD6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6">
+        <v>179.98956</v>
+      </c>
+      <c r="AF6">
+        <v>60.00073</v>
+      </c>
+      <c r="AG6">
+        <v>230.00243</v>
+      </c>
+      <c r="AH6">
+        <v>10.09955</v>
+      </c>
+      <c r="AI6">
+        <v>500.94348</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL6">
+        <v>179.98956</v>
+      </c>
+      <c r="AM6">
+        <v>60.00073</v>
+      </c>
+      <c r="AN6">
+        <v>260.00102</v>
+      </c>
+      <c r="AO6">
+        <v>8.638210000000001</v>
+      </c>
+      <c r="AP6">
+        <v>510.29932</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6">
+        <v>179.98956</v>
+      </c>
+      <c r="AT6">
+        <v>60.00073</v>
+      </c>
+      <c r="AU6">
+        <v>260.00102</v>
+      </c>
+      <c r="AV6">
+        <v>4.89976</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY6">
+        <v>179.98956</v>
+      </c>
+      <c r="AZ6">
+        <v>29.99745</v>
+      </c>
+      <c r="BA6">
+        <v>29.9997</v>
+      </c>
+      <c r="BB6">
+        <v>49.99708</v>
+      </c>
+      <c r="BC6">
+        <v>30.00378</v>
+      </c>
+      <c r="BD6">
+        <v>29.99943</v>
+      </c>
+      <c r="BE6">
+        <v>49.99433</v>
+      </c>
+      <c r="BF6">
+        <v>60.00073</v>
+      </c>
+      <c r="BG6">
+        <v>99.99827000000001</v>
+      </c>
+      <c r="BH6">
+        <v>49.99996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>50.00057</v>
+      </c>
+      <c r="C7">
+        <v>200.00116</v>
+      </c>
+      <c r="D7">
+        <v>100.00121</v>
+      </c>
+      <c r="E7">
+        <v>40.00056</v>
+      </c>
+      <c r="F7">
+        <v>30.00185</v>
+      </c>
+      <c r="G7">
+        <v>80.00144</v>
+      </c>
+      <c r="H7">
+        <v>40.003</v>
+      </c>
+      <c r="I7">
+        <v>29.99697</v>
+      </c>
+      <c r="J7">
+        <v>80.002</v>
+      </c>
+      <c r="K7">
+        <v>96.15907</v>
+      </c>
+      <c r="L7">
+        <v>60.00213</v>
+      </c>
+      <c r="M7">
+        <v>200.00116</v>
+      </c>
+      <c r="N7">
+        <v>13.60424</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>100.00121</v>
+      </c>
+      <c r="R7">
+        <v>92.91974999999999</v>
+      </c>
+      <c r="S7">
+        <v>60.00213</v>
+      </c>
+      <c r="T7">
+        <v>200.00116</v>
+      </c>
+      <c r="U7">
+        <v>1.48721</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7">
+        <v>139.99923</v>
+      </c>
+      <c r="Y7">
+        <v>98.43464</v>
+      </c>
+      <c r="Z7">
+        <v>60.00213</v>
+      </c>
+      <c r="AA7">
+        <v>200.00116</v>
+      </c>
+      <c r="AB7">
+        <v>14.35061</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE7">
+        <v>179.99968</v>
+      </c>
+      <c r="AF7">
+        <v>60.00213</v>
+      </c>
+      <c r="AG7">
+        <v>230.00301</v>
+      </c>
+      <c r="AH7">
+        <v>25.91722</v>
+      </c>
+      <c r="AI7">
+        <v>500.83314</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL7">
+        <v>179.99968</v>
+      </c>
+      <c r="AM7">
+        <v>60.00213</v>
+      </c>
+      <c r="AN7">
+        <v>259.99998</v>
+      </c>
+      <c r="AO7">
+        <v>3.32878</v>
+      </c>
+      <c r="AP7">
+        <v>501.39865</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS7">
+        <v>179.99968</v>
+      </c>
+      <c r="AT7">
+        <v>60.00213</v>
+      </c>
+      <c r="AU7">
+        <v>259.99998</v>
+      </c>
+      <c r="AV7">
+        <v>0.34411</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY7">
+        <v>179.99968</v>
+      </c>
+      <c r="AZ7">
+        <v>29.99815</v>
+      </c>
+      <c r="BA7">
+        <v>29.99886</v>
+      </c>
+      <c r="BB7">
+        <v>49.99802</v>
+      </c>
+      <c r="BC7">
+        <v>30.00414</v>
+      </c>
+      <c r="BD7">
+        <v>29.99834</v>
+      </c>
+      <c r="BE7">
+        <v>50.00045</v>
+      </c>
+      <c r="BF7">
+        <v>60.00213</v>
+      </c>
+      <c r="BG7">
+        <v>100.00094</v>
+      </c>
+      <c r="BH7">
+        <v>49.99705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>49.99965</v>
+      </c>
+      <c r="C8">
+        <v>200.00131</v>
+      </c>
+      <c r="D8">
+        <v>100.00181</v>
+      </c>
+      <c r="E8">
+        <v>40.00203</v>
+      </c>
+      <c r="F8">
+        <v>29.99858</v>
+      </c>
+      <c r="G8">
+        <v>79.99420000000001</v>
+      </c>
+      <c r="H8">
+        <v>40.00198</v>
+      </c>
+      <c r="I8">
+        <v>29.99823</v>
+      </c>
+      <c r="J8">
+        <v>79.9957</v>
+      </c>
+      <c r="K8">
+        <v>89.04871</v>
+      </c>
+      <c r="L8">
+        <v>60.00208</v>
+      </c>
+      <c r="M8">
+        <v>200.00131</v>
+      </c>
+      <c r="N8">
+        <v>5.50265</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q8">
+        <v>100.00181</v>
+      </c>
+      <c r="R8">
+        <v>96.48553</v>
+      </c>
+      <c r="S8">
+        <v>60.00208</v>
+      </c>
+      <c r="T8">
+        <v>200.00131</v>
+      </c>
+      <c r="U8">
+        <v>7.21464</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8">
+        <v>140.00418</v>
+      </c>
+      <c r="Y8">
+        <v>97.77364</v>
+      </c>
+      <c r="Z8">
+        <v>60.00208</v>
+      </c>
+      <c r="AA8">
+        <v>200.00131</v>
+      </c>
+      <c r="AB8">
+        <v>32.89366</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8">
+        <v>180.00367</v>
+      </c>
+      <c r="AF8">
+        <v>60.00208</v>
+      </c>
+      <c r="AG8">
+        <v>229.99989</v>
+      </c>
+      <c r="AH8">
+        <v>0.5607</v>
+      </c>
+      <c r="AI8">
+        <v>493.26805</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL8">
+        <v>180.00367</v>
+      </c>
+      <c r="AM8">
+        <v>60.00208</v>
+      </c>
+      <c r="AN8">
+        <v>259.99812</v>
+      </c>
+      <c r="AO8">
+        <v>6.40703</v>
+      </c>
+      <c r="AP8">
+        <v>498.84351</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS8">
+        <v>180.00367</v>
+      </c>
+      <c r="AT8">
+        <v>60.00208</v>
+      </c>
+      <c r="AU8">
+        <v>259.99812</v>
+      </c>
+      <c r="AV8">
+        <v>2.8145</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY8">
+        <v>180.00367</v>
+      </c>
+      <c r="AZ8">
+        <v>29.99894</v>
+      </c>
+      <c r="BA8">
+        <v>29.99923</v>
+      </c>
+      <c r="BB8">
+        <v>50.00237</v>
+      </c>
+      <c r="BC8">
+        <v>30.00303</v>
+      </c>
+      <c r="BD8">
+        <v>29.99929</v>
+      </c>
+      <c r="BE8">
+        <v>49.99949</v>
+      </c>
+      <c r="BF8">
+        <v>60.00208</v>
+      </c>
+      <c r="BG8">
+        <v>100.00109</v>
+      </c>
+      <c r="BH8">
+        <v>49.99758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>49.99772</v>
+      </c>
+      <c r="C9">
+        <v>200.00054</v>
+      </c>
+      <c r="D9">
+        <v>99.9984</v>
+      </c>
+      <c r="E9">
+        <v>39.99936</v>
+      </c>
+      <c r="F9">
+        <v>29.99611</v>
+      </c>
+      <c r="G9">
+        <v>80.00073</v>
+      </c>
+      <c r="H9">
+        <v>39.99745</v>
+      </c>
+      <c r="I9">
+        <v>30.00042</v>
+      </c>
+      <c r="J9">
+        <v>80.00143</v>
+      </c>
+      <c r="K9">
+        <v>89.2222</v>
+      </c>
+      <c r="L9">
+        <v>60.00187</v>
+      </c>
+      <c r="M9">
+        <v>200.00054</v>
+      </c>
+      <c r="N9">
+        <v>15.41932</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9">
+        <v>99.9984</v>
+      </c>
+      <c r="R9">
+        <v>97.39773</v>
+      </c>
+      <c r="S9">
+        <v>60.00187</v>
+      </c>
+      <c r="T9">
+        <v>200.00054</v>
+      </c>
+      <c r="U9">
+        <v>3.94812</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9">
+        <v>139.99983</v>
+      </c>
+      <c r="Y9">
+        <v>97.29732</v>
+      </c>
+      <c r="Z9">
+        <v>60.00187</v>
+      </c>
+      <c r="AA9">
+        <v>200.00054</v>
+      </c>
+      <c r="AB9">
+        <v>12.84531</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9">
+        <v>180.00201</v>
+      </c>
+      <c r="AF9">
+        <v>60.00187</v>
+      </c>
+      <c r="AG9">
+        <v>229.99665</v>
+      </c>
+      <c r="AH9">
+        <v>4.01897</v>
+      </c>
+      <c r="AI9">
+        <v>509.82644</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL9">
+        <v>180.00201</v>
+      </c>
+      <c r="AM9">
+        <v>60.00187</v>
+      </c>
+      <c r="AN9">
+        <v>259.99707</v>
+      </c>
+      <c r="AO9">
+        <v>27.67558</v>
+      </c>
+      <c r="AP9">
+        <v>495.97886</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS9">
+        <v>180.00201</v>
+      </c>
+      <c r="AT9">
+        <v>60.00187</v>
+      </c>
+      <c r="AU9">
+        <v>259.99707</v>
+      </c>
+      <c r="AV9">
+        <v>1.36116</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY9">
+        <v>180.00201</v>
+      </c>
+      <c r="AZ9">
+        <v>30.0028</v>
+      </c>
+      <c r="BA9">
+        <v>30.00011</v>
+      </c>
+      <c r="BB9">
+        <v>50.00143</v>
+      </c>
+      <c r="BC9">
+        <v>29.9997</v>
+      </c>
+      <c r="BD9">
+        <v>29.99892</v>
+      </c>
+      <c r="BE9">
+        <v>50.00218</v>
+      </c>
+      <c r="BF9">
+        <v>60.00187</v>
+      </c>
+      <c r="BG9">
+        <v>100.0023</v>
+      </c>
+      <c r="BH9">
+        <v>50.00443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>50.00141</v>
+      </c>
+      <c r="C10">
+        <v>200.00031</v>
+      </c>
+      <c r="D10">
+        <v>100.00314</v>
+      </c>
+      <c r="E10">
+        <v>40.0003</v>
+      </c>
+      <c r="F10">
+        <v>29.99697</v>
+      </c>
+      <c r="G10">
+        <v>79.99512</v>
+      </c>
+      <c r="H10">
+        <v>39.99786</v>
+      </c>
+      <c r="I10">
+        <v>30.00371</v>
+      </c>
+      <c r="J10">
+        <v>79.99988</v>
+      </c>
+      <c r="K10">
+        <v>97.61615999999999</v>
+      </c>
+      <c r="L10">
+        <v>59.99682</v>
+      </c>
+      <c r="M10">
+        <v>200.00031</v>
+      </c>
+      <c r="N10">
+        <v>1.96908</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>100.00314</v>
+      </c>
+      <c r="R10">
+        <v>91.18789</v>
+      </c>
+      <c r="S10">
+        <v>59.99682</v>
+      </c>
+      <c r="T10">
+        <v>200.00031</v>
+      </c>
+      <c r="U10">
+        <v>3.70963</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10">
+        <v>140.0056</v>
+      </c>
+      <c r="Y10">
+        <v>99.85594</v>
+      </c>
+      <c r="Z10">
+        <v>59.99682</v>
+      </c>
+      <c r="AA10">
+        <v>200.00031</v>
+      </c>
+      <c r="AB10">
+        <v>10.52054</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10">
+        <v>180.00619</v>
+      </c>
+      <c r="AF10">
+        <v>59.99682</v>
+      </c>
+      <c r="AG10">
+        <v>229.99728</v>
+      </c>
+      <c r="AH10">
+        <v>21.59819</v>
+      </c>
+      <c r="AI10">
+        <v>507.31338</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL10">
+        <v>180.00619</v>
+      </c>
+      <c r="AM10">
+        <v>59.99682</v>
+      </c>
+      <c r="AN10">
+        <v>260.00099</v>
+      </c>
+      <c r="AO10">
+        <v>6.63308</v>
+      </c>
+      <c r="AP10">
+        <v>493.71757</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS10">
+        <v>180.00619</v>
+      </c>
+      <c r="AT10">
+        <v>59.99682</v>
+      </c>
+      <c r="AU10">
+        <v>260.00099</v>
+      </c>
+      <c r="AV10">
+        <v>3.71846</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY10">
+        <v>180.00619</v>
+      </c>
+      <c r="AZ10">
+        <v>29.99675</v>
+      </c>
+      <c r="BA10">
+        <v>30.00169</v>
+      </c>
+      <c r="BB10">
+        <v>50.00246</v>
+      </c>
+      <c r="BC10">
+        <v>29.99856</v>
+      </c>
+      <c r="BD10">
+        <v>29.99801</v>
+      </c>
+      <c r="BE10">
+        <v>50.00059</v>
+      </c>
+      <c r="BF10">
+        <v>59.99682</v>
+      </c>
+      <c r="BG10">
+        <v>99.99954</v>
+      </c>
+      <c r="BH10">
+        <v>49.99699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>49.99726</v>
+      </c>
+      <c r="C11">
+        <v>199.9985</v>
+      </c>
+      <c r="D11">
+        <v>99.99881999999999</v>
+      </c>
+      <c r="E11">
+        <v>39.99824</v>
+      </c>
+      <c r="F11">
+        <v>30.00457</v>
+      </c>
+      <c r="G11">
+        <v>79.99843</v>
+      </c>
+      <c r="H11">
+        <v>39.9953</v>
+      </c>
+      <c r="I11">
+        <v>30.00188</v>
+      </c>
+      <c r="J11">
+        <v>79.99973</v>
+      </c>
+      <c r="K11">
+        <v>98.76799</v>
+      </c>
+      <c r="L11">
+        <v>60.00303</v>
+      </c>
+      <c r="M11">
+        <v>199.9985</v>
+      </c>
+      <c r="N11">
+        <v>36.10971</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11">
+        <v>99.99881999999999</v>
+      </c>
+      <c r="R11">
+        <v>93.69582</v>
+      </c>
+      <c r="S11">
+        <v>60.00303</v>
+      </c>
+      <c r="T11">
+        <v>199.9985</v>
+      </c>
+      <c r="U11">
+        <v>4.52282</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11">
+        <v>140.0027</v>
+      </c>
+      <c r="Y11">
+        <v>95.37238000000001</v>
+      </c>
+      <c r="Z11">
+        <v>60.00303</v>
+      </c>
+      <c r="AA11">
+        <v>199.9985</v>
+      </c>
+      <c r="AB11">
+        <v>7.06797</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11">
+        <v>180.0026</v>
+      </c>
+      <c r="AF11">
+        <v>60.00303</v>
+      </c>
+      <c r="AG11">
+        <v>230.00307</v>
+      </c>
+      <c r="AH11">
+        <v>21.70508</v>
+      </c>
+      <c r="AI11">
+        <v>500.83042</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL11">
+        <v>180.0026</v>
+      </c>
+      <c r="AM11">
+        <v>60.00303</v>
+      </c>
+      <c r="AN11">
+        <v>260.00495</v>
+      </c>
+      <c r="AO11">
+        <v>41.7132</v>
+      </c>
+      <c r="AP11">
+        <v>501.37397</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS11">
+        <v>180.0026</v>
+      </c>
+      <c r="AT11">
+        <v>60.00303</v>
+      </c>
+      <c r="AU11">
+        <v>260.00495</v>
+      </c>
+      <c r="AV11">
+        <v>9.429970000000001</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY11">
+        <v>180.0026</v>
+      </c>
+      <c r="AZ11">
+        <v>29.99772</v>
+      </c>
+      <c r="BA11">
+        <v>29.99779</v>
+      </c>
+      <c r="BB11">
+        <v>50.00388</v>
+      </c>
+      <c r="BC11">
+        <v>30.0025</v>
+      </c>
+      <c r="BD11">
+        <v>30.00379</v>
+      </c>
+      <c r="BE11">
+        <v>49.9999</v>
+      </c>
+      <c r="BF11">
+        <v>60.00303</v>
+      </c>
+      <c r="BG11">
+        <v>99.99952</v>
+      </c>
+      <c r="BH11">
+        <v>50.0026</v>
       </c>
     </row>
   </sheetData>

--- a/item_data.xlsx
+++ b/item_data.xlsx
@@ -196,7 +196,7 @@
     <t>production_key</t>
   </si>
   <si>
-    <t>2020-10-08 21:23:05</t>
+    <t>2020-10-09 14:34:15</t>
   </si>
 </sst>
 </file>
@@ -747,43 +747,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>49.99508</v>
+        <v>50.00315</v>
       </c>
       <c r="C2">
-        <v>200.00017</v>
+        <v>200.00058</v>
       </c>
       <c r="D2">
-        <v>99.99827999999999</v>
+        <v>99.99968</v>
       </c>
       <c r="E2">
-        <v>40.00332</v>
+        <v>39.99818</v>
       </c>
       <c r="F2">
-        <v>30.00247</v>
+        <v>30.00279</v>
       </c>
       <c r="G2">
-        <v>79.99754</v>
+        <v>80.00161</v>
       </c>
       <c r="H2">
-        <v>39.99833</v>
+        <v>40.00596</v>
       </c>
       <c r="I2">
-        <v>29.99543</v>
+        <v>29.99837</v>
       </c>
       <c r="J2">
-        <v>80.00236</v>
+        <v>79.99812</v>
       </c>
       <c r="K2">
-        <v>96.08369999999999</v>
+        <v>93.52817</v>
       </c>
       <c r="L2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="M2">
-        <v>200.00017</v>
+        <v>200.00058</v>
       </c>
       <c r="N2">
-        <v>4.74647</v>
+        <v>6.45709</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>60</v>
       </c>
       <c r="Q2">
-        <v>99.99827999999999</v>
+        <v>99.99968</v>
       </c>
       <c r="R2">
-        <v>90.16719999999999</v>
+        <v>99.07993</v>
       </c>
       <c r="S2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="T2">
-        <v>200.00017</v>
+        <v>200.00058</v>
       </c>
       <c r="U2">
-        <v>5.86818</v>
+        <v>2.88002</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -813,19 +813,19 @@
         <v>60</v>
       </c>
       <c r="X2">
-        <v>140.00021</v>
+        <v>140.00184</v>
       </c>
       <c r="Y2">
-        <v>96.22472</v>
+        <v>92.31641999999999</v>
       </c>
       <c r="Z2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="AA2">
-        <v>200.00017</v>
+        <v>200.00058</v>
       </c>
       <c r="AB2">
-        <v>10.74135</v>
+        <v>0.09451</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -834,19 +834,19 @@
         <v>60</v>
       </c>
       <c r="AE2">
-        <v>179.99638</v>
+        <v>180.00377</v>
       </c>
       <c r="AF2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="AG2">
-        <v>230.00264</v>
+        <v>230.00337</v>
       </c>
       <c r="AH2">
-        <v>2.77424</v>
+        <v>2.28922</v>
       </c>
       <c r="AI2">
-        <v>505.92425</v>
+        <v>493.24884</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -855,19 +855,19 @@
         <v>60</v>
       </c>
       <c r="AL2">
-        <v>179.99638</v>
+        <v>180.00377</v>
       </c>
       <c r="AM2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="AN2">
-        <v>259.99807</v>
+        <v>260.00174</v>
       </c>
       <c r="AO2">
-        <v>1.52064</v>
+        <v>10.95142</v>
       </c>
       <c r="AP2">
-        <v>496.28689</v>
+        <v>497.69012</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>60</v>
       </c>
       <c r="AS2">
-        <v>179.99638</v>
+        <v>180.00377</v>
       </c>
       <c r="AT2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="AU2">
-        <v>259.99807</v>
+        <v>260.00174</v>
       </c>
       <c r="AV2">
-        <v>5.59138</v>
+        <v>2.1944</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>60</v>
       </c>
       <c r="AY2">
-        <v>179.99638</v>
+        <v>180.00377</v>
       </c>
       <c r="AZ2">
-        <v>29.99995</v>
+        <v>29.99884</v>
       </c>
       <c r="BA2">
-        <v>30.00163</v>
+        <v>30.00111</v>
       </c>
       <c r="BB2">
+        <v>50.00216</v>
+      </c>
+      <c r="BC2">
+        <v>29.99929</v>
+      </c>
+      <c r="BD2">
+        <v>29.99904</v>
+      </c>
+      <c r="BE2">
         <v>50.00193</v>
       </c>
-      <c r="BC2">
-        <v>29.99953</v>
-      </c>
-      <c r="BD2">
-        <v>30.00259</v>
-      </c>
-      <c r="BE2">
-        <v>49.99617</v>
-      </c>
       <c r="BF2">
-        <v>60.00068</v>
+        <v>59.99658</v>
       </c>
       <c r="BG2">
-        <v>100.00122</v>
+        <v>99.99903</v>
       </c>
       <c r="BH2">
-        <v>50.00109</v>
+        <v>49.99301</v>
       </c>
     </row>
     <row r="3" spans="1:60">
@@ -929,43 +929,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>49.99978</v>
+        <v>50.00634</v>
       </c>
       <c r="C3">
-        <v>200.00005</v>
+        <v>199.99808</v>
       </c>
       <c r="D3">
-        <v>99.99744</v>
+        <v>99.99928</v>
       </c>
       <c r="E3">
-        <v>39.99871</v>
+        <v>39.99893</v>
       </c>
       <c r="F3">
-        <v>29.99867</v>
+        <v>29.99608</v>
       </c>
       <c r="G3">
-        <v>79.99590999999999</v>
+        <v>79.99836999999999</v>
       </c>
       <c r="H3">
-        <v>39.99964</v>
+        <v>40.00742</v>
       </c>
       <c r="I3">
-        <v>30.00184</v>
+        <v>30.00204</v>
       </c>
       <c r="J3">
-        <v>80.00023</v>
+        <v>79.99862</v>
       </c>
       <c r="K3">
-        <v>93.3706</v>
+        <v>92.98626</v>
       </c>
       <c r="L3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="M3">
-        <v>200.00005</v>
+        <v>199.99808</v>
       </c>
       <c r="N3">
-        <v>22.53091</v>
+        <v>3.09968</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -974,19 +974,19 @@
         <v>60</v>
       </c>
       <c r="Q3">
-        <v>99.99744</v>
+        <v>99.99928</v>
       </c>
       <c r="R3">
-        <v>99.26763</v>
+        <v>91.65284</v>
       </c>
       <c r="S3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="T3">
-        <v>200.00005</v>
+        <v>199.99808</v>
       </c>
       <c r="U3">
-        <v>1.36886</v>
+        <v>1.61328</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>60</v>
       </c>
       <c r="X3">
-        <v>139.99602</v>
+        <v>139.99936</v>
       </c>
       <c r="Y3">
-        <v>98.97525</v>
+        <v>91.11922</v>
       </c>
       <c r="Z3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="AA3">
-        <v>200.00005</v>
+        <v>199.99808</v>
       </c>
       <c r="AB3">
-        <v>4.95706</v>
+        <v>10.17931</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>60</v>
       </c>
       <c r="AE3">
-        <v>179.9968</v>
+        <v>179.99921</v>
       </c>
       <c r="AF3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="AG3">
-        <v>229.99872</v>
+        <v>229.99416</v>
       </c>
       <c r="AH3">
-        <v>4.84702</v>
+        <v>7.49484</v>
       </c>
       <c r="AI3">
-        <v>492.10744</v>
+        <v>503.49102</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>60</v>
       </c>
       <c r="AL3">
-        <v>179.9968</v>
+        <v>179.99921</v>
       </c>
       <c r="AM3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="AN3">
-        <v>260.00056</v>
+        <v>259.9962</v>
       </c>
       <c r="AO3">
-        <v>2.87964</v>
+        <v>0.9567</v>
       </c>
       <c r="AP3">
-        <v>508.40787</v>
+        <v>507.86905</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>60</v>
       </c>
       <c r="AS3">
-        <v>179.9968</v>
+        <v>179.99921</v>
       </c>
       <c r="AT3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="AU3">
-        <v>260.00056</v>
+        <v>259.9962</v>
       </c>
       <c r="AV3">
-        <v>49.40962</v>
+        <v>1.12687</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1076,34 +1076,34 @@
         <v>60</v>
       </c>
       <c r="AY3">
-        <v>179.9968</v>
+        <v>179.99921</v>
       </c>
       <c r="AZ3">
-        <v>29.99487</v>
+        <v>29.99916</v>
       </c>
       <c r="BA3">
-        <v>30.00251</v>
+        <v>30.00459</v>
       </c>
       <c r="BB3">
-        <v>49.99858</v>
+        <v>50.00008</v>
       </c>
       <c r="BC3">
-        <v>29.99995</v>
+        <v>30.00026</v>
       </c>
       <c r="BD3">
-        <v>30.00035</v>
+        <v>30.002</v>
       </c>
       <c r="BE3">
-        <v>50.00078</v>
+        <v>49.99985</v>
       </c>
       <c r="BF3">
-        <v>60.00101</v>
+        <v>60.00054</v>
       </c>
       <c r="BG3">
-        <v>99.99824</v>
+        <v>100.00107</v>
       </c>
       <c r="BH3">
-        <v>49.99902</v>
+        <v>49.99761</v>
       </c>
     </row>
     <row r="4" spans="1:60">
@@ -1111,43 +1111,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>49.99855</v>
+        <v>49.99904</v>
       </c>
       <c r="C4">
-        <v>199.99492</v>
+        <v>199.99716</v>
       </c>
       <c r="D4">
-        <v>99.99861</v>
+        <v>100.00085</v>
       </c>
       <c r="E4">
-        <v>40.005</v>
+        <v>40.00077</v>
       </c>
       <c r="F4">
-        <v>29.99894</v>
+        <v>30.00131</v>
       </c>
       <c r="G4">
-        <v>79.99926000000001</v>
+        <v>80.00156</v>
       </c>
       <c r="H4">
-        <v>39.99785</v>
+        <v>40.00133</v>
       </c>
       <c r="I4">
-        <v>30.00117</v>
+        <v>30.00022</v>
       </c>
       <c r="J4">
-        <v>80.00181000000001</v>
+        <v>80.00432000000001</v>
       </c>
       <c r="K4">
-        <v>97.7735</v>
+        <v>93.65054000000001</v>
       </c>
       <c r="L4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="M4">
-        <v>199.99492</v>
+        <v>199.99716</v>
       </c>
       <c r="N4">
-        <v>0.74237</v>
+        <v>1.27196</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1156,19 +1156,19 @@
         <v>60</v>
       </c>
       <c r="Q4">
-        <v>99.99861</v>
+        <v>100.00085</v>
       </c>
       <c r="R4">
-        <v>94.1459</v>
+        <v>93.95538000000001</v>
       </c>
       <c r="S4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="T4">
-        <v>199.99492</v>
+        <v>199.99716</v>
       </c>
       <c r="U4">
-        <v>2.07241</v>
+        <v>0.63854</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>60</v>
       </c>
       <c r="X4">
-        <v>139.99969</v>
+        <v>139.9987</v>
       </c>
       <c r="Y4">
-        <v>96.47801</v>
+        <v>91.07894</v>
       </c>
       <c r="Z4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="AA4">
-        <v>199.99492</v>
+        <v>199.99716</v>
       </c>
       <c r="AB4">
-        <v>4.29614</v>
+        <v>17.52787</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>60</v>
       </c>
       <c r="AE4">
-        <v>179.9976</v>
+        <v>179.9974</v>
       </c>
       <c r="AF4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="AG4">
-        <v>229.99386</v>
+        <v>229.99847</v>
       </c>
       <c r="AH4">
-        <v>7.65777</v>
+        <v>0.66062</v>
       </c>
       <c r="AI4">
-        <v>501.53779</v>
+        <v>498.18765</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>60</v>
       </c>
       <c r="AL4">
-        <v>179.9976</v>
+        <v>179.9974</v>
       </c>
       <c r="AM4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="AN4">
-        <v>259.99503</v>
+        <v>259.99869</v>
       </c>
       <c r="AO4">
-        <v>16.49518</v>
+        <v>0.6245000000000001</v>
       </c>
       <c r="AP4">
-        <v>493.07541</v>
+        <v>489.32831</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1240,16 +1240,16 @@
         <v>60</v>
       </c>
       <c r="AS4">
-        <v>179.9976</v>
+        <v>179.9974</v>
       </c>
       <c r="AT4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="AU4">
-        <v>259.99503</v>
+        <v>259.99869</v>
       </c>
       <c r="AV4">
-        <v>5.01701</v>
+        <v>7.6975</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1258,34 +1258,34 @@
         <v>60</v>
       </c>
       <c r="AY4">
-        <v>179.9976</v>
+        <v>179.9974</v>
       </c>
       <c r="AZ4">
-        <v>30.00079</v>
+        <v>30.00308</v>
       </c>
       <c r="BA4">
-        <v>30.00254</v>
+        <v>30.00839</v>
       </c>
       <c r="BB4">
-        <v>50.00108</v>
+        <v>49.99785</v>
       </c>
       <c r="BC4">
-        <v>30.00148</v>
+        <v>29.99908</v>
       </c>
       <c r="BD4">
-        <v>29.99555</v>
+        <v>29.99667</v>
       </c>
       <c r="BE4">
-        <v>49.99791</v>
+        <v>49.9987</v>
       </c>
       <c r="BF4">
-        <v>59.99998</v>
+        <v>60.00122</v>
       </c>
       <c r="BG4">
-        <v>99.99897</v>
+        <v>100.00164</v>
       </c>
       <c r="BH4">
-        <v>50.00138</v>
+        <v>50.00015</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1293,43 +1293,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>50.00124</v>
+        <v>49.99768</v>
       </c>
       <c r="C5">
-        <v>200.00013</v>
+        <v>200.0003</v>
       </c>
       <c r="D5">
-        <v>100.00633</v>
+        <v>100.00423</v>
       </c>
       <c r="E5">
-        <v>39.99866</v>
+        <v>40.00375</v>
       </c>
       <c r="F5">
-        <v>30.00064</v>
+        <v>30.00197</v>
       </c>
       <c r="G5">
-        <v>80.00141000000001</v>
+        <v>79.99889</v>
       </c>
       <c r="H5">
-        <v>40.00198</v>
+        <v>39.9962</v>
       </c>
       <c r="I5">
-        <v>30.00112</v>
+        <v>30.00589</v>
       </c>
       <c r="J5">
-        <v>80.00096000000001</v>
+        <v>79.99694</v>
       </c>
       <c r="K5">
-        <v>94.39476999999999</v>
+        <v>90.35669</v>
       </c>
       <c r="L5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="M5">
-        <v>200.00013</v>
+        <v>200.0003</v>
       </c>
       <c r="N5">
-        <v>16.43359</v>
+        <v>11.50542</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>60</v>
       </c>
       <c r="Q5">
-        <v>100.00633</v>
+        <v>100.00423</v>
       </c>
       <c r="R5">
-        <v>96.08271000000001</v>
+        <v>97.89736000000001</v>
       </c>
       <c r="S5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="T5">
-        <v>200.00013</v>
+        <v>200.0003</v>
       </c>
       <c r="U5">
-        <v>27.61446</v>
+        <v>1.21878</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1359,19 +1359,19 @@
         <v>60</v>
       </c>
       <c r="X5">
-        <v>140.0041</v>
+        <v>140.00688</v>
       </c>
       <c r="Y5">
-        <v>98.79249</v>
+        <v>97.0651</v>
       </c>
       <c r="Z5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="AA5">
-        <v>200.00013</v>
+        <v>200.0003</v>
       </c>
       <c r="AB5">
-        <v>0.22682</v>
+        <v>0.28595</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1380,19 +1380,19 @@
         <v>60</v>
       </c>
       <c r="AE5">
-        <v>180.00504</v>
+        <v>180.00679</v>
       </c>
       <c r="AF5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="AG5">
-        <v>230.00077</v>
+        <v>230.00227</v>
       </c>
       <c r="AH5">
-        <v>8.76563</v>
+        <v>14.22267</v>
       </c>
       <c r="AI5">
-        <v>503.49201</v>
+        <v>500.07983</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>60</v>
       </c>
       <c r="AL5">
-        <v>180.00504</v>
+        <v>180.00679</v>
       </c>
       <c r="AM5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="AN5">
-        <v>260.00189</v>
+        <v>260.00816</v>
       </c>
       <c r="AO5">
-        <v>6.52685</v>
+        <v>11.24776</v>
       </c>
       <c r="AP5">
-        <v>500.79076</v>
+        <v>510.44742</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1422,16 +1422,16 @@
         <v>60</v>
       </c>
       <c r="AS5">
-        <v>180.00504</v>
+        <v>180.00679</v>
       </c>
       <c r="AT5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="AU5">
-        <v>260.00189</v>
+        <v>260.00816</v>
       </c>
       <c r="AV5">
-        <v>5.89742</v>
+        <v>10.94907</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -1440,34 +1440,34 @@
         <v>60</v>
       </c>
       <c r="AY5">
-        <v>180.00504</v>
+        <v>180.00679</v>
       </c>
       <c r="AZ5">
-        <v>30.00147</v>
+        <v>30.00214</v>
       </c>
       <c r="BA5">
-        <v>30.00188</v>
+        <v>29.99925</v>
       </c>
       <c r="BB5">
-        <v>49.99777</v>
+        <v>50.00265</v>
       </c>
       <c r="BC5">
-        <v>30.00065</v>
+        <v>29.99873</v>
       </c>
       <c r="BD5">
-        <v>29.99938</v>
+        <v>29.99883</v>
       </c>
       <c r="BE5">
-        <v>50.00094</v>
+        <v>49.99991</v>
       </c>
       <c r="BF5">
-        <v>60.00174</v>
+        <v>60.00134</v>
       </c>
       <c r="BG5">
-        <v>100.00278</v>
+        <v>100.00611</v>
       </c>
       <c r="BH5">
-        <v>50.0015</v>
+        <v>50.00014</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1475,43 +1475,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>49.99617</v>
+        <v>50.00054</v>
       </c>
       <c r="C6">
-        <v>199.9987</v>
+        <v>199.9969</v>
       </c>
       <c r="D6">
-        <v>99.99815</v>
+        <v>100.00142</v>
       </c>
       <c r="E6">
-        <v>40.0007</v>
+        <v>40.00079</v>
       </c>
       <c r="F6">
-        <v>30.00373</v>
+        <v>29.99886</v>
       </c>
       <c r="G6">
-        <v>80.00252</v>
+        <v>80.00287</v>
       </c>
       <c r="H6">
-        <v>40.00159</v>
+        <v>40.00412</v>
       </c>
       <c r="I6">
-        <v>29.99859</v>
+        <v>29.99913</v>
       </c>
       <c r="J6">
-        <v>80.00329000000001</v>
+        <v>79.99679999999999</v>
       </c>
       <c r="K6">
-        <v>98.29526</v>
+        <v>97.85962000000001</v>
       </c>
       <c r="L6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="M6">
-        <v>199.9987</v>
+        <v>199.9969</v>
       </c>
       <c r="N6">
-        <v>1.34024</v>
+        <v>6.65262</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>60</v>
       </c>
       <c r="Q6">
-        <v>99.99815</v>
+        <v>100.00142</v>
       </c>
       <c r="R6">
-        <v>94.21826</v>
+        <v>92.76497000000001</v>
       </c>
       <c r="S6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="T6">
-        <v>199.9987</v>
+        <v>199.9969</v>
       </c>
       <c r="U6">
-        <v>13.35817</v>
+        <v>1.56245</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1541,115 +1541,115 @@
         <v>60</v>
       </c>
       <c r="X6">
-        <v>139.99523</v>
+        <v>140.00102</v>
       </c>
       <c r="Y6">
-        <v>99.43291000000001</v>
+        <v>91.73548</v>
       </c>
       <c r="Z6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="AA6">
-        <v>199.9987</v>
+        <v>199.9969</v>
       </c>
       <c r="AB6">
-        <v>0.2118</v>
+        <v>17.72334</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="s">
         <v>60</v>
       </c>
       <c r="AE6">
-        <v>179.98956</v>
+        <v>179.99862</v>
       </c>
       <c r="AF6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="AG6">
-        <v>230.00243</v>
+        <v>229.99576</v>
       </c>
       <c r="AH6">
-        <v>10.09955</v>
+        <v>8.246359999999999</v>
       </c>
       <c r="AI6">
-        <v>500.94348</v>
+        <v>509.31191</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="s">
         <v>60</v>
       </c>
       <c r="AL6">
-        <v>179.98956</v>
+        <v>179.99862</v>
       </c>
       <c r="AM6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="AN6">
-        <v>260.00102</v>
+        <v>259.99489</v>
       </c>
       <c r="AO6">
-        <v>8.638210000000001</v>
+        <v>34.44051</v>
       </c>
       <c r="AP6">
-        <v>510.29932</v>
+        <v>496.98701</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="s">
         <v>60</v>
       </c>
       <c r="AS6">
-        <v>179.98956</v>
+        <v>179.99862</v>
       </c>
       <c r="AT6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="AU6">
-        <v>260.00102</v>
+        <v>259.99489</v>
       </c>
       <c r="AV6">
-        <v>4.89976</v>
+        <v>4.21191</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="s">
         <v>60</v>
       </c>
       <c r="AY6">
-        <v>179.98956</v>
+        <v>179.99862</v>
       </c>
       <c r="AZ6">
-        <v>29.99745</v>
+        <v>29.99708</v>
       </c>
       <c r="BA6">
-        <v>29.9997</v>
+        <v>29.99913</v>
       </c>
       <c r="BB6">
-        <v>49.99708</v>
+        <v>49.9996</v>
       </c>
       <c r="BC6">
-        <v>30.00378</v>
+        <v>30.00189</v>
       </c>
       <c r="BD6">
-        <v>29.99943</v>
+        <v>29.99858</v>
       </c>
       <c r="BE6">
-        <v>49.99433</v>
+        <v>49.9976</v>
       </c>
       <c r="BF6">
-        <v>60.00073</v>
+        <v>59.999</v>
       </c>
       <c r="BG6">
-        <v>99.99827000000001</v>
+        <v>100.00197</v>
       </c>
       <c r="BH6">
-        <v>49.99996</v>
+        <v>50.00296</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -1657,43 +1657,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50.00057</v>
+        <v>50.00261</v>
       </c>
       <c r="C7">
-        <v>200.00116</v>
+        <v>200.00084</v>
       </c>
       <c r="D7">
-        <v>100.00121</v>
+        <v>99.99462</v>
       </c>
       <c r="E7">
-        <v>40.00056</v>
+        <v>39.99911</v>
       </c>
       <c r="F7">
-        <v>30.00185</v>
+        <v>30.00231</v>
       </c>
       <c r="G7">
-        <v>80.00144</v>
+        <v>79.99742999999999</v>
       </c>
       <c r="H7">
-        <v>40.003</v>
+        <v>40.00136</v>
       </c>
       <c r="I7">
-        <v>29.99697</v>
+        <v>30.00184</v>
       </c>
       <c r="J7">
-        <v>80.002</v>
+        <v>80.00288</v>
       </c>
       <c r="K7">
-        <v>96.15907</v>
+        <v>98.81608</v>
       </c>
       <c r="L7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="M7">
-        <v>200.00116</v>
+        <v>200.00084</v>
       </c>
       <c r="N7">
-        <v>13.60424</v>
+        <v>0.17371</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1702,19 +1702,19 @@
         <v>60</v>
       </c>
       <c r="Q7">
-        <v>100.00121</v>
+        <v>99.99462</v>
       </c>
       <c r="R7">
-        <v>92.91974999999999</v>
+        <v>91.56837</v>
       </c>
       <c r="S7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="T7">
-        <v>200.00116</v>
+        <v>200.00084</v>
       </c>
       <c r="U7">
-        <v>1.48721</v>
+        <v>9.89842</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1723,19 +1723,19 @@
         <v>60</v>
       </c>
       <c r="X7">
-        <v>139.99923</v>
+        <v>139.99335</v>
       </c>
       <c r="Y7">
-        <v>98.43464</v>
+        <v>97.15518</v>
       </c>
       <c r="Z7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="AA7">
-        <v>200.00116</v>
+        <v>200.00084</v>
       </c>
       <c r="AB7">
-        <v>14.35061</v>
+        <v>5.26725</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1744,19 +1744,19 @@
         <v>60</v>
       </c>
       <c r="AE7">
-        <v>179.99968</v>
+        <v>179.99051</v>
       </c>
       <c r="AF7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="AG7">
-        <v>230.00301</v>
+        <v>230.00315</v>
       </c>
       <c r="AH7">
-        <v>25.91722</v>
+        <v>15.81605</v>
       </c>
       <c r="AI7">
-        <v>500.83314</v>
+        <v>492.92039</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>60</v>
       </c>
       <c r="AL7">
-        <v>179.99968</v>
+        <v>179.99051</v>
       </c>
       <c r="AM7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="AN7">
-        <v>259.99998</v>
+        <v>260.00499</v>
       </c>
       <c r="AO7">
-        <v>3.32878</v>
+        <v>10.36138</v>
       </c>
       <c r="AP7">
-        <v>501.39865</v>
+        <v>502.11317</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1786,16 +1786,16 @@
         <v>60</v>
       </c>
       <c r="AS7">
-        <v>179.99968</v>
+        <v>179.99051</v>
       </c>
       <c r="AT7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="AU7">
-        <v>259.99998</v>
+        <v>260.00499</v>
       </c>
       <c r="AV7">
-        <v>0.34411</v>
+        <v>7.51864</v>
       </c>
       <c r="AW7">
         <v>0</v>
@@ -1804,34 +1804,34 @@
         <v>60</v>
       </c>
       <c r="AY7">
-        <v>179.99968</v>
+        <v>179.99051</v>
       </c>
       <c r="AZ7">
-        <v>29.99815</v>
+        <v>30.00175</v>
       </c>
       <c r="BA7">
-        <v>29.99886</v>
+        <v>29.99932</v>
       </c>
       <c r="BB7">
-        <v>49.99802</v>
+        <v>49.99873</v>
       </c>
       <c r="BC7">
-        <v>30.00414</v>
+        <v>29.99875</v>
       </c>
       <c r="BD7">
-        <v>29.99834</v>
+        <v>30.00249</v>
       </c>
       <c r="BE7">
-        <v>50.00045</v>
+        <v>49.99716</v>
       </c>
       <c r="BF7">
-        <v>60.00213</v>
+        <v>59.99671</v>
       </c>
       <c r="BG7">
-        <v>100.00094</v>
+        <v>100.00249</v>
       </c>
       <c r="BH7">
-        <v>49.99705</v>
+        <v>49.99844</v>
       </c>
     </row>
     <row r="8" spans="1:60">
@@ -1839,43 +1839,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>49.99965</v>
+        <v>50.00233</v>
       </c>
       <c r="C8">
-        <v>200.00131</v>
+        <v>199.99901</v>
       </c>
       <c r="D8">
-        <v>100.00181</v>
+        <v>100.00366</v>
       </c>
       <c r="E8">
-        <v>40.00203</v>
+        <v>40.00105</v>
       </c>
       <c r="F8">
-        <v>29.99858</v>
+        <v>29.99949</v>
       </c>
       <c r="G8">
-        <v>79.99420000000001</v>
+        <v>80.00006</v>
       </c>
       <c r="H8">
-        <v>40.00198</v>
+        <v>40.00009</v>
       </c>
       <c r="I8">
-        <v>29.99823</v>
+        <v>30.00198</v>
       </c>
       <c r="J8">
-        <v>79.9957</v>
+        <v>79.99634</v>
       </c>
       <c r="K8">
-        <v>89.04871</v>
+        <v>99.16963</v>
       </c>
       <c r="L8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="M8">
-        <v>200.00131</v>
+        <v>199.99901</v>
       </c>
       <c r="N8">
-        <v>5.50265</v>
+        <v>0.42932</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1884,19 +1884,19 @@
         <v>60</v>
       </c>
       <c r="Q8">
-        <v>100.00181</v>
+        <v>100.00366</v>
       </c>
       <c r="R8">
-        <v>96.48553</v>
+        <v>97.40293</v>
       </c>
       <c r="S8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="T8">
-        <v>200.00131</v>
+        <v>199.99901</v>
       </c>
       <c r="U8">
-        <v>7.21464</v>
+        <v>11.72279</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1905,19 +1905,19 @@
         <v>60</v>
       </c>
       <c r="X8">
-        <v>140.00418</v>
+        <v>140.00255</v>
       </c>
       <c r="Y8">
-        <v>97.77364</v>
+        <v>93.96191</v>
       </c>
       <c r="Z8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="AA8">
-        <v>200.00131</v>
+        <v>199.99901</v>
       </c>
       <c r="AB8">
-        <v>32.89366</v>
+        <v>0.24662</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>60</v>
       </c>
       <c r="AE8">
-        <v>180.00367</v>
+        <v>180.00506</v>
       </c>
       <c r="AF8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="AG8">
-        <v>229.99989</v>
+        <v>229.9985</v>
       </c>
       <c r="AH8">
-        <v>0.5607</v>
+        <v>1.52284</v>
       </c>
       <c r="AI8">
-        <v>493.26805</v>
+        <v>508.76388</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1947,19 +1947,19 @@
         <v>60</v>
       </c>
       <c r="AL8">
-        <v>180.00367</v>
+        <v>180.00506</v>
       </c>
       <c r="AM8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="AN8">
-        <v>259.99812</v>
+        <v>260.00048</v>
       </c>
       <c r="AO8">
-        <v>6.40703</v>
+        <v>8.219139999999999</v>
       </c>
       <c r="AP8">
-        <v>498.84351</v>
+        <v>493.46288</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>60</v>
       </c>
       <c r="AS8">
-        <v>180.00367</v>
+        <v>180.00506</v>
       </c>
       <c r="AT8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="AU8">
-        <v>259.99812</v>
+        <v>260.00048</v>
       </c>
       <c r="AV8">
-        <v>2.8145</v>
+        <v>6.11167</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -1986,34 +1986,34 @@
         <v>60</v>
       </c>
       <c r="AY8">
-        <v>180.00367</v>
+        <v>180.00506</v>
       </c>
       <c r="AZ8">
-        <v>29.99894</v>
+        <v>30.00073</v>
       </c>
       <c r="BA8">
-        <v>29.99923</v>
+        <v>29.9992</v>
       </c>
       <c r="BB8">
-        <v>50.00237</v>
+        <v>49.99889</v>
       </c>
       <c r="BC8">
-        <v>30.00303</v>
+        <v>29.99901</v>
       </c>
       <c r="BD8">
-        <v>29.99929</v>
+        <v>29.99774</v>
       </c>
       <c r="BE8">
-        <v>49.99949</v>
+        <v>50.00251</v>
       </c>
       <c r="BF8">
-        <v>60.00208</v>
+        <v>59.99939</v>
       </c>
       <c r="BG8">
-        <v>100.00109</v>
+        <v>99.99930000000001</v>
       </c>
       <c r="BH8">
-        <v>49.99758</v>
+        <v>49.9992</v>
       </c>
     </row>
     <row r="9" spans="1:60">
@@ -2021,43 +2021,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49.99772</v>
+        <v>50.00185</v>
       </c>
       <c r="C9">
-        <v>200.00054</v>
+        <v>200.00096</v>
       </c>
       <c r="D9">
-        <v>99.9984</v>
+        <v>100.00016</v>
       </c>
       <c r="E9">
-        <v>39.99936</v>
+        <v>40.00376</v>
       </c>
       <c r="F9">
-        <v>29.99611</v>
+        <v>29.99866</v>
       </c>
       <c r="G9">
-        <v>80.00073</v>
+        <v>80.00288999999999</v>
       </c>
       <c r="H9">
-        <v>39.99745</v>
+        <v>39.99837</v>
       </c>
       <c r="I9">
-        <v>30.00042</v>
+        <v>29.99669</v>
       </c>
       <c r="J9">
-        <v>80.00143</v>
+        <v>79.99836000000001</v>
       </c>
       <c r="K9">
-        <v>89.2222</v>
+        <v>89.22553000000001</v>
       </c>
       <c r="L9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="M9">
-        <v>200.00054</v>
+        <v>200.00096</v>
       </c>
       <c r="N9">
-        <v>15.41932</v>
+        <v>28.47501</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2066,136 +2066,136 @@
         <v>60</v>
       </c>
       <c r="Q9">
-        <v>99.9984</v>
+        <v>100.00016</v>
       </c>
       <c r="R9">
-        <v>97.39773</v>
+        <v>89.70744000000001</v>
       </c>
       <c r="S9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="T9">
-        <v>200.00054</v>
+        <v>200.00096</v>
       </c>
       <c r="U9">
-        <v>3.94812</v>
+        <v>2.92025</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="s">
         <v>60</v>
       </c>
       <c r="X9">
-        <v>139.99983</v>
+        <v>140.13362</v>
       </c>
       <c r="Y9">
-        <v>97.29732</v>
+        <v>98.18231</v>
       </c>
       <c r="Z9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="AA9">
-        <v>200.00054</v>
+        <v>200.00096</v>
       </c>
       <c r="AB9">
-        <v>12.84531</v>
+        <v>2.79006</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="s">
         <v>60</v>
       </c>
       <c r="AE9">
-        <v>180.00201</v>
+        <v>180.13523</v>
       </c>
       <c r="AF9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="AG9">
-        <v>229.99665</v>
+        <v>229.99962</v>
       </c>
       <c r="AH9">
-        <v>4.01897</v>
+        <v>0.49141</v>
       </c>
       <c r="AI9">
-        <v>509.82644</v>
+        <v>503.12236</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="s">
         <v>60</v>
       </c>
       <c r="AL9">
-        <v>180.00201</v>
+        <v>180.13523</v>
       </c>
       <c r="AM9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="AN9">
-        <v>259.99707</v>
+        <v>259.99631</v>
       </c>
       <c r="AO9">
-        <v>27.67558</v>
+        <v>0.25525</v>
       </c>
       <c r="AP9">
-        <v>495.97886</v>
+        <v>489.5469</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="s">
         <v>60</v>
       </c>
       <c r="AS9">
-        <v>180.00201</v>
+        <v>180.13523</v>
       </c>
       <c r="AT9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="AU9">
-        <v>259.99707</v>
+        <v>259.99631</v>
       </c>
       <c r="AV9">
-        <v>1.36116</v>
+        <v>4.50941</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="s">
         <v>60</v>
       </c>
       <c r="AY9">
-        <v>180.00201</v>
+        <v>180.13523</v>
       </c>
       <c r="AZ9">
-        <v>30.0028</v>
+        <v>29.99815</v>
       </c>
       <c r="BA9">
         <v>30.00011</v>
       </c>
       <c r="BB9">
-        <v>50.00143</v>
+        <v>50.00128</v>
       </c>
       <c r="BC9">
-        <v>29.9997</v>
+        <v>30.00158</v>
       </c>
       <c r="BD9">
-        <v>29.99892</v>
+        <v>30.00177</v>
       </c>
       <c r="BE9">
-        <v>50.00218</v>
+        <v>50.00161</v>
       </c>
       <c r="BF9">
-        <v>60.00187</v>
+        <v>59.99805</v>
       </c>
       <c r="BG9">
-        <v>100.0023</v>
+        <v>100.00298</v>
       </c>
       <c r="BH9">
-        <v>50.00443</v>
+        <v>50.00084</v>
       </c>
     </row>
     <row r="10" spans="1:60">
@@ -2203,43 +2203,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50.00141</v>
+        <v>50.00399</v>
       </c>
       <c r="C10">
-        <v>200.00031</v>
+        <v>200.00418</v>
       </c>
       <c r="D10">
-        <v>100.00314</v>
+        <v>99.99594</v>
       </c>
       <c r="E10">
-        <v>40.0003</v>
+        <v>40.00144</v>
       </c>
       <c r="F10">
-        <v>29.99697</v>
+        <v>30.00081</v>
       </c>
       <c r="G10">
-        <v>79.99512</v>
+        <v>80.00203</v>
       </c>
       <c r="H10">
-        <v>39.99786</v>
+        <v>39.99469</v>
       </c>
       <c r="I10">
-        <v>30.00371</v>
+        <v>30.00298</v>
       </c>
       <c r="J10">
-        <v>79.99988</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>97.61615999999999</v>
+        <v>96.0887</v>
       </c>
       <c r="L10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="M10">
-        <v>200.00031</v>
+        <v>200.00418</v>
       </c>
       <c r="N10">
-        <v>1.96908</v>
+        <v>23.55929</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>60</v>
       </c>
       <c r="Q10">
-        <v>100.00314</v>
+        <v>99.99594</v>
       </c>
       <c r="R10">
-        <v>91.18789</v>
+        <v>96.38481</v>
       </c>
       <c r="S10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="T10">
-        <v>200.00031</v>
+        <v>200.00418</v>
       </c>
       <c r="U10">
-        <v>3.70963</v>
+        <v>35.48622</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2269,19 +2269,19 @@
         <v>60</v>
       </c>
       <c r="X10">
-        <v>140.0056</v>
+        <v>139.9933</v>
       </c>
       <c r="Y10">
-        <v>99.85594</v>
+        <v>97.86942000000001</v>
       </c>
       <c r="Z10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="AA10">
-        <v>200.00031</v>
+        <v>200.00418</v>
       </c>
       <c r="AB10">
-        <v>10.52054</v>
+        <v>3.59125</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>60</v>
       </c>
       <c r="AE10">
-        <v>180.00619</v>
+        <v>179.99185</v>
       </c>
       <c r="AF10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="AG10">
-        <v>229.99728</v>
+        <v>230.00499</v>
       </c>
       <c r="AH10">
-        <v>21.59819</v>
+        <v>13.46217</v>
       </c>
       <c r="AI10">
-        <v>507.31338</v>
+        <v>492.03733</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2311,19 +2311,19 @@
         <v>60</v>
       </c>
       <c r="AL10">
-        <v>180.00619</v>
+        <v>179.99185</v>
       </c>
       <c r="AM10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="AN10">
-        <v>260.00099</v>
+        <v>260.00797</v>
       </c>
       <c r="AO10">
-        <v>6.63308</v>
+        <v>0.90933</v>
       </c>
       <c r="AP10">
-        <v>493.71757</v>
+        <v>494.34643</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>60</v>
       </c>
       <c r="AS10">
-        <v>180.00619</v>
+        <v>179.99185</v>
       </c>
       <c r="AT10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="AU10">
-        <v>260.00099</v>
+        <v>260.00797</v>
       </c>
       <c r="AV10">
-        <v>3.71846</v>
+        <v>23.83158</v>
       </c>
       <c r="AW10">
         <v>0</v>
@@ -2350,34 +2350,34 @@
         <v>60</v>
       </c>
       <c r="AY10">
-        <v>180.00619</v>
+        <v>179.99185</v>
       </c>
       <c r="AZ10">
-        <v>29.99675</v>
+        <v>29.99933</v>
       </c>
       <c r="BA10">
-        <v>30.00169</v>
+        <v>30.00179</v>
       </c>
       <c r="BB10">
-        <v>50.00246</v>
+        <v>49.99736</v>
       </c>
       <c r="BC10">
-        <v>29.99856</v>
+        <v>30.00121</v>
       </c>
       <c r="BD10">
-        <v>29.99801</v>
+        <v>29.9979</v>
       </c>
       <c r="BE10">
-        <v>50.00059</v>
+        <v>49.99855</v>
       </c>
       <c r="BF10">
-        <v>59.99682</v>
+        <v>59.99826</v>
       </c>
       <c r="BG10">
-        <v>99.99954</v>
+        <v>99.99850000000001</v>
       </c>
       <c r="BH10">
-        <v>49.99699</v>
+        <v>49.9986</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -2385,43 +2385,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>49.99726</v>
+        <v>50.00034</v>
       </c>
       <c r="C11">
-        <v>199.9985</v>
+        <v>200.00066</v>
       </c>
       <c r="D11">
-        <v>99.99881999999999</v>
+        <v>100.0016</v>
       </c>
       <c r="E11">
-        <v>39.99824</v>
+        <v>40.00076</v>
       </c>
       <c r="F11">
-        <v>30.00457</v>
+        <v>30.00703</v>
       </c>
       <c r="G11">
-        <v>79.99843</v>
+        <v>80.00004</v>
       </c>
       <c r="H11">
-        <v>39.9953</v>
+        <v>39.9959</v>
       </c>
       <c r="I11">
-        <v>30.00188</v>
+        <v>30.00333</v>
       </c>
       <c r="J11">
-        <v>79.99973</v>
+        <v>80.00257000000001</v>
       </c>
       <c r="K11">
-        <v>98.76799</v>
+        <v>95.26593</v>
       </c>
       <c r="L11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="M11">
-        <v>199.9985</v>
+        <v>200.00066</v>
       </c>
       <c r="N11">
-        <v>36.10971</v>
+        <v>21.25384</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2430,19 +2430,19 @@
         <v>60</v>
       </c>
       <c r="Q11">
-        <v>99.99881999999999</v>
+        <v>100.0016</v>
       </c>
       <c r="R11">
-        <v>93.69582</v>
+        <v>98.74104</v>
       </c>
       <c r="S11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="T11">
-        <v>199.9985</v>
+        <v>200.00066</v>
       </c>
       <c r="U11">
-        <v>4.52282</v>
+        <v>0.16775</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>60</v>
       </c>
       <c r="X11">
-        <v>140.0027</v>
+        <v>140.00336</v>
       </c>
       <c r="Y11">
-        <v>95.37238000000001</v>
+        <v>98.11159000000001</v>
       </c>
       <c r="Z11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="AA11">
-        <v>199.9985</v>
+        <v>200.00066</v>
       </c>
       <c r="AB11">
-        <v>7.06797</v>
+        <v>27.88098</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -2472,19 +2472,19 @@
         <v>60</v>
       </c>
       <c r="AE11">
-        <v>180.0026</v>
+        <v>180.00505</v>
       </c>
       <c r="AF11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="AG11">
-        <v>230.00307</v>
+        <v>230.00769</v>
       </c>
       <c r="AH11">
-        <v>21.70508</v>
+        <v>2.23155</v>
       </c>
       <c r="AI11">
-        <v>500.83042</v>
+        <v>510.37974</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2493,73 +2493,73 @@
         <v>60</v>
       </c>
       <c r="AL11">
-        <v>180.0026</v>
+        <v>180.00505</v>
       </c>
       <c r="AM11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="AN11">
-        <v>260.00495</v>
+        <v>260.01102</v>
       </c>
       <c r="AO11">
-        <v>41.7132</v>
+        <v>2.32507</v>
       </c>
       <c r="AP11">
-        <v>501.37397</v>
+        <v>492.11778</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="s">
         <v>60</v>
       </c>
       <c r="AS11">
-        <v>180.0026</v>
+        <v>180.00505</v>
       </c>
       <c r="AT11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="AU11">
-        <v>260.00495</v>
+        <v>260.01102</v>
       </c>
       <c r="AV11">
-        <v>9.429970000000001</v>
+        <v>3.01669</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="s">
         <v>60</v>
       </c>
       <c r="AY11">
-        <v>180.0026</v>
+        <v>180.00505</v>
       </c>
       <c r="AZ11">
-        <v>29.99772</v>
+        <v>29.9985</v>
       </c>
       <c r="BA11">
-        <v>29.99779</v>
+        <v>30.00293</v>
       </c>
       <c r="BB11">
-        <v>50.00388</v>
+        <v>50.00176</v>
       </c>
       <c r="BC11">
-        <v>30.0025</v>
+        <v>30.00256</v>
       </c>
       <c r="BD11">
-        <v>30.00379</v>
+        <v>30.00295</v>
       </c>
       <c r="BE11">
-        <v>49.9999</v>
+        <v>50.00169</v>
       </c>
       <c r="BF11">
-        <v>60.00303</v>
+        <v>59.99831</v>
       </c>
       <c r="BG11">
-        <v>99.99952</v>
+        <v>100.00204</v>
       </c>
       <c r="BH11">
-        <v>50.0026</v>
+        <v>49.99717</v>
       </c>
     </row>
   </sheetData>

--- a/item_data.xlsx
+++ b/item_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
   <si>
     <t>body_h</t>
   </si>
@@ -193,10 +193,40 @@
     <t>wavyfin_w</t>
   </si>
   <si>
-    <t>production_key</t>
-  </si>
-  <si>
-    <t>2020-10-09 14:34:15</t>
+    <t>product_key</t>
+  </si>
+  <si>
+    <t>W1P0</t>
+  </si>
+  <si>
+    <t>W1P1</t>
+  </si>
+  <si>
+    <t>W1P2</t>
+  </si>
+  <si>
+    <t>W1P3</t>
+  </si>
+  <si>
+    <t>W1P4</t>
+  </si>
+  <si>
+    <t>W1P5</t>
+  </si>
+  <si>
+    <t>W1P6</t>
+  </si>
+  <si>
+    <t>W1P7</t>
+  </si>
+  <si>
+    <t>W1P8</t>
+  </si>
+  <si>
+    <t>W1P9</t>
+  </si>
+  <si>
+    <t>2020-10-11 00:18:25</t>
   </si>
 </sst>
 </file>
@@ -743,1823 +773,1823 @@
       </c>
     </row>
     <row r="2" spans="1:60">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>50.00315</v>
+        <v>50.00236</v>
       </c>
       <c r="C2">
-        <v>200.00058</v>
+        <v>199.99456</v>
       </c>
       <c r="D2">
-        <v>99.99968</v>
+        <v>99.99852</v>
       </c>
       <c r="E2">
-        <v>39.99818</v>
+        <v>39.99977</v>
       </c>
       <c r="F2">
-        <v>30.00279</v>
+        <v>30.00228</v>
       </c>
       <c r="G2">
-        <v>80.00161</v>
+        <v>79.99985</v>
       </c>
       <c r="H2">
-        <v>40.00596</v>
+        <v>39.99983</v>
       </c>
       <c r="I2">
-        <v>29.99837</v>
+        <v>30.00267</v>
       </c>
       <c r="J2">
-        <v>79.99812</v>
+        <v>80.00093</v>
       </c>
       <c r="K2">
-        <v>93.52817</v>
+        <v>95.74396</v>
       </c>
       <c r="L2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="M2">
-        <v>200.00058</v>
+        <v>199.99456</v>
       </c>
       <c r="N2">
-        <v>6.45709</v>
+        <v>4.0675</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q2">
-        <v>99.99968</v>
+        <v>99.99852</v>
       </c>
       <c r="R2">
-        <v>99.07993</v>
+        <v>92.95603</v>
       </c>
       <c r="S2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="T2">
-        <v>200.00058</v>
+        <v>199.99456</v>
       </c>
       <c r="U2">
-        <v>2.88002</v>
+        <v>3.42478</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X2">
-        <v>140.00184</v>
+        <v>139.99636</v>
       </c>
       <c r="Y2">
-        <v>92.31641999999999</v>
+        <v>95.48197</v>
       </c>
       <c r="Z2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="AA2">
-        <v>200.00058</v>
+        <v>199.99456</v>
       </c>
       <c r="AB2">
-        <v>0.09451</v>
+        <v>3.30086</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE2">
-        <v>180.00377</v>
+        <v>179.99893</v>
       </c>
       <c r="AF2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="AG2">
-        <v>230.00337</v>
+        <v>229.99684</v>
       </c>
       <c r="AH2">
-        <v>2.28922</v>
+        <v>27.75363</v>
       </c>
       <c r="AI2">
-        <v>493.24884</v>
+        <v>498.01416</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL2">
-        <v>180.00377</v>
+        <v>179.99893</v>
       </c>
       <c r="AM2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="AN2">
-        <v>260.00174</v>
+        <v>259.99951</v>
       </c>
       <c r="AO2">
-        <v>10.95142</v>
+        <v>10.78386</v>
       </c>
       <c r="AP2">
-        <v>497.69012</v>
+        <v>498.25429</v>
       </c>
       <c r="AQ2">
         <v>0</v>
       </c>
       <c r="AR2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS2">
-        <v>180.00377</v>
+        <v>179.99893</v>
       </c>
       <c r="AT2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="AU2">
-        <v>260.00174</v>
+        <v>259.99951</v>
       </c>
       <c r="AV2">
-        <v>2.1944</v>
+        <v>32.39681</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY2">
-        <v>180.00377</v>
+        <v>179.99893</v>
       </c>
       <c r="AZ2">
-        <v>29.99884</v>
+        <v>30.00077</v>
       </c>
       <c r="BA2">
-        <v>30.00111</v>
+        <v>30.00003</v>
       </c>
       <c r="BB2">
-        <v>50.00216</v>
+        <v>49.99784</v>
       </c>
       <c r="BC2">
-        <v>29.99929</v>
+        <v>30.00038</v>
       </c>
       <c r="BD2">
-        <v>29.99904</v>
+        <v>29.99664</v>
       </c>
       <c r="BE2">
-        <v>50.00193</v>
+        <v>50.00257</v>
       </c>
       <c r="BF2">
-        <v>59.99658</v>
+        <v>59.99722</v>
       </c>
       <c r="BG2">
-        <v>99.99903</v>
+        <v>100.00328</v>
       </c>
       <c r="BH2">
-        <v>49.99301</v>
+        <v>49.99961</v>
       </c>
     </row>
     <row r="3" spans="1:60">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3">
+        <v>49.99672</v>
+      </c>
+      <c r="C3">
+        <v>200.00089</v>
+      </c>
+      <c r="D3">
+        <v>100.00051</v>
+      </c>
+      <c r="E3">
+        <v>40.00039</v>
+      </c>
+      <c r="F3">
+        <v>29.99567</v>
+      </c>
+      <c r="G3">
+        <v>79.99856</v>
+      </c>
+      <c r="H3">
+        <v>39.99742</v>
+      </c>
+      <c r="I3">
+        <v>29.99869</v>
+      </c>
+      <c r="J3">
+        <v>79.9984</v>
+      </c>
+      <c r="K3">
+        <v>91.32178</v>
+      </c>
+      <c r="L3">
+        <v>60.00479</v>
+      </c>
+      <c r="M3">
+        <v>200.00089</v>
+      </c>
+      <c r="N3">
+        <v>11.3272</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3">
+        <v>100.00051</v>
+      </c>
+      <c r="R3">
+        <v>99.87726000000001</v>
+      </c>
+      <c r="S3">
+        <v>60.00479</v>
+      </c>
+      <c r="T3">
+        <v>200.00089</v>
+      </c>
+      <c r="U3">
+        <v>2.78904</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3">
+        <v>140.00166</v>
+      </c>
+      <c r="Y3">
+        <v>89.35857</v>
+      </c>
+      <c r="Z3">
+        <v>60.00479</v>
+      </c>
+      <c r="AA3">
+        <v>200.00089</v>
+      </c>
+      <c r="AB3">
+        <v>4.96453</v>
+      </c>
+      <c r="AC3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>50.00634</v>
-      </c>
-      <c r="C3">
-        <v>199.99808</v>
-      </c>
-      <c r="D3">
-        <v>99.99928</v>
-      </c>
-      <c r="E3">
-        <v>39.99893</v>
-      </c>
-      <c r="F3">
-        <v>29.99608</v>
-      </c>
-      <c r="G3">
-        <v>79.99836999999999</v>
-      </c>
-      <c r="H3">
-        <v>40.00742</v>
-      </c>
-      <c r="I3">
-        <v>30.00204</v>
-      </c>
-      <c r="J3">
-        <v>79.99862</v>
-      </c>
-      <c r="K3">
-        <v>92.98626</v>
-      </c>
-      <c r="L3">
-        <v>60.00054</v>
-      </c>
-      <c r="M3">
-        <v>199.99808</v>
-      </c>
-      <c r="N3">
-        <v>3.09968</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3">
-        <v>99.99928</v>
-      </c>
-      <c r="R3">
-        <v>91.65284</v>
-      </c>
-      <c r="S3">
-        <v>60.00054</v>
-      </c>
-      <c r="T3">
-        <v>199.99808</v>
-      </c>
-      <c r="U3">
-        <v>1.61328</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3">
-        <v>139.99936</v>
-      </c>
-      <c r="Y3">
-        <v>91.11922</v>
-      </c>
-      <c r="Z3">
-        <v>60.00054</v>
-      </c>
-      <c r="AA3">
-        <v>199.99808</v>
-      </c>
-      <c r="AB3">
-        <v>10.17931</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE3">
-        <v>179.99921</v>
+        <v>180.17398</v>
       </c>
       <c r="AF3">
-        <v>60.00054</v>
+        <v>60.00479</v>
       </c>
       <c r="AG3">
-        <v>229.99416</v>
+        <v>229.99656</v>
       </c>
       <c r="AH3">
-        <v>7.49484</v>
+        <v>3.92108</v>
       </c>
       <c r="AI3">
-        <v>503.49102</v>
+        <v>510.92829</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL3">
-        <v>179.99921</v>
+        <v>180.17398</v>
       </c>
       <c r="AM3">
-        <v>60.00054</v>
+        <v>60.00479</v>
       </c>
       <c r="AN3">
-        <v>259.9962</v>
+        <v>259.99525</v>
       </c>
       <c r="AO3">
-        <v>0.9567</v>
+        <v>13.51552</v>
       </c>
       <c r="AP3">
-        <v>507.86905</v>
+        <v>503.5349</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS3">
-        <v>179.99921</v>
+        <v>180.17398</v>
       </c>
       <c r="AT3">
-        <v>60.00054</v>
+        <v>60.00479</v>
       </c>
       <c r="AU3">
-        <v>259.9962</v>
+        <v>259.99525</v>
       </c>
       <c r="AV3">
-        <v>1.12687</v>
+        <v>7.27688</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY3">
-        <v>179.99921</v>
+        <v>180.17398</v>
       </c>
       <c r="AZ3">
-        <v>29.99916</v>
+        <v>29.9996</v>
       </c>
       <c r="BA3">
-        <v>30.00459</v>
+        <v>30.00303</v>
       </c>
       <c r="BB3">
-        <v>50.00008</v>
+        <v>50.00115</v>
       </c>
       <c r="BC3">
-        <v>30.00026</v>
+        <v>30.00442</v>
       </c>
       <c r="BD3">
-        <v>30.002</v>
+        <v>29.99685</v>
       </c>
       <c r="BE3">
-        <v>49.99985</v>
+        <v>50.00176</v>
       </c>
       <c r="BF3">
-        <v>60.00054</v>
+        <v>60.00479</v>
       </c>
       <c r="BG3">
-        <v>100.00107</v>
+        <v>100.00015</v>
       </c>
       <c r="BH3">
-        <v>49.99761</v>
+        <v>50.00151</v>
       </c>
     </row>
     <row r="4" spans="1:60">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B4">
-        <v>49.99904</v>
+        <v>49.99939</v>
       </c>
       <c r="C4">
-        <v>199.99716</v>
+        <v>200.00015</v>
       </c>
       <c r="D4">
-        <v>100.00085</v>
+        <v>100.00023</v>
       </c>
       <c r="E4">
-        <v>40.00077</v>
+        <v>40.00294</v>
       </c>
       <c r="F4">
-        <v>30.00131</v>
+        <v>30.00349</v>
       </c>
       <c r="G4">
-        <v>80.00156</v>
+        <v>79.99683</v>
       </c>
       <c r="H4">
-        <v>40.00133</v>
+        <v>40.00239</v>
       </c>
       <c r="I4">
-        <v>30.00022</v>
+        <v>30.00265</v>
       </c>
       <c r="J4">
-        <v>80.00432000000001</v>
+        <v>80.00364999999999</v>
       </c>
       <c r="K4">
-        <v>93.65054000000001</v>
+        <v>93.38762</v>
       </c>
       <c r="L4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="M4">
-        <v>199.99716</v>
+        <v>200.00015</v>
       </c>
       <c r="N4">
-        <v>1.27196</v>
+        <v>14.58176</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q4">
-        <v>100.00085</v>
+        <v>100.00023</v>
       </c>
       <c r="R4">
-        <v>93.95538000000001</v>
+        <v>91.10082</v>
       </c>
       <c r="S4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="T4">
-        <v>199.99716</v>
+        <v>200.00015</v>
       </c>
       <c r="U4">
-        <v>0.63854</v>
+        <v>4.31922</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X4">
-        <v>139.9987</v>
+        <v>140.00241</v>
       </c>
       <c r="Y4">
-        <v>91.07894</v>
+        <v>89.09958</v>
       </c>
       <c r="Z4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="AA4">
-        <v>199.99716</v>
+        <v>200.00015</v>
       </c>
       <c r="AB4">
-        <v>17.52787</v>
+        <v>10.38591</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE4">
-        <v>179.9974</v>
+        <v>180.20128</v>
       </c>
       <c r="AF4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="AG4">
-        <v>229.99847</v>
+        <v>230.00364</v>
       </c>
       <c r="AH4">
-        <v>0.66062</v>
+        <v>28.04565</v>
       </c>
       <c r="AI4">
-        <v>498.18765</v>
+        <v>494.2963</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL4">
-        <v>179.9974</v>
+        <v>180.20128</v>
       </c>
       <c r="AM4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="AN4">
-        <v>259.99869</v>
+        <v>260.00629</v>
       </c>
       <c r="AO4">
-        <v>0.6245000000000001</v>
+        <v>10.26998</v>
       </c>
       <c r="AP4">
-        <v>489.32831</v>
+        <v>494.11581</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS4">
-        <v>179.9974</v>
+        <v>180.20128</v>
       </c>
       <c r="AT4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="AU4">
-        <v>259.99869</v>
+        <v>260.00629</v>
       </c>
       <c r="AV4">
-        <v>7.6975</v>
+        <v>8.528969999999999</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY4">
-        <v>179.9974</v>
+        <v>180.20128</v>
       </c>
       <c r="AZ4">
-        <v>30.00308</v>
+        <v>30.00544</v>
       </c>
       <c r="BA4">
-        <v>30.00839</v>
+        <v>30.00101</v>
       </c>
       <c r="BB4">
-        <v>49.99785</v>
+        <v>50.00218</v>
       </c>
       <c r="BC4">
-        <v>29.99908</v>
+        <v>29.99857</v>
       </c>
       <c r="BD4">
-        <v>29.99667</v>
+        <v>29.99941</v>
       </c>
       <c r="BE4">
-        <v>49.9987</v>
+        <v>49.99982</v>
       </c>
       <c r="BF4">
-        <v>60.00122</v>
+        <v>59.99728</v>
       </c>
       <c r="BG4">
-        <v>100.00164</v>
+        <v>100.00269</v>
       </c>
       <c r="BH4">
-        <v>50.00015</v>
+        <v>49.99792</v>
       </c>
     </row>
     <row r="5" spans="1:60">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>49.99768</v>
+        <v>49.99902</v>
       </c>
       <c r="C5">
-        <v>200.0003</v>
+        <v>200.00136</v>
       </c>
       <c r="D5">
-        <v>100.00423</v>
+        <v>100.00014</v>
       </c>
       <c r="E5">
-        <v>40.00375</v>
+        <v>40.00285</v>
       </c>
       <c r="F5">
-        <v>30.00197</v>
+        <v>30.00211</v>
       </c>
       <c r="G5">
-        <v>79.99889</v>
+        <v>80.00100999999999</v>
       </c>
       <c r="H5">
-        <v>39.9962</v>
+        <v>40.00085</v>
       </c>
       <c r="I5">
-        <v>30.00589</v>
+        <v>29.9956</v>
       </c>
       <c r="J5">
-        <v>79.99694</v>
+        <v>79.99619</v>
       </c>
       <c r="K5">
-        <v>90.35669</v>
+        <v>89.3578</v>
       </c>
       <c r="L5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="M5">
-        <v>200.0003</v>
+        <v>200.00136</v>
       </c>
       <c r="N5">
-        <v>11.50542</v>
+        <v>11.59879</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q5">
-        <v>100.00423</v>
+        <v>100.00014</v>
       </c>
       <c r="R5">
-        <v>97.89736000000001</v>
+        <v>93.73533</v>
       </c>
       <c r="S5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="T5">
-        <v>200.0003</v>
+        <v>200.00136</v>
       </c>
       <c r="U5">
-        <v>1.21878</v>
+        <v>14.89502</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X5">
-        <v>140.00688</v>
+        <v>139.99668</v>
       </c>
       <c r="Y5">
-        <v>97.0651</v>
+        <v>94.63197</v>
       </c>
       <c r="Z5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="AA5">
-        <v>200.0003</v>
+        <v>200.00136</v>
       </c>
       <c r="AB5">
-        <v>0.28595</v>
+        <v>1.4415</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE5">
-        <v>180.00679</v>
+        <v>179.9997</v>
       </c>
       <c r="AF5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="AG5">
-        <v>230.00227</v>
+        <v>230.00347</v>
       </c>
       <c r="AH5">
-        <v>14.22267</v>
+        <v>3.20509</v>
       </c>
       <c r="AI5">
-        <v>500.07983</v>
+        <v>505.95704</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL5">
-        <v>180.00679</v>
+        <v>179.9997</v>
       </c>
       <c r="AM5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="AN5">
-        <v>260.00816</v>
+        <v>259.99907</v>
       </c>
       <c r="AO5">
-        <v>11.24776</v>
+        <v>4.03661</v>
       </c>
       <c r="AP5">
-        <v>510.44742</v>
+        <v>508.52047</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS5">
-        <v>180.00679</v>
+        <v>179.9997</v>
       </c>
       <c r="AT5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="AU5">
-        <v>260.00816</v>
+        <v>259.99907</v>
       </c>
       <c r="AV5">
-        <v>10.94907</v>
+        <v>7.60048</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY5">
-        <v>180.00679</v>
+        <v>179.9997</v>
       </c>
       <c r="AZ5">
-        <v>30.00214</v>
+        <v>30.00196</v>
       </c>
       <c r="BA5">
-        <v>29.99925</v>
+        <v>30.00123</v>
       </c>
       <c r="BB5">
-        <v>50.00265</v>
+        <v>49.99654</v>
       </c>
       <c r="BC5">
-        <v>29.99873</v>
+        <v>30.00065</v>
       </c>
       <c r="BD5">
-        <v>29.99883</v>
+        <v>30.00047</v>
       </c>
       <c r="BE5">
-        <v>49.99991</v>
+        <v>50.00302</v>
       </c>
       <c r="BF5">
-        <v>60.00134</v>
+        <v>60.00006</v>
       </c>
       <c r="BG5">
-        <v>100.00611</v>
+        <v>100.00254</v>
       </c>
       <c r="BH5">
-        <v>50.00014</v>
+        <v>49.99913</v>
       </c>
     </row>
     <row r="6" spans="1:60">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B6">
-        <v>50.00054</v>
+        <v>49.99507</v>
       </c>
       <c r="C6">
-        <v>199.9969</v>
+        <v>200.00178</v>
       </c>
       <c r="D6">
-        <v>100.00142</v>
+        <v>100.00042</v>
       </c>
       <c r="E6">
-        <v>40.00079</v>
+        <v>40.00219</v>
       </c>
       <c r="F6">
-        <v>29.99886</v>
+        <v>30.00174</v>
       </c>
       <c r="G6">
-        <v>80.00287</v>
+        <v>79.99696</v>
       </c>
       <c r="H6">
-        <v>40.00412</v>
+        <v>40.00174</v>
       </c>
       <c r="I6">
-        <v>29.99913</v>
+        <v>30.00438</v>
       </c>
       <c r="J6">
-        <v>79.99679999999999</v>
+        <v>79.99956</v>
       </c>
       <c r="K6">
-        <v>97.85962000000001</v>
+        <v>94.50131</v>
       </c>
       <c r="L6">
-        <v>59.999</v>
+        <v>60.0026</v>
       </c>
       <c r="M6">
-        <v>199.9969</v>
+        <v>200.00178</v>
       </c>
       <c r="N6">
-        <v>6.65262</v>
+        <v>18.25235</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q6">
-        <v>100.00142</v>
+        <v>100.00042</v>
       </c>
       <c r="R6">
-        <v>92.76497000000001</v>
+        <v>92.75355999999999</v>
       </c>
       <c r="S6">
-        <v>59.999</v>
+        <v>60.0026</v>
       </c>
       <c r="T6">
-        <v>199.9969</v>
+        <v>200.00178</v>
       </c>
       <c r="U6">
-        <v>1.56245</v>
+        <v>12.9035</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X6">
-        <v>140.00102</v>
+        <v>140.00131</v>
       </c>
       <c r="Y6">
-        <v>91.73548</v>
+        <v>89.54288</v>
       </c>
       <c r="Z6">
-        <v>59.999</v>
+        <v>60.0026</v>
       </c>
       <c r="AA6">
-        <v>199.9969</v>
+        <v>200.00178</v>
       </c>
       <c r="AB6">
-        <v>17.72334</v>
+        <v>12.63326</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE6">
-        <v>179.99862</v>
+        <v>180.15054</v>
       </c>
       <c r="AF6">
-        <v>59.999</v>
+        <v>60.0026</v>
       </c>
       <c r="AG6">
-        <v>229.99576</v>
+        <v>230.00352</v>
       </c>
       <c r="AH6">
-        <v>8.246359999999999</v>
+        <v>14.87366</v>
       </c>
       <c r="AI6">
-        <v>509.31191</v>
+        <v>506.31883</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL6">
-        <v>179.99862</v>
+        <v>180.15054</v>
       </c>
       <c r="AM6">
-        <v>59.999</v>
+        <v>60.0026</v>
       </c>
       <c r="AN6">
-        <v>259.99489</v>
+        <v>260.0079</v>
       </c>
       <c r="AO6">
-        <v>34.44051</v>
+        <v>27.32346</v>
       </c>
       <c r="AP6">
-        <v>496.98701</v>
+        <v>493.45944</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS6">
-        <v>179.99862</v>
+        <v>180.15054</v>
       </c>
       <c r="AT6">
-        <v>59.999</v>
+        <v>60.0026</v>
       </c>
       <c r="AU6">
-        <v>259.99489</v>
+        <v>260.0079</v>
       </c>
       <c r="AV6">
-        <v>4.21191</v>
+        <v>2.56473</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY6">
-        <v>179.99862</v>
+        <v>180.15054</v>
       </c>
       <c r="AZ6">
-        <v>29.99708</v>
+        <v>30.00072</v>
       </c>
       <c r="BA6">
-        <v>29.99913</v>
+        <v>30.0015</v>
       </c>
       <c r="BB6">
+        <v>50.00089</v>
+      </c>
+      <c r="BC6">
+        <v>29.99776</v>
+      </c>
+      <c r="BD6">
+        <v>29.99912</v>
+      </c>
+      <c r="BE6">
+        <v>49.99895</v>
+      </c>
+      <c r="BF6">
+        <v>60.0026</v>
+      </c>
+      <c r="BG6">
+        <v>100.00077</v>
+      </c>
+      <c r="BH6">
         <v>49.9996</v>
-      </c>
-      <c r="BC6">
-        <v>30.00189</v>
-      </c>
-      <c r="BD6">
-        <v>29.99858</v>
-      </c>
-      <c r="BE6">
-        <v>49.9976</v>
-      </c>
-      <c r="BF6">
-        <v>59.999</v>
-      </c>
-      <c r="BG6">
-        <v>100.00197</v>
-      </c>
-      <c r="BH6">
-        <v>50.00296</v>
       </c>
     </row>
     <row r="7" spans="1:60">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>50.00261</v>
+        <v>49.9976</v>
       </c>
       <c r="C7">
-        <v>200.00084</v>
+        <v>200.00361</v>
       </c>
       <c r="D7">
-        <v>99.99462</v>
+        <v>99.99921999999999</v>
       </c>
       <c r="E7">
-        <v>39.99911</v>
+        <v>39.9945</v>
       </c>
       <c r="F7">
-        <v>30.00231</v>
+        <v>29.99775</v>
       </c>
       <c r="G7">
-        <v>79.99742999999999</v>
+        <v>80.00098</v>
       </c>
       <c r="H7">
-        <v>40.00136</v>
+        <v>39.99593</v>
       </c>
       <c r="I7">
-        <v>30.00184</v>
+        <v>30.00043</v>
       </c>
       <c r="J7">
-        <v>80.00288</v>
+        <v>80.00207</v>
       </c>
       <c r="K7">
-        <v>98.81608</v>
+        <v>98.19861</v>
       </c>
       <c r="L7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="M7">
-        <v>200.00084</v>
+        <v>200.00361</v>
       </c>
       <c r="N7">
-        <v>0.17371</v>
+        <v>13.95209</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q7">
-        <v>99.99462</v>
+        <v>99.99921999999999</v>
       </c>
       <c r="R7">
-        <v>91.56837</v>
+        <v>97.53819</v>
       </c>
       <c r="S7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="T7">
-        <v>200.00084</v>
+        <v>200.00361</v>
       </c>
       <c r="U7">
-        <v>9.89842</v>
+        <v>40.49249</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X7">
-        <v>139.99335</v>
+        <v>139.99845</v>
       </c>
       <c r="Y7">
-        <v>97.15518</v>
+        <v>90.64716</v>
       </c>
       <c r="Z7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="AA7">
-        <v>200.00084</v>
+        <v>200.00361</v>
       </c>
       <c r="AB7">
-        <v>5.26725</v>
+        <v>7.98402</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE7">
-        <v>179.99051</v>
+        <v>180.0012</v>
       </c>
       <c r="AF7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="AG7">
-        <v>230.00315</v>
+        <v>230.00136</v>
       </c>
       <c r="AH7">
-        <v>15.81605</v>
+        <v>1.03785</v>
       </c>
       <c r="AI7">
-        <v>492.92039</v>
+        <v>500.78995</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL7">
-        <v>179.99051</v>
+        <v>180.0012</v>
       </c>
       <c r="AM7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="AN7">
-        <v>260.00499</v>
+        <v>260.00179</v>
       </c>
       <c r="AO7">
-        <v>10.36138</v>
+        <v>0.94999</v>
       </c>
       <c r="AP7">
-        <v>502.11317</v>
+        <v>492.32132</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS7">
-        <v>179.99051</v>
+        <v>180.0012</v>
       </c>
       <c r="AT7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="AU7">
-        <v>260.00499</v>
+        <v>260.00179</v>
       </c>
       <c r="AV7">
-        <v>7.51864</v>
+        <v>2.37294</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY7">
-        <v>179.99051</v>
+        <v>180.0012</v>
       </c>
       <c r="AZ7">
-        <v>30.00175</v>
+        <v>30.00229</v>
       </c>
       <c r="BA7">
-        <v>29.99932</v>
+        <v>29.99873</v>
       </c>
       <c r="BB7">
-        <v>49.99873</v>
+        <v>49.99923</v>
       </c>
       <c r="BC7">
-        <v>29.99875</v>
+        <v>29.99792</v>
       </c>
       <c r="BD7">
-        <v>30.00249</v>
+        <v>29.99756</v>
       </c>
       <c r="BE7">
-        <v>49.99716</v>
+        <v>50.00275</v>
       </c>
       <c r="BF7">
-        <v>59.99671</v>
+        <v>60.00177</v>
       </c>
       <c r="BG7">
-        <v>100.00249</v>
+        <v>99.99527</v>
       </c>
       <c r="BH7">
-        <v>49.99844</v>
+        <v>50.00472</v>
       </c>
     </row>
     <row r="8" spans="1:60">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B8">
-        <v>50.00233</v>
+        <v>49.99775</v>
       </c>
       <c r="C8">
-        <v>199.99901</v>
+        <v>199.99939</v>
       </c>
       <c r="D8">
-        <v>100.00366</v>
+        <v>99.99745</v>
       </c>
       <c r="E8">
-        <v>40.00105</v>
+        <v>40.00421</v>
       </c>
       <c r="F8">
-        <v>29.99949</v>
+        <v>30.00289</v>
       </c>
       <c r="G8">
-        <v>80.00006</v>
+        <v>79.99915</v>
       </c>
       <c r="H8">
-        <v>40.00009</v>
+        <v>39.99549</v>
       </c>
       <c r="I8">
-        <v>30.00198</v>
+        <v>29.9958</v>
       </c>
       <c r="J8">
-        <v>79.99634</v>
+        <v>80.00026</v>
       </c>
       <c r="K8">
-        <v>99.16963</v>
+        <v>92.71639999999999</v>
       </c>
       <c r="L8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="M8">
-        <v>199.99901</v>
+        <v>199.99939</v>
       </c>
       <c r="N8">
-        <v>0.42932</v>
+        <v>10.16113</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q8">
-        <v>100.00366</v>
+        <v>99.99745</v>
       </c>
       <c r="R8">
-        <v>97.40293</v>
+        <v>92.97269</v>
       </c>
       <c r="S8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="T8">
-        <v>199.99901</v>
+        <v>199.99939</v>
       </c>
       <c r="U8">
-        <v>11.72279</v>
+        <v>7.34597</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X8">
-        <v>140.00255</v>
+        <v>139.99896</v>
       </c>
       <c r="Y8">
-        <v>93.96191</v>
+        <v>99.87392</v>
       </c>
       <c r="Z8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="AA8">
-        <v>199.99901</v>
+        <v>199.99939</v>
       </c>
       <c r="AB8">
-        <v>0.24662</v>
+        <v>4.11037</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE8">
-        <v>180.00506</v>
+        <v>180.0008</v>
       </c>
       <c r="AF8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="AG8">
-        <v>229.9985</v>
+        <v>230.00228</v>
       </c>
       <c r="AH8">
-        <v>1.52284</v>
+        <v>2.14054</v>
       </c>
       <c r="AI8">
-        <v>508.76388</v>
+        <v>490.91529</v>
       </c>
       <c r="AJ8">
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL8">
-        <v>180.00506</v>
+        <v>180.0008</v>
       </c>
       <c r="AM8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="AN8">
-        <v>260.00048</v>
+        <v>259.99808</v>
       </c>
       <c r="AO8">
-        <v>8.219139999999999</v>
+        <v>6.39352</v>
       </c>
       <c r="AP8">
-        <v>493.46288</v>
+        <v>508.31779</v>
       </c>
       <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS8">
-        <v>180.00506</v>
+        <v>180.0008</v>
       </c>
       <c r="AT8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="AU8">
-        <v>260.00048</v>
+        <v>259.99808</v>
       </c>
       <c r="AV8">
-        <v>6.11167</v>
+        <v>38.54201</v>
       </c>
       <c r="AW8">
         <v>0</v>
       </c>
       <c r="AX8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY8">
-        <v>180.00506</v>
+        <v>180.0008</v>
       </c>
       <c r="AZ8">
-        <v>30.00073</v>
+        <v>29.99883</v>
       </c>
       <c r="BA8">
-        <v>29.9992</v>
+        <v>30.00389</v>
       </c>
       <c r="BB8">
-        <v>49.99889</v>
+        <v>50.00151</v>
       </c>
       <c r="BC8">
-        <v>29.99901</v>
+        <v>29.99793</v>
       </c>
       <c r="BD8">
-        <v>29.99774</v>
+        <v>30.001</v>
       </c>
       <c r="BE8">
-        <v>50.00251</v>
+        <v>50.00184</v>
       </c>
       <c r="BF8">
-        <v>59.99939</v>
+        <v>59.9958</v>
       </c>
       <c r="BG8">
-        <v>99.99930000000001</v>
+        <v>100.0005</v>
       </c>
       <c r="BH8">
-        <v>49.9992</v>
+        <v>50.00055</v>
       </c>
     </row>
     <row r="9" spans="1:60">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>50.00185</v>
+        <v>49.99999</v>
       </c>
       <c r="C9">
-        <v>200.00096</v>
+        <v>200.00228</v>
       </c>
       <c r="D9">
-        <v>100.00016</v>
+        <v>100.00472</v>
       </c>
       <c r="E9">
-        <v>40.00376</v>
+        <v>39.99887</v>
       </c>
       <c r="F9">
-        <v>29.99866</v>
+        <v>29.99723</v>
       </c>
       <c r="G9">
-        <v>80.00288999999999</v>
+        <v>80.00094</v>
       </c>
       <c r="H9">
-        <v>39.99837</v>
+        <v>39.99749</v>
       </c>
       <c r="I9">
-        <v>29.99669</v>
+        <v>30.00118</v>
       </c>
       <c r="J9">
-        <v>79.99836000000001</v>
+        <v>80.00097</v>
       </c>
       <c r="K9">
-        <v>89.22553000000001</v>
+        <v>99.50135</v>
       </c>
       <c r="L9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="M9">
-        <v>200.00096</v>
+        <v>200.00228</v>
       </c>
       <c r="N9">
-        <v>28.47501</v>
+        <v>42.76221</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q9">
-        <v>100.00016</v>
+        <v>100.00472</v>
       </c>
       <c r="R9">
-        <v>89.70744000000001</v>
+        <v>95.24607</v>
       </c>
       <c r="S9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="T9">
-        <v>200.00096</v>
+        <v>200.00228</v>
       </c>
       <c r="U9">
-        <v>2.92025</v>
+        <v>0.80905</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X9">
-        <v>140.13362</v>
+        <v>139.99858</v>
       </c>
       <c r="Y9">
-        <v>98.18231</v>
+        <v>89.80059</v>
       </c>
       <c r="Z9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="AA9">
-        <v>200.00096</v>
+        <v>200.00228</v>
       </c>
       <c r="AB9">
-        <v>2.79006</v>
+        <v>6.15635</v>
       </c>
       <c r="AC9">
         <v>1</v>
       </c>
       <c r="AD9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE9">
-        <v>180.13523</v>
+        <v>180.12067</v>
       </c>
       <c r="AF9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="AG9">
-        <v>229.99962</v>
+        <v>229.99951</v>
       </c>
       <c r="AH9">
-        <v>0.49141</v>
+        <v>3.86628</v>
       </c>
       <c r="AI9">
-        <v>503.12236</v>
+        <v>509.36073</v>
       </c>
       <c r="AJ9">
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL9">
-        <v>180.13523</v>
+        <v>180.12067</v>
       </c>
       <c r="AM9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="AN9">
-        <v>259.99631</v>
+        <v>260.00069</v>
       </c>
       <c r="AO9">
-        <v>0.25525</v>
+        <v>4.49869</v>
       </c>
       <c r="AP9">
-        <v>489.5469</v>
+        <v>491.67347</v>
       </c>
       <c r="AQ9">
         <v>1</v>
       </c>
       <c r="AR9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS9">
-        <v>180.13523</v>
+        <v>180.12067</v>
       </c>
       <c r="AT9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="AU9">
-        <v>259.99631</v>
+        <v>260.00069</v>
       </c>
       <c r="AV9">
-        <v>4.50941</v>
+        <v>6.43128</v>
       </c>
       <c r="AW9">
         <v>1</v>
       </c>
       <c r="AX9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY9">
-        <v>180.13523</v>
+        <v>180.12067</v>
       </c>
       <c r="AZ9">
-        <v>29.99815</v>
+        <v>29.99781</v>
       </c>
       <c r="BA9">
-        <v>30.00011</v>
+        <v>30.00217</v>
       </c>
       <c r="BB9">
-        <v>50.00128</v>
+        <v>49.99386</v>
       </c>
       <c r="BC9">
-        <v>30.00158</v>
+        <v>29.99923</v>
       </c>
       <c r="BD9">
-        <v>30.00177</v>
+        <v>29.99882</v>
       </c>
       <c r="BE9">
-        <v>50.00161</v>
+        <v>50.00015</v>
       </c>
       <c r="BF9">
-        <v>59.99805</v>
+        <v>60.00126</v>
       </c>
       <c r="BG9">
-        <v>100.00298</v>
+        <v>99.99874</v>
       </c>
       <c r="BH9">
-        <v>50.00084</v>
+        <v>49.99873</v>
       </c>
     </row>
     <row r="10" spans="1:60">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B10">
-        <v>50.00399</v>
+        <v>49.9979</v>
       </c>
       <c r="C10">
-        <v>200.00418</v>
+        <v>200.00692</v>
       </c>
       <c r="D10">
-        <v>99.99594</v>
+        <v>100.00453</v>
       </c>
       <c r="E10">
-        <v>40.00144</v>
+        <v>40.00407</v>
       </c>
       <c r="F10">
-        <v>30.00081</v>
+        <v>29.9976</v>
       </c>
       <c r="G10">
-        <v>80.00203</v>
+        <v>79.99939999999999</v>
       </c>
       <c r="H10">
-        <v>39.99469</v>
+        <v>39.99862</v>
       </c>
       <c r="I10">
-        <v>30.00298</v>
+        <v>29.99408</v>
       </c>
       <c r="J10">
-        <v>80</v>
+        <v>79.99609</v>
       </c>
       <c r="K10">
-        <v>96.0887</v>
+        <v>92.62658</v>
       </c>
       <c r="L10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="M10">
-        <v>200.00418</v>
+        <v>200.00692</v>
       </c>
       <c r="N10">
-        <v>23.55929</v>
+        <v>12.23512</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q10">
-        <v>99.99594</v>
+        <v>100.00453</v>
       </c>
       <c r="R10">
-        <v>96.38481</v>
+        <v>97.18295999999999</v>
       </c>
       <c r="S10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="T10">
-        <v>200.00418</v>
+        <v>200.00692</v>
       </c>
       <c r="U10">
-        <v>35.48622</v>
+        <v>0.5693</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X10">
-        <v>139.9933</v>
+        <v>140.00492</v>
       </c>
       <c r="Y10">
-        <v>97.86942000000001</v>
+        <v>89.79704</v>
       </c>
       <c r="Z10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="AA10">
-        <v>200.00418</v>
+        <v>200.00692</v>
       </c>
       <c r="AB10">
-        <v>3.59125</v>
+        <v>3.11009</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE10">
-        <v>179.99185</v>
+        <v>180.13303</v>
       </c>
       <c r="AF10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="AG10">
-        <v>230.00499</v>
+        <v>230.00452</v>
       </c>
       <c r="AH10">
-        <v>13.46217</v>
+        <v>0.7387</v>
       </c>
       <c r="AI10">
-        <v>492.03733</v>
+        <v>504.26323</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL10">
-        <v>179.99185</v>
+        <v>180.13303</v>
       </c>
       <c r="AM10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="AN10">
-        <v>260.00797</v>
+        <v>259.9986</v>
       </c>
       <c r="AO10">
-        <v>0.90933</v>
+        <v>29.65479</v>
       </c>
       <c r="AP10">
-        <v>494.34643</v>
+        <v>499.78582</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS10">
-        <v>179.99185</v>
+        <v>180.13303</v>
       </c>
       <c r="AT10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="AU10">
-        <v>260.00797</v>
+        <v>259.9986</v>
       </c>
       <c r="AV10">
-        <v>23.83158</v>
+        <v>17.28459</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY10">
-        <v>179.99185</v>
+        <v>180.13303</v>
       </c>
       <c r="AZ10">
-        <v>29.99933</v>
+        <v>30.00035</v>
       </c>
       <c r="BA10">
-        <v>30.00179</v>
+        <v>29.99969</v>
       </c>
       <c r="BB10">
-        <v>49.99736</v>
+        <v>50.00039</v>
       </c>
       <c r="BC10">
-        <v>30.00121</v>
+        <v>29.99835</v>
       </c>
       <c r="BD10">
-        <v>29.9979</v>
+        <v>29.99634</v>
       </c>
       <c r="BE10">
-        <v>49.99855</v>
+        <v>50.00578</v>
       </c>
       <c r="BF10">
-        <v>59.99826</v>
+        <v>60.00259</v>
       </c>
       <c r="BG10">
-        <v>99.99850000000001</v>
+        <v>99.99964</v>
       </c>
       <c r="BH10">
-        <v>49.9986</v>
+        <v>49.99933</v>
       </c>
     </row>
     <row r="11" spans="1:60">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B11">
-        <v>50.00034</v>
+        <v>50.00279</v>
       </c>
       <c r="C11">
-        <v>200.00066</v>
+        <v>200.00045</v>
       </c>
       <c r="D11">
-        <v>100.0016</v>
+        <v>100.00206</v>
       </c>
       <c r="E11">
-        <v>40.00076</v>
+        <v>39.99832</v>
       </c>
       <c r="F11">
-        <v>30.00703</v>
+        <v>30.00331</v>
       </c>
       <c r="G11">
-        <v>80.00004</v>
+        <v>80.00145000000001</v>
       </c>
       <c r="H11">
-        <v>39.9959</v>
+        <v>39.99791</v>
       </c>
       <c r="I11">
-        <v>30.00333</v>
+        <v>30.00001</v>
       </c>
       <c r="J11">
-        <v>80.00257000000001</v>
+        <v>80.00147</v>
       </c>
       <c r="K11">
-        <v>95.26593</v>
+        <v>91.53400000000001</v>
       </c>
       <c r="L11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="M11">
-        <v>200.00066</v>
+        <v>200.00045</v>
       </c>
       <c r="N11">
-        <v>21.25384</v>
+        <v>1.75528</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q11">
-        <v>100.0016</v>
+        <v>100.00206</v>
       </c>
       <c r="R11">
-        <v>98.74104</v>
+        <v>95.47708</v>
       </c>
       <c r="S11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="T11">
-        <v>200.00066</v>
+        <v>200.00045</v>
       </c>
       <c r="U11">
-        <v>0.16775</v>
+        <v>1.20834</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X11">
-        <v>140.00336</v>
+        <v>139.99698</v>
       </c>
       <c r="Y11">
-        <v>98.11159000000001</v>
+        <v>90.95147</v>
       </c>
       <c r="Z11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="AA11">
-        <v>200.00066</v>
+        <v>200.00045</v>
       </c>
       <c r="AB11">
-        <v>27.88098</v>
+        <v>4.66825</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE11">
-        <v>180.00505</v>
+        <v>179.99696</v>
       </c>
       <c r="AF11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="AG11">
-        <v>230.00769</v>
+        <v>230.00376</v>
       </c>
       <c r="AH11">
-        <v>2.23155</v>
+        <v>11.12583</v>
       </c>
       <c r="AI11">
-        <v>510.37974</v>
+        <v>489.69651</v>
       </c>
       <c r="AJ11">
         <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL11">
-        <v>180.00505</v>
+        <v>179.99696</v>
       </c>
       <c r="AM11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="AN11">
-        <v>260.01102</v>
+        <v>260.00377</v>
       </c>
       <c r="AO11">
-        <v>2.32507</v>
+        <v>23.42577</v>
       </c>
       <c r="AP11">
-        <v>492.11778</v>
+        <v>499.4947</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS11">
-        <v>180.00505</v>
+        <v>179.99696</v>
       </c>
       <c r="AT11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="AU11">
-        <v>260.01102</v>
+        <v>260.00377</v>
       </c>
       <c r="AV11">
-        <v>3.01669</v>
+        <v>5.57462</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AY11">
-        <v>180.00505</v>
+        <v>179.99696</v>
       </c>
       <c r="AZ11">
-        <v>29.9985</v>
+        <v>30.00208</v>
       </c>
       <c r="BA11">
-        <v>30.00293</v>
+        <v>29.99998</v>
       </c>
       <c r="BB11">
-        <v>50.00176</v>
+        <v>49.99492</v>
       </c>
       <c r="BC11">
-        <v>30.00256</v>
+        <v>29.99964</v>
       </c>
       <c r="BD11">
-        <v>30.00295</v>
+        <v>30.00117</v>
       </c>
       <c r="BE11">
-        <v>50.00169</v>
+        <v>49.99998</v>
       </c>
       <c r="BF11">
-        <v>59.99831</v>
+        <v>60.00187</v>
       </c>
       <c r="BG11">
-        <v>100.00204</v>
+        <v>100.00072</v>
       </c>
       <c r="BH11">
-        <v>49.99717</v>
+        <v>49.99677</v>
       </c>
     </row>
   </sheetData>
